--- a/Product & Sprint Backlog Doc.xlsx
+++ b/Product & Sprint Backlog Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B25EBB-FB30-4490-B69F-D934C60AA7F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F825F47-AE27-4B6A-B172-11A34F436A9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="818" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="153">
   <si>
     <t>Type</t>
   </si>
@@ -1159,42 +1159,18 @@
     <t>Check tables are populated in DB</t>
   </si>
   <si>
-    <t>Work in Progress</t>
-  </si>
-  <si>
-    <t>Online Wallet:007</t>
-  </si>
-  <si>
     <t>Add Money method which will enable users to add money to their Wallet</t>
   </si>
   <si>
-    <t>3 hrs</t>
-  </si>
-  <si>
-    <t>1.5 hrs</t>
-  </si>
-  <si>
-    <t>2 hrs</t>
-  </si>
-  <si>
-    <t>1 hrs</t>
-  </si>
-  <si>
     <t>Online Wallet:008</t>
   </si>
   <si>
     <t>Send Money method which will help users to transfer funds from one wallet account to another</t>
   </si>
   <si>
-    <t>1.5  hrs</t>
-  </si>
-  <si>
     <t>Incomplete</t>
   </si>
   <si>
-    <t>OnlineWallet: 009</t>
-  </si>
-  <si>
     <t>Show Balance method which helps users to check the balance in their wallet account.</t>
   </si>
   <si>
@@ -1204,18 +1180,12 @@
     <t>showprofile method which will show the profiledata from user</t>
   </si>
   <si>
-    <t>Online Wallet:012</t>
-  </si>
-  <si>
     <t>updateprofile method which will enable users to update the profile</t>
   </si>
   <si>
     <t>Online Wallet:013</t>
   </si>
   <si>
-    <t>showtransactionhistory method which will help users to check their account history</t>
-  </si>
-  <si>
     <t>OnlineWallet: 014</t>
   </si>
   <si>
@@ -1223,6 +1193,30 @@
   </si>
   <si>
     <t>Selectdate method which helps users to see only the needed transaction details</t>
+  </si>
+  <si>
+    <t>Original Estimate (in hours)</t>
+  </si>
+  <si>
+    <t>Online Wallet:009</t>
+  </si>
+  <si>
+    <t>OnlineWallet: 010</t>
+  </si>
+  <si>
+    <t>Admin control methods to administer the accounts</t>
+  </si>
+  <si>
+    <t>Rest Controller method to link the work of service with help of anotations</t>
+  </si>
+  <si>
+    <t>Service method containing different methods to manage the project form admin side</t>
+  </si>
+  <si>
+    <t>Dao method helps us in query building and various other tasks</t>
+  </si>
+  <si>
+    <t>Work in Progres</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,24 +1689,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1723,12 +1702,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1736,16 +1709,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,6 +1720,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6389,10 +6371,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U176"/>
+  <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6402,7 +6384,9 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="5" width="30.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" style="81" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
@@ -6464,7 +6448,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>26</v>
@@ -6498,7 +6482,7 @@
       <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="100" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="4">
@@ -6507,20 +6491,20 @@
       <c r="D4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="103">
         <v>43875</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="99">
         <v>4</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="99">
         <v>2</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99">
         <v>3</v>
       </c>
       <c r="K4" s="15"/>
@@ -6532,27 +6516,27 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="15">
         <v>2</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="103">
         <v>43875</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="99">
         <v>2</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="99">
         <v>2</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15">
+      <c r="I5" s="99"/>
+      <c r="J5" s="99">
         <v>2</v>
       </c>
       <c r="K5" s="15"/>
@@ -6564,27 +6548,27 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="15">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="103">
         <v>43875</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="99">
         <v>2</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="99">
         <v>1</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15">
+      <c r="I6" s="99"/>
+      <c r="J6" s="99">
         <v>2</v>
       </c>
       <c r="K6" s="15"/>
@@ -6596,27 +6580,27 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="15">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="103">
         <v>43875</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="99">
         <v>2</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="99">
         <v>2</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15">
+      <c r="I7" s="99"/>
+      <c r="J7" s="99">
         <v>3</v>
       </c>
       <c r="K7" s="15"/>
@@ -6628,27 +6612,27 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="15">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="103">
         <v>43875</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="99">
         <v>4</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="99">
         <v>3</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15">
+      <c r="I8" s="99"/>
+      <c r="J8" s="99">
         <v>3</v>
       </c>
       <c r="K8" s="15"/>
@@ -6660,27 +6644,27 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="15">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="103">
         <v>43875</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="99">
         <v>4</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="99">
         <v>4</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15">
+      <c r="I9" s="99"/>
+      <c r="J9" s="99">
         <v>5</v>
       </c>
       <c r="K9" s="15"/>
@@ -6692,27 +6676,27 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="15">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="103">
         <v>43875</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="99">
         <v>1</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="99">
         <v>2</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15">
+      <c r="I10" s="99"/>
+      <c r="J10" s="99">
         <v>2</v>
       </c>
       <c r="K10" s="15"/>
@@ -6724,27 +6708,27 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="15">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="103">
         <v>43875</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="99">
         <v>2</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="99">
         <v>2</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15">
+      <c r="I11" s="99"/>
+      <c r="J11" s="99">
         <v>3</v>
       </c>
       <c r="K11" s="15"/>
@@ -6756,27 +6740,27 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="15">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="103">
         <v>43935</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="99">
         <v>1</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="99">
         <v>1</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15">
+      <c r="I12" s="99"/>
+      <c r="J12" s="99">
         <v>1</v>
       </c>
       <c r="K12" s="15"/>
@@ -6788,15 +6772,15 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="15"/>
       <c r="D13" s="61"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
       <c r="K13" s="15"/>
       <c r="L13" s="76"/>
       <c r="M13" s="4"/>
@@ -6808,7 +6792,7 @@
       <c r="A14" s="15">
         <v>2</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="100" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="15">
@@ -6817,20 +6801,20 @@
       <c r="D14" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="103">
         <v>43938</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="99">
         <v>2</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="99">
         <v>2</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15">
+      <c r="I14" s="99"/>
+      <c r="J14" s="99">
         <v>2</v>
       </c>
       <c r="K14" s="15"/>
@@ -6842,27 +6826,27 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="35"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="15">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="103">
         <v>43938</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="99">
         <v>2</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="99">
         <v>1</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15">
+      <c r="I15" s="99"/>
+      <c r="J15" s="99">
         <v>2</v>
       </c>
       <c r="K15" s="15"/>
@@ -6874,27 +6858,27 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="35"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="15">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="103">
         <v>43938</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="99">
         <v>2</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="99">
         <v>2</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15">
+      <c r="I16" s="99"/>
+      <c r="J16" s="99">
         <v>3</v>
       </c>
       <c r="K16" s="15"/>
@@ -6908,7 +6892,7 @@
       <c r="A17" s="15">
         <v>3</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="100" t="s">
         <v>113</v>
       </c>
       <c r="C17" s="15">
@@ -6917,22 +6901,22 @@
       <c r="D17" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="103">
         <v>43938</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="99">
         <v>2</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="99">
         <v>1</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="99">
         <v>1</v>
       </c>
       <c r="K17" s="15"/>
@@ -6944,29 +6928,29 @@
     </row>
     <row r="18" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="15">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="86">
+      <c r="F18" s="103">
         <v>43938</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="99">
         <v>1</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="99">
         <v>1</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="99">
         <v>1</v>
       </c>
       <c r="K18" s="15"/>
@@ -6978,29 +6962,29 @@
     </row>
     <row r="19" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="15">
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="103">
         <v>43938</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="99">
         <v>2</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="99">
         <v>1</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="99">
         <v>2</v>
       </c>
       <c r="K19" s="15"/>
@@ -7014,7 +6998,7 @@
       <c r="A20" s="15">
         <v>4</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="100" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="15">
@@ -7023,22 +7007,22 @@
       <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="103">
         <v>43938</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="99">
         <v>4</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="99">
         <v>2</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="99">
         <v>3</v>
       </c>
       <c r="K20" s="15"/>
@@ -7050,29 +7034,29 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="15">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="103">
         <v>43941</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="99">
         <v>3</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="99">
         <v>2</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="99">
         <v>3</v>
       </c>
       <c r="K21" s="15"/>
@@ -7084,29 +7068,29 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="15">
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="103">
         <v>43941</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="99">
         <v>3</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="99">
         <v>4</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="99">
         <v>3</v>
       </c>
       <c r="K22" s="15"/>
@@ -7120,7 +7104,7 @@
       <c r="A23" s="15">
         <v>5</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="100" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="15">
@@ -7129,22 +7113,22 @@
       <c r="D23" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="85">
-        <v>43941</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="F23" s="103">
+        <v>43938</v>
+      </c>
+      <c r="G23" s="99">
         <v>3</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="99">
         <v>2</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="99">
         <v>2</v>
       </c>
       <c r="K23" s="15"/>
@@ -7156,29 +7140,29 @@
     </row>
     <row r="24" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="61">
         <v>2</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="87">
-        <v>43941</v>
-      </c>
-      <c r="G24" s="61">
+      <c r="F24" s="103">
+        <v>43938</v>
+      </c>
+      <c r="G24" s="99">
         <v>2</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="99">
         <v>3</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="61">
+      <c r="J24" s="99">
         <v>3</v>
       </c>
       <c r="K24" s="61"/>
@@ -7190,29 +7174,29 @@
     </row>
     <row r="25" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="61">
         <v>3</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="87">
-        <v>43942</v>
-      </c>
-      <c r="G25" s="61">
+      <c r="F25" s="103">
+        <v>43938</v>
+      </c>
+      <c r="G25" s="99">
         <v>3</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="99">
         <v>4</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="99">
         <v>4</v>
       </c>
       <c r="K25" s="61"/>
@@ -7224,29 +7208,29 @@
     </row>
     <row r="26" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="61">
         <v>4</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="87">
-        <v>43943</v>
-      </c>
-      <c r="G26" s="61">
+      <c r="F26" s="103">
+        <v>43938</v>
+      </c>
+      <c r="G26" s="99">
         <v>3</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="99">
         <v>4</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="61">
+      <c r="J26" s="99">
         <v>5</v>
       </c>
       <c r="K26" s="61"/>
@@ -7260,7 +7244,7 @@
       <c r="A27" s="61">
         <v>6</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="100" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="61">
@@ -7269,18 +7253,24 @@
       <c r="D27" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="87">
-        <v>43944</v>
-      </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="J27" s="61"/>
+      <c r="F27" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G27" s="99">
+        <v>5</v>
+      </c>
+      <c r="H27" s="99">
+        <v>7</v>
+      </c>
+      <c r="I27" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="99">
+        <v>15</v>
+      </c>
       <c r="K27" s="61"/>
       <c r="L27" s="77"/>
       <c r="M27" s="10"/>
@@ -7290,25 +7280,31 @@
     </row>
     <row r="28" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="61">
         <v>2</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="87">
-        <v>43944</v>
-      </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" s="61"/>
+      <c r="F28" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G28" s="99">
+        <v>2</v>
+      </c>
+      <c r="H28" s="99">
+        <v>3</v>
+      </c>
+      <c r="I28" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="99">
+        <v>5</v>
+      </c>
       <c r="K28" s="61"/>
       <c r="L28" s="77"/>
       <c r="M28" s="10"/>
@@ -7318,25 +7314,31 @@
     </row>
     <row r="29" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="61">
         <v>3</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="87">
-        <v>43945</v>
-      </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="J29" s="61"/>
+      <c r="F29" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G29" s="99">
+        <v>3</v>
+      </c>
+      <c r="H29" s="99">
+        <v>3</v>
+      </c>
+      <c r="I29" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="99">
+        <v>6</v>
+      </c>
       <c r="K29" s="61"/>
       <c r="L29" s="77"/>
       <c r="M29" s="10"/>
@@ -7346,25 +7348,31 @@
     </row>
     <row r="30" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="61">
         <v>4</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="87">
-        <v>43945</v>
-      </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="61"/>
+      <c r="F30" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G30" s="99">
+        <v>2</v>
+      </c>
+      <c r="H30" s="99">
+        <v>4</v>
+      </c>
+      <c r="I30" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="99">
+        <v>6</v>
+      </c>
       <c r="K30" s="61"/>
       <c r="L30" s="77"/>
       <c r="M30" s="10"/>
@@ -7372,163 +7380,167 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="102" t="s">
+    <row r="31" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="89">
+        <v>7</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="89">
+        <v>1</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="103">
+        <v>43945</v>
+      </c>
+      <c r="G31" s="99">
+        <v>9</v>
+      </c>
+      <c r="H31" s="99">
+        <v>14</v>
+      </c>
+      <c r="I31" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="99"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+    </row>
+    <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="89"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="89">
+        <v>2</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="103">
+        <v>43945</v>
+      </c>
+      <c r="G32" s="99">
+        <v>4</v>
+      </c>
+      <c r="H32" s="99">
+        <v>7</v>
+      </c>
+      <c r="I32" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" s="99"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+    </row>
+    <row r="33" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="89"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="89">
+        <v>3</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="103">
+        <v>43945</v>
+      </c>
+      <c r="G33" s="99">
+        <v>5</v>
+      </c>
+      <c r="H33" s="99">
+        <v>6</v>
+      </c>
+      <c r="I33" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="99"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+    </row>
+    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="89"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="89">
+        <v>4</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="103">
+        <v>43945</v>
+      </c>
+      <c r="G34" s="99">
+        <v>3</v>
+      </c>
+      <c r="H34" s="99">
+        <v>6</v>
+      </c>
+      <c r="I34" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="99"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+    </row>
+    <row r="35" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="61">
+        <v>8</v>
+      </c>
+      <c r="B35" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="94">
+      <c r="C35" s="89">
         <v>1</v>
       </c>
-      <c r="D31" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="94" t="s">
+      <c r="D35" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="101">
+      <c r="F35" s="103">
         <v>43941</v>
       </c>
-      <c r="G31" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="94" t="s">
+      <c r="G35" s="99">
+        <v>3</v>
+      </c>
+      <c r="H35" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="94">
-        <v>2</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="101">
-        <v>43941</v>
-      </c>
-      <c r="G32" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="94">
-        <v>3</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="101">
-        <v>43942</v>
-      </c>
-      <c r="G33" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="I33" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="94">
-        <v>4</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="101">
-        <v>43942</v>
-      </c>
-      <c r="G34" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="I34" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="94">
-        <v>1</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="101">
-        <v>43941</v>
-      </c>
-      <c r="G35" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="61"/>
+      <c r="J35" s="99"/>
       <c r="K35" s="61"/>
       <c r="L35" s="77"/>
       <c r="M35" s="10"/>
@@ -7538,29 +7550,29 @@
     </row>
     <row r="36" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="61"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="94">
+      <c r="B36" s="98"/>
+      <c r="C36" s="89">
         <v>2</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="94" t="s">
+      <c r="E36" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="101">
-        <v>43943</v>
-      </c>
-      <c r="G36" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J36" s="61"/>
+      <c r="F36" s="103">
+        <v>43941</v>
+      </c>
+      <c r="G36" s="99">
+        <v>2</v>
+      </c>
+      <c r="H36" s="99">
+        <v>2</v>
+      </c>
+      <c r="I36" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="99"/>
       <c r="K36" s="61"/>
       <c r="L36" s="77"/>
       <c r="M36" s="10"/>
@@ -7570,29 +7582,29 @@
     </row>
     <row r="37" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="61"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="94">
+      <c r="B37" s="98"/>
+      <c r="C37" s="89">
         <v>3</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="94" t="s">
+      <c r="E37" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="101">
-        <v>43943</v>
-      </c>
-      <c r="G37" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="61"/>
+      <c r="F37" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G37" s="99">
+        <v>2</v>
+      </c>
+      <c r="H37" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I37" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="99"/>
       <c r="K37" s="61"/>
       <c r="L37" s="77"/>
       <c r="M37" s="10"/>
@@ -7602,29 +7614,29 @@
     </row>
     <row r="38" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="94">
+      <c r="B38" s="98"/>
+      <c r="C38" s="89">
         <v>4</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="101">
-        <v>43943</v>
-      </c>
-      <c r="G38" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="I38" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="61"/>
+      <c r="F38" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G38" s="99">
+        <v>1</v>
+      </c>
+      <c r="H38" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I38" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="99"/>
       <c r="K38" s="61"/>
       <c r="L38" s="77"/>
       <c r="M38" s="10"/>
@@ -7633,32 +7645,34 @@
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="94">
+      <c r="A39" s="61">
+        <v>9</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="89">
         <v>1</v>
       </c>
-      <c r="D39" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="94" t="s">
+      <c r="D39" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="101">
+      <c r="F39" s="103">
         <v>43941</v>
       </c>
-      <c r="G39" s="94" t="s">
+      <c r="G39" s="99">
+        <v>3</v>
+      </c>
+      <c r="H39" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I39" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="I39" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="61"/>
+      <c r="J39" s="99"/>
       <c r="K39" s="61"/>
       <c r="L39" s="77"/>
       <c r="M39" s="10"/>
@@ -7668,29 +7682,29 @@
     </row>
     <row r="40" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="94">
+      <c r="B40" s="98"/>
+      <c r="C40" s="89">
         <v>2</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="101">
-        <v>43944</v>
-      </c>
-      <c r="G40" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="61"/>
+      <c r="F40" s="103">
+        <v>43943</v>
+      </c>
+      <c r="G40" s="99">
+        <v>2</v>
+      </c>
+      <c r="H40" s="99">
+        <v>2</v>
+      </c>
+      <c r="I40" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" s="99"/>
       <c r="K40" s="61"/>
       <c r="L40" s="77"/>
       <c r="M40" s="10"/>
@@ -7700,29 +7714,29 @@
     </row>
     <row r="41" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="61"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="94">
+      <c r="B41" s="98"/>
+      <c r="C41" s="89">
         <v>3</v>
       </c>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="94" t="s">
+      <c r="E41" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="101">
-        <v>43944</v>
-      </c>
-      <c r="G41" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="61"/>
+      <c r="F41" s="103">
+        <v>43943</v>
+      </c>
+      <c r="G41" s="99">
+        <v>2</v>
+      </c>
+      <c r="H41" s="99">
+        <v>1</v>
+      </c>
+      <c r="I41" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="99"/>
       <c r="K41" s="61"/>
       <c r="L41" s="77"/>
       <c r="M41" s="10"/>
@@ -7732,29 +7746,29 @@
     </row>
     <row r="42" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="61"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="94">
+      <c r="B42" s="98"/>
+      <c r="C42" s="89">
         <v>4</v>
       </c>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F42" s="101">
-        <v>43945</v>
-      </c>
-      <c r="G42" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="I42" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J42" s="61"/>
+      <c r="F42" s="103">
+        <v>43943</v>
+      </c>
+      <c r="G42" s="99">
+        <v>1</v>
+      </c>
+      <c r="H42" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I42" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="99"/>
       <c r="K42" s="61"/>
       <c r="L42" s="77"/>
       <c r="M42" s="10"/>
@@ -7763,27 +7777,35 @@
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="90">
+      <c r="A43" s="61">
+        <v>10</v>
+      </c>
+      <c r="B43" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="89">
         <v>1</v>
       </c>
-      <c r="D43" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="100">
+      <c r="D43" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="103">
         <v>43941</v>
       </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
+      <c r="G43" s="99">
+        <v>3</v>
+      </c>
+      <c r="H43" s="99">
+        <v>2</v>
+      </c>
+      <c r="I43" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43" s="99"/>
+      <c r="K43" s="61"/>
       <c r="L43" s="77"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -7792,23 +7814,29 @@
     </row>
     <row r="44" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="61"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="94">
+      <c r="B44" s="98"/>
+      <c r="C44" s="89">
         <v>2</v>
       </c>
-      <c r="D44" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="101">
-        <v>43942</v>
-      </c>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="61"/>
+      <c r="D44" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="103">
+        <v>43944</v>
+      </c>
+      <c r="G44" s="99">
+        <v>2</v>
+      </c>
+      <c r="H44" s="99">
+        <v>2</v>
+      </c>
+      <c r="I44" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44" s="99"/>
       <c r="K44" s="61"/>
       <c r="L44" s="77"/>
       <c r="M44" s="10"/>
@@ -7816,263 +7844,279 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="66"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="94">
+    <row r="45" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="61"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="89">
         <v>3</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D45" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="103">
+        <v>43944</v>
+      </c>
+      <c r="G45" s="99">
+        <v>1</v>
+      </c>
+      <c r="H45" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I45" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" s="99"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+    </row>
+    <row r="46" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="61"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="89">
+        <v>4</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="103">
+        <v>43945</v>
+      </c>
+      <c r="G46" s="99">
+        <v>2</v>
+      </c>
+      <c r="H46" s="99">
+        <v>2</v>
+      </c>
+      <c r="I46" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J46" s="99"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+    </row>
+    <row r="47" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="61">
+        <v>11</v>
+      </c>
+      <c r="B47" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="86">
+        <v>1</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="103">
+        <v>43941</v>
+      </c>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+    </row>
+    <row r="48" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="61"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="89">
+        <v>2</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+    </row>
+    <row r="49" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="66"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="89">
+        <v>3</v>
+      </c>
+      <c r="D49" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="90" t="s">
+      <c r="E49" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="101">
+      <c r="F49" s="103">
         <v>43942</v>
       </c>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-    </row>
-    <row r="46" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="66"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="94">
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+    </row>
+    <row r="50" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="66"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="89">
         <v>4</v>
       </c>
-      <c r="D46" s="92" t="s">
+      <c r="D50" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="90" t="s">
+      <c r="E50" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="101">
+      <c r="F50" s="103">
         <v>43943</v>
       </c>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-    </row>
-    <row r="47" spans="1:16" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="66"/>
-      <c r="B47" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="94">
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+    </row>
+    <row r="51" spans="1:16" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="66">
+        <v>12</v>
+      </c>
+      <c r="B51" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="89">
         <v>1</v>
       </c>
-      <c r="D47" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" s="90" t="s">
+      <c r="D51" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="101">
+      <c r="F51" s="103">
         <v>43943</v>
       </c>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-    </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="102"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="94">
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+    </row>
+    <row r="52" spans="1:16" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="93"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="89">
         <v>2</v>
       </c>
-      <c r="D48" s="92" t="s">
+      <c r="D52" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="90" t="s">
+      <c r="E52" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="101">
+      <c r="F52" s="103">
         <v>43944</v>
       </c>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-    </row>
-    <row r="49" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="94">
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+    </row>
+    <row r="53" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="69"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="89">
         <v>3</v>
       </c>
-      <c r="D49" s="92" t="s">
+      <c r="D53" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="90" t="s">
+      <c r="E53" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="101">
+      <c r="F53" s="103">
         <v>43945</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="94">
-        <v>4</v>
-      </c>
-      <c r="D50" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="101">
-        <v>43945</v>
-      </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
-      <c r="B51" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="94">
-        <v>1</v>
-      </c>
-      <c r="D51" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="101">
-        <v>43941</v>
-      </c>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="94">
-        <v>2</v>
-      </c>
-      <c r="D52" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="101">
-        <v>43941</v>
-      </c>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="94">
-        <v>3</v>
-      </c>
-      <c r="D53" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="101">
-        <v>43942</v>
-      </c>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="61"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
       <c r="K53" s="61"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="61"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="94">
+      <c r="B54" s="98"/>
+      <c r="C54" s="89">
         <v>4</v>
       </c>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="90" t="s">
+      <c r="E54" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="101">
-        <v>43942</v>
-      </c>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="61"/>
+      <c r="F54" s="103">
+        <v>43945</v>
+      </c>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
       <c r="K54" s="61"/>
       <c r="L54" s="77"/>
       <c r="M54" s="10"/>
@@ -8080,27 +8124,29 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
-      <c r="B55" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="94">
+    <row r="55" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="61">
+        <v>13</v>
+      </c>
+      <c r="B55" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="89">
         <v>1</v>
       </c>
-      <c r="D55" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="90" t="s">
+      <c r="D55" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="101">
+      <c r="F55" s="103">
         <v>43941</v>
       </c>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="61"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
       <c r="K55" s="61"/>
       <c r="L55" s="77"/>
       <c r="M55" s="10"/>
@@ -8110,23 +8156,23 @@
     </row>
     <row r="56" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="61"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="94">
+      <c r="B56" s="98"/>
+      <c r="C56" s="89">
         <v>2</v>
       </c>
-      <c r="D56" s="92" t="s">
+      <c r="D56" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="90" t="s">
+      <c r="E56" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="101">
-        <v>43943</v>
-      </c>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="61"/>
+      <c r="F56" s="103">
+        <v>43941</v>
+      </c>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
       <c r="K56" s="61"/>
       <c r="L56" s="77"/>
       <c r="M56" s="10"/>
@@ -8136,23 +8182,23 @@
     </row>
     <row r="57" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="61"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="94">
+      <c r="B57" s="98"/>
+      <c r="C57" s="89">
         <v>3</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D57" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="101">
-        <v>43943</v>
-      </c>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="61"/>
+      <c r="F57" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
       <c r="K57" s="61"/>
       <c r="L57" s="77"/>
       <c r="M57" s="10"/>
@@ -8162,23 +8208,23 @@
     </row>
     <row r="58" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="61"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="94">
+      <c r="B58" s="98"/>
+      <c r="C58" s="89">
         <v>4</v>
       </c>
-      <c r="D58" s="92" t="s">
+      <c r="D58" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="101">
-        <v>43943</v>
-      </c>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="61"/>
+      <c r="F58" s="103">
+        <v>43942</v>
+      </c>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
       <c r="K58" s="61"/>
       <c r="L58" s="77"/>
       <c r="M58" s="10"/>
@@ -8187,26 +8233,28 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="B59" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="94">
+      <c r="A59" s="89">
+        <v>14</v>
+      </c>
+      <c r="B59" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="89">
         <v>1</v>
       </c>
-      <c r="D59" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="90" t="s">
+      <c r="D59" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="101">
+      <c r="F59" s="103">
         <v>43941</v>
       </c>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="61"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
       <c r="K59" s="61"/>
       <c r="L59" s="77"/>
       <c r="M59" s="10"/>
@@ -8215,24 +8263,24 @@
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="61"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="94">
+      <c r="A60" s="89"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="89">
         <v>2</v>
       </c>
-      <c r="D60" s="92" t="s">
+      <c r="D60" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="90" t="s">
+      <c r="E60" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="101">
+      <c r="F60" s="103">
         <v>43944</v>
       </c>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="61"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
       <c r="K60" s="61"/>
       <c r="L60" s="77"/>
       <c r="M60" s="10"/>
@@ -8241,24 +8289,24 @@
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="94">
+      <c r="A61" s="89"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="89">
         <v>3</v>
       </c>
-      <c r="D61" s="92" t="s">
+      <c r="D61" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="101">
+      <c r="F61" s="103">
         <v>43944</v>
       </c>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="61"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
       <c r="K61" s="61"/>
       <c r="L61" s="77"/>
       <c r="M61" s="10"/>
@@ -8267,24 +8315,24 @@
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="94">
+      <c r="A62" s="89"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="89">
         <v>4</v>
       </c>
-      <c r="D62" s="92" t="s">
+      <c r="D62" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="90" t="s">
+      <c r="E62" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="101">
+      <c r="F62" s="103">
         <v>43945</v>
       </c>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="61"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
       <c r="K62" s="61"/>
       <c r="L62" s="77"/>
       <c r="M62" s="10"/>
@@ -8293,26 +8341,28 @@
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="61"/>
-      <c r="B63" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="94">
+      <c r="A63" s="89">
+        <v>15</v>
+      </c>
+      <c r="B63" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="89">
         <v>1</v>
       </c>
-      <c r="D63" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="90" t="s">
+      <c r="D63" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="101">
+      <c r="F63" s="103">
         <v>43944</v>
       </c>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="61"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
       <c r="K63" s="61"/>
       <c r="L63" s="77"/>
       <c r="M63" s="10"/>
@@ -8321,24 +8371,25 @@
       <c r="P63" s="10"/>
     </row>
     <row r="64" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
-      <c r="C64" s="94">
+      <c r="A64" s="89"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="89">
         <v>2</v>
       </c>
-      <c r="D64" s="92" t="s">
+      <c r="D64" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="90" t="s">
+      <c r="E64" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="101">
+      <c r="F64" s="103">
         <v>43944</v>
       </c>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="61"/>
       <c r="L64" s="77"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
@@ -8346,24 +8397,25 @@
       <c r="P64" s="10"/>
     </row>
     <row r="65" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
-      <c r="C65" s="94">
+      <c r="A65" s="89"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="89">
         <v>3</v>
       </c>
-      <c r="D65" s="92" t="s">
+      <c r="D65" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="90" t="s">
+      <c r="E65" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="101">
+      <c r="F65" s="103">
         <v>43945</v>
       </c>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="99"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="61"/>
       <c r="L65" s="77"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
@@ -8371,267 +8423,248 @@
       <c r="P65" s="10"/>
     </row>
     <row r="66" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A66" s="95"/>
-      <c r="C66" s="95">
+      <c r="A66" s="89"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="89">
         <v>4</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D66" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="88" t="s">
+      <c r="E66" s="99" t="s">
         <v>109</v>
       </c>
       <c r="F66" s="103">
         <v>43945</v>
       </c>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="99"/>
-      <c r="M66" s="97"/>
-      <c r="N66" s="97"/>
-      <c r="O66" s="97"/>
-      <c r="P66" s="97"/>
-    </row>
-    <row r="67" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="94"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105" t="s">
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="85"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="92"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="90"/>
+      <c r="O70" s="90"/>
+      <c r="P70" s="90"/>
+    </row>
+    <row r="71" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="89"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="98"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="89"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="89"/>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
-      <c r="T67" s="89"/>
-      <c r="U67" s="89"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="94"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="98"/>
-      <c r="M68" s="89"/>
-      <c r="N68" s="89"/>
-      <c r="O68" s="89"/>
-      <c r="P68" s="89"/>
-      <c r="Q68" s="89"/>
-      <c r="R68" s="89"/>
-      <c r="S68" s="89"/>
-      <c r="T68" s="89"/>
-      <c r="U68" s="89"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="94"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="89"/>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89"/>
-      <c r="P69" s="89"/>
-      <c r="Q69" s="89"/>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="89"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="98"/>
-      <c r="M70" s="89"/>
-      <c r="N70" s="89"/>
-      <c r="O70" s="89"/>
-      <c r="P70" s="89"/>
-      <c r="Q70" s="89"/>
-      <c r="R70" s="89"/>
-      <c r="S70" s="89"/>
-      <c r="T70" s="89"/>
-      <c r="U70" s="89"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="94"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="106"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="98"/>
-      <c r="M71" s="89"/>
-      <c r="N71" s="89"/>
-      <c r="O71" s="89"/>
-      <c r="P71" s="89"/>
-      <c r="Q71" s="89"/>
-      <c r="R71" s="89"/>
-      <c r="S71" s="89"/>
-      <c r="T71" s="89"/>
-      <c r="U71" s="89"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="85"/>
+      <c r="N71" s="85"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="85"/>
+      <c r="Q71" s="85"/>
+      <c r="R71" s="85"/>
+      <c r="S71" s="85"/>
+      <c r="T71" s="85"/>
+      <c r="U71" s="85"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="94"/>
-      <c r="B72" s="102"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="98"/>
-      <c r="M72" s="89"/>
-      <c r="N72" s="89"/>
-      <c r="O72" s="89"/>
-      <c r="P72" s="89"/>
-      <c r="Q72" s="89"/>
-      <c r="R72" s="89"/>
-      <c r="S72" s="89"/>
-      <c r="T72" s="89"/>
-      <c r="U72" s="89"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="85"/>
+      <c r="N72" s="85"/>
+      <c r="O72" s="85"/>
+      <c r="P72" s="85"/>
+      <c r="Q72" s="85"/>
+      <c r="R72" s="85"/>
+      <c r="S72" s="85"/>
+      <c r="T72" s="85"/>
+      <c r="U72" s="85"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="89"/>
-      <c r="N73" s="89"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="89"/>
-      <c r="Q73" s="89"/>
-      <c r="R73" s="89"/>
-      <c r="S73" s="89"/>
-      <c r="T73" s="89"/>
-      <c r="U73" s="89"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="85"/>
+      <c r="N73" s="85"/>
+      <c r="O73" s="85"/>
+      <c r="P73" s="85"/>
+      <c r="Q73" s="85"/>
+      <c r="R73" s="85"/>
+      <c r="S73" s="85"/>
+      <c r="T73" s="85"/>
+      <c r="U73" s="85"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74" s="94"/>
+      <c r="A74" s="89"/>
       <c r="B74" s="89"/>
       <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
+      <c r="D74" s="96"/>
       <c r="E74" s="89"/>
       <c r="F74" s="89"/>
       <c r="G74" s="89"/>
       <c r="H74" s="89"/>
       <c r="I74" s="89"/>
-      <c r="J74" s="94"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="89"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="89"/>
-      <c r="P74" s="89"/>
-      <c r="Q74" s="89"/>
-      <c r="R74" s="89"/>
-      <c r="S74" s="89"/>
-      <c r="T74" s="89"/>
-      <c r="U74" s="89"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="85"/>
+      <c r="O74" s="85"/>
+      <c r="P74" s="85"/>
+      <c r="Q74" s="85"/>
+      <c r="R74" s="85"/>
+      <c r="S74" s="85"/>
+      <c r="T74" s="85"/>
+      <c r="U74" s="85"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="94"/>
-      <c r="B75" s="102"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="98"/>
-      <c r="M75" s="89"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="89"/>
-      <c r="Q75" s="89"/>
-      <c r="R75" s="89"/>
-      <c r="S75" s="89"/>
-      <c r="T75" s="89"/>
-      <c r="U75" s="89"/>
+      <c r="A75" s="89"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="91"/>
+      <c r="M75" s="85"/>
+      <c r="N75" s="85"/>
+      <c r="O75" s="85"/>
+      <c r="P75" s="85"/>
+      <c r="Q75" s="85"/>
+      <c r="R75" s="85"/>
+      <c r="S75" s="85"/>
+      <c r="T75" s="85"/>
+      <c r="U75" s="85"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="94"/>
-      <c r="B76" s="102"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="93"/>
       <c r="C76" s="89"/>
-      <c r="D76" s="89"/>
+      <c r="D76" s="96"/>
       <c r="E76" s="89"/>
       <c r="F76" s="89"/>
       <c r="G76" s="89"/>
       <c r="H76" s="89"/>
       <c r="I76" s="89"/>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="98"/>
-      <c r="M76" s="89"/>
-      <c r="N76" s="89"/>
-      <c r="O76" s="89"/>
-      <c r="P76" s="89"/>
-      <c r="Q76" s="89"/>
-      <c r="R76" s="89"/>
-      <c r="S76" s="89"/>
-      <c r="T76" s="89"/>
-      <c r="U76" s="89"/>
+      <c r="J76" s="89"/>
+      <c r="K76" s="89"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="85"/>
+      <c r="N76" s="85"/>
+      <c r="O76" s="85"/>
+      <c r="P76" s="85"/>
+      <c r="Q76" s="85"/>
+      <c r="R76" s="85"/>
+      <c r="S76" s="85"/>
+      <c r="T76" s="85"/>
+      <c r="U76" s="85"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="89"/>
-      <c r="B77" s="102"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
+      <c r="D77" s="96"/>
       <c r="E77" s="89"/>
       <c r="F77" s="89"/>
       <c r="G77" s="89"/>
@@ -8639,45 +8672,45 @@
       <c r="I77" s="89"/>
       <c r="J77" s="89"/>
       <c r="K77" s="89"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="89"/>
-      <c r="N77" s="89"/>
-      <c r="O77" s="89"/>
-      <c r="P77" s="89"/>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="89"/>
-      <c r="S77" s="89"/>
-      <c r="T77" s="89"/>
-      <c r="U77" s="89"/>
+      <c r="L77" s="91"/>
+      <c r="M77" s="85"/>
+      <c r="N77" s="85"/>
+      <c r="O77" s="85"/>
+      <c r="P77" s="85"/>
+      <c r="Q77" s="85"/>
+      <c r="R77" s="85"/>
+      <c r="S77" s="85"/>
+      <c r="T77" s="85"/>
+      <c r="U77" s="85"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="89"/>
-      <c r="B78" s="102"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
       <c r="J78" s="89"/>
       <c r="K78" s="89"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="89"/>
-      <c r="N78" s="89"/>
-      <c r="O78" s="89"/>
-      <c r="P78" s="89"/>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
-      <c r="T78" s="89"/>
-      <c r="U78" s="89"/>
+      <c r="L78" s="91"/>
+      <c r="M78" s="85"/>
+      <c r="N78" s="85"/>
+      <c r="O78" s="85"/>
+      <c r="P78" s="85"/>
+      <c r="Q78" s="85"/>
+      <c r="R78" s="85"/>
+      <c r="S78" s="85"/>
+      <c r="T78" s="85"/>
+      <c r="U78" s="85"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="89"/>
-      <c r="B79" s="89"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
+      <c r="D79" s="87"/>
       <c r="E79" s="89"/>
       <c r="F79" s="89"/>
       <c r="G79" s="89"/>
@@ -8685,2252 +8718,2344 @@
       <c r="I79" s="89"/>
       <c r="J79" s="89"/>
       <c r="K79" s="89"/>
-      <c r="L79" s="107"/>
-      <c r="M79" s="89"/>
-      <c r="N79" s="89"/>
-      <c r="O79" s="89"/>
-      <c r="P79" s="89"/>
-      <c r="Q79" s="89"/>
-      <c r="R79" s="89"/>
-      <c r="S79" s="89"/>
-      <c r="T79" s="89"/>
-      <c r="U79" s="89"/>
+      <c r="L79" s="91"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="85"/>
+      <c r="O79" s="85"/>
+      <c r="P79" s="85"/>
+      <c r="Q79" s="85"/>
+      <c r="R79" s="85"/>
+      <c r="S79" s="85"/>
+      <c r="T79" s="85"/>
+      <c r="U79" s="85"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="89"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="89"/>
-      <c r="F80" s="89"/>
-      <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="89"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
       <c r="J80" s="89"/>
       <c r="K80" s="89"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="89"/>
-      <c r="N80" s="89"/>
-      <c r="O80" s="89"/>
-      <c r="P80" s="89"/>
-      <c r="Q80" s="89"/>
-      <c r="R80" s="89"/>
-      <c r="S80" s="89"/>
-      <c r="T80" s="89"/>
-      <c r="U80" s="89"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="85"/>
+      <c r="N80" s="85"/>
+      <c r="O80" s="85"/>
+      <c r="P80" s="85"/>
+      <c r="Q80" s="85"/>
+      <c r="R80" s="85"/>
+      <c r="S80" s="85"/>
+      <c r="T80" s="85"/>
+      <c r="U80" s="85"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A81" s="89"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="89"/>
-      <c r="E81" s="89"/>
-      <c r="F81" s="89"/>
-      <c r="G81" s="89"/>
-      <c r="H81" s="89"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="89"/>
-      <c r="K81" s="89"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="89"/>
-      <c r="N81" s="89"/>
-      <c r="O81" s="89"/>
-      <c r="P81" s="89"/>
-      <c r="Q81" s="89"/>
-      <c r="R81" s="89"/>
-      <c r="S81" s="89"/>
-      <c r="T81" s="89"/>
-      <c r="U81" s="89"/>
+      <c r="A81" s="85"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="97"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="85"/>
+      <c r="O81" s="85"/>
+      <c r="P81" s="85"/>
+      <c r="Q81" s="85"/>
+      <c r="R81" s="85"/>
+      <c r="S81" s="85"/>
+      <c r="T81" s="85"/>
+      <c r="U81" s="85"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A82" s="89"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="89"/>
-      <c r="H82" s="89"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="89"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="89"/>
-      <c r="N82" s="89"/>
-      <c r="O82" s="89"/>
-      <c r="P82" s="89"/>
-      <c r="Q82" s="89"/>
-      <c r="R82" s="89"/>
-      <c r="S82" s="89"/>
-      <c r="T82" s="89"/>
-      <c r="U82" s="89"/>
+      <c r="A82" s="85"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="97"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="85"/>
+      <c r="O82" s="85"/>
+      <c r="P82" s="85"/>
+      <c r="Q82" s="85"/>
+      <c r="R82" s="85"/>
+      <c r="S82" s="85"/>
+      <c r="T82" s="85"/>
+      <c r="U82" s="85"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A83" s="89"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="89"/>
-      <c r="H83" s="89"/>
-      <c r="I83" s="89"/>
-      <c r="J83" s="89"/>
-      <c r="K83" s="89"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="89"/>
-      <c r="N83" s="89"/>
-      <c r="O83" s="89"/>
-      <c r="P83" s="89"/>
-      <c r="Q83" s="89"/>
-      <c r="R83" s="89"/>
-      <c r="S83" s="89"/>
-      <c r="T83" s="89"/>
-      <c r="U83" s="89"/>
+      <c r="A83" s="85"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="97"/>
+      <c r="M83" s="85"/>
+      <c r="N83" s="85"/>
+      <c r="O83" s="85"/>
+      <c r="P83" s="85"/>
+      <c r="Q83" s="85"/>
+      <c r="R83" s="85"/>
+      <c r="S83" s="85"/>
+      <c r="T83" s="85"/>
+      <c r="U83" s="85"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84" s="89"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="89"/>
-      <c r="K84" s="89"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="89"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="89"/>
-      <c r="P84" s="89"/>
-      <c r="Q84" s="89"/>
-      <c r="R84" s="89"/>
-      <c r="S84" s="89"/>
-      <c r="T84" s="89"/>
-      <c r="U84" s="89"/>
+      <c r="A84" s="85"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="97"/>
+      <c r="M84" s="85"/>
+      <c r="N84" s="85"/>
+      <c r="O84" s="85"/>
+      <c r="P84" s="85"/>
+      <c r="Q84" s="85"/>
+      <c r="R84" s="85"/>
+      <c r="S84" s="85"/>
+      <c r="T84" s="85"/>
+      <c r="U84" s="85"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" s="89"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="89"/>
-      <c r="G85" s="89"/>
-      <c r="H85" s="89"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="89"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="89"/>
-      <c r="N85" s="89"/>
-      <c r="O85" s="89"/>
-      <c r="P85" s="89"/>
-      <c r="Q85" s="89"/>
-      <c r="R85" s="89"/>
-      <c r="S85" s="89"/>
-      <c r="T85" s="89"/>
-      <c r="U85" s="89"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="85"/>
+      <c r="N85" s="85"/>
+      <c r="O85" s="85"/>
+      <c r="P85" s="85"/>
+      <c r="Q85" s="85"/>
+      <c r="R85" s="85"/>
+      <c r="S85" s="85"/>
+      <c r="T85" s="85"/>
+      <c r="U85" s="85"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86" s="89"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
-      <c r="J86" s="89"/>
-      <c r="K86" s="89"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="89"/>
-      <c r="N86" s="89"/>
-      <c r="O86" s="89"/>
-      <c r="P86" s="89"/>
-      <c r="Q86" s="89"/>
-      <c r="R86" s="89"/>
-      <c r="S86" s="89"/>
-      <c r="T86" s="89"/>
-      <c r="U86" s="89"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="85"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="85"/>
+      <c r="T86" s="85"/>
+      <c r="U86" s="85"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="89"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="89"/>
-      <c r="I87" s="89"/>
-      <c r="J87" s="89"/>
-      <c r="K87" s="89"/>
-      <c r="L87" s="107"/>
-      <c r="M87" s="89"/>
-      <c r="N87" s="89"/>
-      <c r="O87" s="89"/>
-      <c r="P87" s="89"/>
-      <c r="Q87" s="89"/>
-      <c r="R87" s="89"/>
-      <c r="S87" s="89"/>
-      <c r="T87" s="89"/>
-      <c r="U87" s="89"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="85"/>
+      <c r="L87" s="97"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="85"/>
+      <c r="O87" s="85"/>
+      <c r="P87" s="85"/>
+      <c r="Q87" s="85"/>
+      <c r="R87" s="85"/>
+      <c r="S87" s="85"/>
+      <c r="T87" s="85"/>
+      <c r="U87" s="85"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A88" s="89"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="89"/>
-      <c r="J88" s="89"/>
-      <c r="K88" s="89"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="89"/>
-      <c r="N88" s="89"/>
-      <c r="O88" s="89"/>
-      <c r="P88" s="89"/>
-      <c r="Q88" s="89"/>
-      <c r="R88" s="89"/>
-      <c r="S88" s="89"/>
-      <c r="T88" s="89"/>
-      <c r="U88" s="89"/>
+      <c r="A88" s="85"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="97"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="85"/>
+      <c r="O88" s="85"/>
+      <c r="P88" s="85"/>
+      <c r="Q88" s="85"/>
+      <c r="R88" s="85"/>
+      <c r="S88" s="85"/>
+      <c r="T88" s="85"/>
+      <c r="U88" s="85"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A89" s="89"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="89"/>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="89"/>
-      <c r="J89" s="89"/>
-      <c r="K89" s="89"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="89"/>
-      <c r="N89" s="89"/>
-      <c r="O89" s="89"/>
-      <c r="P89" s="89"/>
-      <c r="Q89" s="89"/>
-      <c r="R89" s="89"/>
-      <c r="S89" s="89"/>
-      <c r="T89" s="89"/>
-      <c r="U89" s="89"/>
+      <c r="A89" s="85"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="97"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="85"/>
+      <c r="O89" s="85"/>
+      <c r="P89" s="85"/>
+      <c r="Q89" s="85"/>
+      <c r="R89" s="85"/>
+      <c r="S89" s="85"/>
+      <c r="T89" s="85"/>
+      <c r="U89" s="85"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A90" s="89"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
-      <c r="K90" s="89"/>
-      <c r="L90" s="107"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="89"/>
-      <c r="O90" s="89"/>
-      <c r="P90" s="89"/>
-      <c r="Q90" s="89"/>
-      <c r="R90" s="89"/>
-      <c r="S90" s="89"/>
-      <c r="T90" s="89"/>
-      <c r="U90" s="89"/>
+      <c r="A90" s="85"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="97"/>
+      <c r="M90" s="85"/>
+      <c r="N90" s="85"/>
+      <c r="O90" s="85"/>
+      <c r="P90" s="85"/>
+      <c r="Q90" s="85"/>
+      <c r="R90" s="85"/>
+      <c r="S90" s="85"/>
+      <c r="T90" s="85"/>
+      <c r="U90" s="85"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A91" s="89"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
-      <c r="K91" s="89"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="89"/>
-      <c r="N91" s="89"/>
-      <c r="O91" s="89"/>
-      <c r="P91" s="89"/>
-      <c r="Q91" s="89"/>
-      <c r="R91" s="89"/>
-      <c r="S91" s="89"/>
-      <c r="T91" s="89"/>
-      <c r="U91" s="89"/>
+      <c r="A91" s="85"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85"/>
+      <c r="I91" s="85"/>
+      <c r="J91" s="85"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="97"/>
+      <c r="M91" s="85"/>
+      <c r="N91" s="85"/>
+      <c r="O91" s="85"/>
+      <c r="P91" s="85"/>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="85"/>
+      <c r="S91" s="85"/>
+      <c r="T91" s="85"/>
+      <c r="U91" s="85"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A92" s="89"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="89"/>
-      <c r="F92" s="89"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="89"/>
-      <c r="J92" s="89"/>
-      <c r="K92" s="89"/>
-      <c r="L92" s="107"/>
-      <c r="M92" s="89"/>
-      <c r="N92" s="89"/>
-      <c r="O92" s="89"/>
-      <c r="P92" s="89"/>
-      <c r="Q92" s="89"/>
-      <c r="R92" s="89"/>
-      <c r="S92" s="89"/>
-      <c r="T92" s="89"/>
-      <c r="U92" s="89"/>
+      <c r="A92" s="85"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="97"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="85"/>
+      <c r="O92" s="85"/>
+      <c r="P92" s="85"/>
+      <c r="Q92" s="85"/>
+      <c r="R92" s="85"/>
+      <c r="S92" s="85"/>
+      <c r="T92" s="85"/>
+      <c r="U92" s="85"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A93" s="89"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="89"/>
-      <c r="K93" s="89"/>
-      <c r="L93" s="107"/>
-      <c r="M93" s="89"/>
-      <c r="N93" s="89"/>
-      <c r="O93" s="89"/>
-      <c r="P93" s="89"/>
-      <c r="Q93" s="89"/>
-      <c r="R93" s="89"/>
-      <c r="S93" s="89"/>
-      <c r="T93" s="89"/>
-      <c r="U93" s="89"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="97"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="85"/>
+      <c r="O93" s="85"/>
+      <c r="P93" s="85"/>
+      <c r="Q93" s="85"/>
+      <c r="R93" s="85"/>
+      <c r="S93" s="85"/>
+      <c r="T93" s="85"/>
+      <c r="U93" s="85"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A94" s="89"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="89"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="89"/>
-      <c r="G94" s="89"/>
-      <c r="H94" s="89"/>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
-      <c r="K94" s="89"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="89"/>
-      <c r="N94" s="89"/>
-      <c r="O94" s="89"/>
-      <c r="P94" s="89"/>
-      <c r="Q94" s="89"/>
-      <c r="R94" s="89"/>
-      <c r="S94" s="89"/>
-      <c r="T94" s="89"/>
-      <c r="U94" s="89"/>
+      <c r="A94" s="85"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="97"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
+      <c r="O94" s="85"/>
+      <c r="P94" s="85"/>
+      <c r="Q94" s="85"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="85"/>
+      <c r="T94" s="85"/>
+      <c r="U94" s="85"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A95" s="89"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="89"/>
-      <c r="G95" s="89"/>
-      <c r="H95" s="89"/>
-      <c r="I95" s="89"/>
-      <c r="J95" s="89"/>
-      <c r="K95" s="89"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="89"/>
-      <c r="N95" s="89"/>
-      <c r="O95" s="89"/>
-      <c r="P95" s="89"/>
-      <c r="Q95" s="89"/>
-      <c r="R95" s="89"/>
-      <c r="S95" s="89"/>
-      <c r="T95" s="89"/>
-      <c r="U95" s="89"/>
+      <c r="A95" s="85"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="85"/>
+      <c r="I95" s="85"/>
+      <c r="J95" s="85"/>
+      <c r="K95" s="85"/>
+      <c r="L95" s="97"/>
+      <c r="M95" s="85"/>
+      <c r="N95" s="85"/>
+      <c r="O95" s="85"/>
+      <c r="P95" s="85"/>
+      <c r="Q95" s="85"/>
+      <c r="R95" s="85"/>
+      <c r="S95" s="85"/>
+      <c r="T95" s="85"/>
+      <c r="U95" s="85"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A96" s="89"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="89"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="89"/>
-      <c r="N96" s="89"/>
-      <c r="O96" s="89"/>
-      <c r="P96" s="89"/>
-      <c r="Q96" s="89"/>
-      <c r="R96" s="89"/>
-      <c r="S96" s="89"/>
-      <c r="T96" s="89"/>
-      <c r="U96" s="89"/>
+      <c r="A96" s="85"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+      <c r="I96" s="85"/>
+      <c r="J96" s="85"/>
+      <c r="K96" s="85"/>
+      <c r="L96" s="97"/>
+      <c r="M96" s="85"/>
+      <c r="N96" s="85"/>
+      <c r="O96" s="85"/>
+      <c r="P96" s="85"/>
+      <c r="Q96" s="85"/>
+      <c r="R96" s="85"/>
+      <c r="S96" s="85"/>
+      <c r="T96" s="85"/>
+      <c r="U96" s="85"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A97" s="89"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="89"/>
-      <c r="G97" s="89"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
-      <c r="K97" s="89"/>
-      <c r="L97" s="107"/>
-      <c r="M97" s="89"/>
-      <c r="N97" s="89"/>
-      <c r="O97" s="89"/>
-      <c r="P97" s="89"/>
-      <c r="Q97" s="89"/>
-      <c r="R97" s="89"/>
-      <c r="S97" s="89"/>
-      <c r="T97" s="89"/>
-      <c r="U97" s="89"/>
+      <c r="A97" s="85"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
+      <c r="I97" s="85"/>
+      <c r="J97" s="85"/>
+      <c r="K97" s="85"/>
+      <c r="L97" s="97"/>
+      <c r="M97" s="85"/>
+      <c r="N97" s="85"/>
+      <c r="O97" s="85"/>
+      <c r="P97" s="85"/>
+      <c r="Q97" s="85"/>
+      <c r="R97" s="85"/>
+      <c r="S97" s="85"/>
+      <c r="T97" s="85"/>
+      <c r="U97" s="85"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="89"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="89"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="89"/>
-      <c r="G98" s="89"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
-      <c r="K98" s="89"/>
-      <c r="L98" s="107"/>
-      <c r="M98" s="89"/>
-      <c r="N98" s="89"/>
-      <c r="O98" s="89"/>
-      <c r="P98" s="89"/>
-      <c r="Q98" s="89"/>
-      <c r="R98" s="89"/>
-      <c r="S98" s="89"/>
-      <c r="T98" s="89"/>
-      <c r="U98" s="89"/>
+      <c r="A98" s="85"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
+      <c r="I98" s="85"/>
+      <c r="J98" s="85"/>
+      <c r="K98" s="85"/>
+      <c r="L98" s="97"/>
+      <c r="M98" s="85"/>
+      <c r="N98" s="85"/>
+      <c r="O98" s="85"/>
+      <c r="P98" s="85"/>
+      <c r="Q98" s="85"/>
+      <c r="R98" s="85"/>
+      <c r="S98" s="85"/>
+      <c r="T98" s="85"/>
+      <c r="U98" s="85"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="89"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="89"/>
-      <c r="F99" s="89"/>
-      <c r="G99" s="89"/>
-      <c r="H99" s="89"/>
-      <c r="I99" s="89"/>
-      <c r="J99" s="89"/>
-      <c r="K99" s="89"/>
-      <c r="L99" s="107"/>
-      <c r="M99" s="89"/>
-      <c r="N99" s="89"/>
-      <c r="O99" s="89"/>
-      <c r="P99" s="89"/>
-      <c r="Q99" s="89"/>
-      <c r="R99" s="89"/>
-      <c r="S99" s="89"/>
-      <c r="T99" s="89"/>
-      <c r="U99" s="89"/>
+      <c r="A99" s="85"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="97"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="85"/>
+      <c r="O99" s="85"/>
+      <c r="P99" s="85"/>
+      <c r="Q99" s="85"/>
+      <c r="R99" s="85"/>
+      <c r="S99" s="85"/>
+      <c r="T99" s="85"/>
+      <c r="U99" s="85"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="89"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="89"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="89"/>
-      <c r="L100" s="107"/>
-      <c r="M100" s="89"/>
-      <c r="N100" s="89"/>
-      <c r="O100" s="89"/>
-      <c r="P100" s="89"/>
-      <c r="Q100" s="89"/>
-      <c r="R100" s="89"/>
-      <c r="S100" s="89"/>
-      <c r="T100" s="89"/>
-      <c r="U100" s="89"/>
+      <c r="A100" s="85"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="97"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="85"/>
+      <c r="O100" s="85"/>
+      <c r="P100" s="85"/>
+      <c r="Q100" s="85"/>
+      <c r="R100" s="85"/>
+      <c r="S100" s="85"/>
+      <c r="T100" s="85"/>
+      <c r="U100" s="85"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="89"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="89"/>
-      <c r="I101" s="89"/>
-      <c r="J101" s="89"/>
-      <c r="K101" s="89"/>
-      <c r="L101" s="107"/>
-      <c r="M101" s="89"/>
-      <c r="N101" s="89"/>
-      <c r="O101" s="89"/>
-      <c r="P101" s="89"/>
-      <c r="Q101" s="89"/>
-      <c r="R101" s="89"/>
-      <c r="S101" s="89"/>
-      <c r="T101" s="89"/>
-      <c r="U101" s="89"/>
+      <c r="A101" s="85"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="85"/>
+      <c r="J101" s="85"/>
+      <c r="K101" s="85"/>
+      <c r="L101" s="97"/>
+      <c r="M101" s="85"/>
+      <c r="N101" s="85"/>
+      <c r="O101" s="85"/>
+      <c r="P101" s="85"/>
+      <c r="Q101" s="85"/>
+      <c r="R101" s="85"/>
+      <c r="S101" s="85"/>
+      <c r="T101" s="85"/>
+      <c r="U101" s="85"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="89"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="89"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
-      <c r="K102" s="89"/>
-      <c r="L102" s="107"/>
-      <c r="M102" s="89"/>
-      <c r="N102" s="89"/>
-      <c r="O102" s="89"/>
-      <c r="P102" s="89"/>
-      <c r="Q102" s="89"/>
-      <c r="R102" s="89"/>
-      <c r="S102" s="89"/>
-      <c r="T102" s="89"/>
-      <c r="U102" s="89"/>
+      <c r="A102" s="85"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="85"/>
+      <c r="I102" s="85"/>
+      <c r="J102" s="85"/>
+      <c r="K102" s="85"/>
+      <c r="L102" s="97"/>
+      <c r="M102" s="85"/>
+      <c r="N102" s="85"/>
+      <c r="O102" s="85"/>
+      <c r="P102" s="85"/>
+      <c r="Q102" s="85"/>
+      <c r="R102" s="85"/>
+      <c r="S102" s="85"/>
+      <c r="T102" s="85"/>
+      <c r="U102" s="85"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="89"/>
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="89"/>
-      <c r="J103" s="89"/>
-      <c r="K103" s="89"/>
-      <c r="L103" s="107"/>
-      <c r="M103" s="89"/>
-      <c r="N103" s="89"/>
-      <c r="O103" s="89"/>
-      <c r="P103" s="89"/>
-      <c r="Q103" s="89"/>
-      <c r="R103" s="89"/>
-      <c r="S103" s="89"/>
-      <c r="T103" s="89"/>
-      <c r="U103" s="89"/>
+      <c r="A103" s="85"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="97"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="85"/>
+      <c r="O103" s="85"/>
+      <c r="P103" s="85"/>
+      <c r="Q103" s="85"/>
+      <c r="R103" s="85"/>
+      <c r="S103" s="85"/>
+      <c r="T103" s="85"/>
+      <c r="U103" s="85"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="89"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="89"/>
-      <c r="G104" s="89"/>
-      <c r="H104" s="89"/>
-      <c r="I104" s="89"/>
-      <c r="J104" s="89"/>
-      <c r="K104" s="89"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="89"/>
-      <c r="N104" s="89"/>
-      <c r="O104" s="89"/>
-      <c r="P104" s="89"/>
-      <c r="Q104" s="89"/>
-      <c r="R104" s="89"/>
-      <c r="S104" s="89"/>
-      <c r="T104" s="89"/>
-      <c r="U104" s="89"/>
+      <c r="A104" s="85"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
+      <c r="I104" s="85"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="85"/>
+      <c r="L104" s="97"/>
+      <c r="M104" s="85"/>
+      <c r="N104" s="85"/>
+      <c r="O104" s="85"/>
+      <c r="P104" s="85"/>
+      <c r="Q104" s="85"/>
+      <c r="R104" s="85"/>
+      <c r="S104" s="85"/>
+      <c r="T104" s="85"/>
+      <c r="U104" s="85"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="89"/>
-      <c r="B105" s="89"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="89"/>
-      <c r="E105" s="89"/>
-      <c r="F105" s="89"/>
-      <c r="G105" s="89"/>
-      <c r="H105" s="89"/>
-      <c r="I105" s="89"/>
-      <c r="J105" s="89"/>
-      <c r="K105" s="89"/>
-      <c r="L105" s="107"/>
-      <c r="M105" s="89"/>
-      <c r="N105" s="89"/>
-      <c r="O105" s="89"/>
-      <c r="P105" s="89"/>
-      <c r="Q105" s="89"/>
-      <c r="R105" s="89"/>
-      <c r="S105" s="89"/>
-      <c r="T105" s="89"/>
-      <c r="U105" s="89"/>
+      <c r="A105" s="85"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="85"/>
+      <c r="L105" s="97"/>
+      <c r="M105" s="85"/>
+      <c r="N105" s="85"/>
+      <c r="O105" s="85"/>
+      <c r="P105" s="85"/>
+      <c r="Q105" s="85"/>
+      <c r="R105" s="85"/>
+      <c r="S105" s="85"/>
+      <c r="T105" s="85"/>
+      <c r="U105" s="85"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="89"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="89"/>
-      <c r="G106" s="89"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="89"/>
-      <c r="J106" s="89"/>
-      <c r="K106" s="89"/>
-      <c r="L106" s="107"/>
-      <c r="M106" s="89"/>
-      <c r="N106" s="89"/>
-      <c r="O106" s="89"/>
-      <c r="P106" s="89"/>
-      <c r="Q106" s="89"/>
-      <c r="R106" s="89"/>
-      <c r="S106" s="89"/>
-      <c r="T106" s="89"/>
-      <c r="U106" s="89"/>
+      <c r="A106" s="85"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="K106" s="85"/>
+      <c r="L106" s="97"/>
+      <c r="M106" s="85"/>
+      <c r="N106" s="85"/>
+      <c r="O106" s="85"/>
+      <c r="P106" s="85"/>
+      <c r="Q106" s="85"/>
+      <c r="R106" s="85"/>
+      <c r="S106" s="85"/>
+      <c r="T106" s="85"/>
+      <c r="U106" s="85"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="89"/>
-      <c r="B107" s="89"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="89"/>
-      <c r="G107" s="89"/>
-      <c r="H107" s="89"/>
-      <c r="I107" s="89"/>
-      <c r="J107" s="89"/>
-      <c r="K107" s="89"/>
-      <c r="L107" s="107"/>
-      <c r="M107" s="89"/>
-      <c r="N107" s="89"/>
-      <c r="O107" s="89"/>
-      <c r="P107" s="89"/>
-      <c r="Q107" s="89"/>
-      <c r="R107" s="89"/>
-      <c r="S107" s="89"/>
-      <c r="T107" s="89"/>
-      <c r="U107" s="89"/>
+      <c r="A107" s="85"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="85"/>
+      <c r="I107" s="85"/>
+      <c r="J107" s="85"/>
+      <c r="K107" s="85"/>
+      <c r="L107" s="97"/>
+      <c r="M107" s="85"/>
+      <c r="N107" s="85"/>
+      <c r="O107" s="85"/>
+      <c r="P107" s="85"/>
+      <c r="Q107" s="85"/>
+      <c r="R107" s="85"/>
+      <c r="S107" s="85"/>
+      <c r="T107" s="85"/>
+      <c r="U107" s="85"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="89"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="89"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="89"/>
-      <c r="I108" s="89"/>
-      <c r="J108" s="89"/>
-      <c r="K108" s="89"/>
-      <c r="L108" s="107"/>
-      <c r="M108" s="89"/>
-      <c r="N108" s="89"/>
-      <c r="O108" s="89"/>
-      <c r="P108" s="89"/>
-      <c r="Q108" s="89"/>
-      <c r="R108" s="89"/>
-      <c r="S108" s="89"/>
-      <c r="T108" s="89"/>
-      <c r="U108" s="89"/>
+      <c r="A108" s="85"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="97"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="85"/>
+      <c r="O108" s="85"/>
+      <c r="P108" s="85"/>
+      <c r="Q108" s="85"/>
+      <c r="R108" s="85"/>
+      <c r="S108" s="85"/>
+      <c r="T108" s="85"/>
+      <c r="U108" s="85"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A109" s="89"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="89"/>
-      <c r="G109" s="89"/>
-      <c r="H109" s="89"/>
-      <c r="I109" s="89"/>
-      <c r="J109" s="89"/>
-      <c r="K109" s="89"/>
-      <c r="L109" s="107"/>
-      <c r="M109" s="89"/>
-      <c r="N109" s="89"/>
-      <c r="O109" s="89"/>
-      <c r="P109" s="89"/>
-      <c r="Q109" s="89"/>
-      <c r="R109" s="89"/>
-      <c r="S109" s="89"/>
-      <c r="T109" s="89"/>
-      <c r="U109" s="89"/>
+      <c r="A109" s="85"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
+      <c r="I109" s="85"/>
+      <c r="J109" s="85"/>
+      <c r="K109" s="85"/>
+      <c r="L109" s="97"/>
+      <c r="M109" s="85"/>
+      <c r="N109" s="85"/>
+      <c r="O109" s="85"/>
+      <c r="P109" s="85"/>
+      <c r="Q109" s="85"/>
+      <c r="R109" s="85"/>
+      <c r="S109" s="85"/>
+      <c r="T109" s="85"/>
+      <c r="U109" s="85"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="89"/>
-      <c r="B110" s="89"/>
-      <c r="C110" s="89"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="89"/>
-      <c r="F110" s="89"/>
-      <c r="G110" s="89"/>
-      <c r="H110" s="89"/>
-      <c r="I110" s="89"/>
-      <c r="J110" s="89"/>
-      <c r="K110" s="89"/>
-      <c r="L110" s="107"/>
-      <c r="M110" s="89"/>
-      <c r="N110" s="89"/>
-      <c r="O110" s="89"/>
-      <c r="P110" s="89"/>
-      <c r="Q110" s="89"/>
-      <c r="R110" s="89"/>
-      <c r="S110" s="89"/>
-      <c r="T110" s="89"/>
-      <c r="U110" s="89"/>
+      <c r="A110" s="85"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="85"/>
+      <c r="I110" s="85"/>
+      <c r="J110" s="85"/>
+      <c r="K110" s="85"/>
+      <c r="L110" s="97"/>
+      <c r="M110" s="85"/>
+      <c r="N110" s="85"/>
+      <c r="O110" s="85"/>
+      <c r="P110" s="85"/>
+      <c r="Q110" s="85"/>
+      <c r="R110" s="85"/>
+      <c r="S110" s="85"/>
+      <c r="T110" s="85"/>
+      <c r="U110" s="85"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="89"/>
-      <c r="B111" s="89"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="89"/>
-      <c r="F111" s="89"/>
-      <c r="G111" s="89"/>
-      <c r="H111" s="89"/>
-      <c r="I111" s="89"/>
-      <c r="J111" s="89"/>
-      <c r="K111" s="89"/>
-      <c r="L111" s="107"/>
-      <c r="M111" s="89"/>
-      <c r="N111" s="89"/>
-      <c r="O111" s="89"/>
-      <c r="P111" s="89"/>
-      <c r="Q111" s="89"/>
-      <c r="R111" s="89"/>
-      <c r="S111" s="89"/>
-      <c r="T111" s="89"/>
-      <c r="U111" s="89"/>
+      <c r="A111" s="85"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
+      <c r="I111" s="85"/>
+      <c r="J111" s="85"/>
+      <c r="K111" s="85"/>
+      <c r="L111" s="97"/>
+      <c r="M111" s="85"/>
+      <c r="N111" s="85"/>
+      <c r="O111" s="85"/>
+      <c r="P111" s="85"/>
+      <c r="Q111" s="85"/>
+      <c r="R111" s="85"/>
+      <c r="S111" s="85"/>
+      <c r="T111" s="85"/>
+      <c r="U111" s="85"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="89"/>
-      <c r="B112" s="89"/>
-      <c r="C112" s="89"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="89"/>
-      <c r="F112" s="89"/>
-      <c r="G112" s="89"/>
-      <c r="H112" s="89"/>
-      <c r="I112" s="89"/>
-      <c r="J112" s="89"/>
-      <c r="K112" s="89"/>
-      <c r="L112" s="107"/>
-      <c r="M112" s="89"/>
-      <c r="N112" s="89"/>
-      <c r="O112" s="89"/>
-      <c r="P112" s="89"/>
-      <c r="Q112" s="89"/>
-      <c r="R112" s="89"/>
-      <c r="S112" s="89"/>
-      <c r="T112" s="89"/>
-      <c r="U112" s="89"/>
+      <c r="A112" s="85"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="85"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="85"/>
+      <c r="K112" s="85"/>
+      <c r="L112" s="97"/>
+      <c r="M112" s="85"/>
+      <c r="N112" s="85"/>
+      <c r="O112" s="85"/>
+      <c r="P112" s="85"/>
+      <c r="Q112" s="85"/>
+      <c r="R112" s="85"/>
+      <c r="S112" s="85"/>
+      <c r="T112" s="85"/>
+      <c r="U112" s="85"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="89"/>
-      <c r="B113" s="89"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="89"/>
-      <c r="E113" s="89"/>
-      <c r="F113" s="89"/>
-      <c r="G113" s="89"/>
-      <c r="H113" s="89"/>
-      <c r="I113" s="89"/>
-      <c r="J113" s="89"/>
-      <c r="K113" s="89"/>
-      <c r="L113" s="107"/>
-      <c r="M113" s="89"/>
-      <c r="N113" s="89"/>
-      <c r="O113" s="89"/>
-      <c r="P113" s="89"/>
-      <c r="Q113" s="89"/>
-      <c r="R113" s="89"/>
-      <c r="S113" s="89"/>
-      <c r="T113" s="89"/>
-      <c r="U113" s="89"/>
+      <c r="A113" s="85"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="85"/>
+      <c r="K113" s="85"/>
+      <c r="L113" s="97"/>
+      <c r="M113" s="85"/>
+      <c r="N113" s="85"/>
+      <c r="O113" s="85"/>
+      <c r="P113" s="85"/>
+      <c r="Q113" s="85"/>
+      <c r="R113" s="85"/>
+      <c r="S113" s="85"/>
+      <c r="T113" s="85"/>
+      <c r="U113" s="85"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="89"/>
-      <c r="B114" s="89"/>
-      <c r="C114" s="89"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="89"/>
-      <c r="F114" s="89"/>
-      <c r="G114" s="89"/>
-      <c r="H114" s="89"/>
-      <c r="I114" s="89"/>
-      <c r="J114" s="89"/>
-      <c r="K114" s="89"/>
-      <c r="L114" s="107"/>
-      <c r="M114" s="89"/>
-      <c r="N114" s="89"/>
-      <c r="O114" s="89"/>
-      <c r="P114" s="89"/>
-      <c r="Q114" s="89"/>
-      <c r="R114" s="89"/>
-      <c r="S114" s="89"/>
-      <c r="T114" s="89"/>
-      <c r="U114" s="89"/>
+      <c r="A114" s="85"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="85"/>
+      <c r="H114" s="85"/>
+      <c r="I114" s="85"/>
+      <c r="J114" s="85"/>
+      <c r="K114" s="85"/>
+      <c r="L114" s="97"/>
+      <c r="M114" s="85"/>
+      <c r="N114" s="85"/>
+      <c r="O114" s="85"/>
+      <c r="P114" s="85"/>
+      <c r="Q114" s="85"/>
+      <c r="R114" s="85"/>
+      <c r="S114" s="85"/>
+      <c r="T114" s="85"/>
+      <c r="U114" s="85"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="89"/>
-      <c r="B115" s="89"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="89"/>
-      <c r="G115" s="89"/>
-      <c r="H115" s="89"/>
-      <c r="I115" s="89"/>
-      <c r="J115" s="89"/>
-      <c r="K115" s="89"/>
-      <c r="L115" s="107"/>
-      <c r="M115" s="89"/>
-      <c r="N115" s="89"/>
-      <c r="O115" s="89"/>
-      <c r="P115" s="89"/>
-      <c r="Q115" s="89"/>
-      <c r="R115" s="89"/>
-      <c r="S115" s="89"/>
-      <c r="T115" s="89"/>
-      <c r="U115" s="89"/>
+      <c r="A115" s="85"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="97"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="85"/>
+      <c r="O115" s="85"/>
+      <c r="P115" s="85"/>
+      <c r="Q115" s="85"/>
+      <c r="R115" s="85"/>
+      <c r="S115" s="85"/>
+      <c r="T115" s="85"/>
+      <c r="U115" s="85"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="89"/>
-      <c r="B116" s="89"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="89"/>
-      <c r="G116" s="89"/>
-      <c r="H116" s="89"/>
-      <c r="I116" s="89"/>
-      <c r="J116" s="89"/>
-      <c r="K116" s="89"/>
-      <c r="L116" s="107"/>
-      <c r="M116" s="89"/>
-      <c r="N116" s="89"/>
-      <c r="O116" s="89"/>
-      <c r="P116" s="89"/>
-      <c r="Q116" s="89"/>
-      <c r="R116" s="89"/>
-      <c r="S116" s="89"/>
-      <c r="T116" s="89"/>
-      <c r="U116" s="89"/>
+      <c r="A116" s="85"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="97"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="85"/>
+      <c r="O116" s="85"/>
+      <c r="P116" s="85"/>
+      <c r="Q116" s="85"/>
+      <c r="R116" s="85"/>
+      <c r="S116" s="85"/>
+      <c r="T116" s="85"/>
+      <c r="U116" s="85"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="89"/>
-      <c r="B117" s="89"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="89"/>
-      <c r="G117" s="89"/>
-      <c r="H117" s="89"/>
-      <c r="I117" s="89"/>
-      <c r="J117" s="89"/>
-      <c r="K117" s="89"/>
-      <c r="L117" s="107"/>
-      <c r="M117" s="89"/>
-      <c r="N117" s="89"/>
-      <c r="O117" s="89"/>
-      <c r="P117" s="89"/>
-      <c r="Q117" s="89"/>
-      <c r="R117" s="89"/>
-      <c r="S117" s="89"/>
-      <c r="T117" s="89"/>
-      <c r="U117" s="89"/>
+      <c r="A117" s="85"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="97"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="85"/>
+      <c r="O117" s="85"/>
+      <c r="P117" s="85"/>
+      <c r="Q117" s="85"/>
+      <c r="R117" s="85"/>
+      <c r="S117" s="85"/>
+      <c r="T117" s="85"/>
+      <c r="U117" s="85"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="89"/>
-      <c r="B118" s="89"/>
-      <c r="C118" s="89"/>
-      <c r="D118" s="89"/>
-      <c r="E118" s="89"/>
-      <c r="F118" s="89"/>
-      <c r="G118" s="89"/>
-      <c r="H118" s="89"/>
-      <c r="I118" s="89"/>
-      <c r="J118" s="89"/>
-      <c r="K118" s="89"/>
-      <c r="L118" s="107"/>
-      <c r="M118" s="89"/>
-      <c r="N118" s="89"/>
-      <c r="O118" s="89"/>
-      <c r="P118" s="89"/>
-      <c r="Q118" s="89"/>
-      <c r="R118" s="89"/>
-      <c r="S118" s="89"/>
-      <c r="T118" s="89"/>
-      <c r="U118" s="89"/>
+      <c r="A118" s="85"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="97"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="85"/>
+      <c r="O118" s="85"/>
+      <c r="P118" s="85"/>
+      <c r="Q118" s="85"/>
+      <c r="R118" s="85"/>
+      <c r="S118" s="85"/>
+      <c r="T118" s="85"/>
+      <c r="U118" s="85"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A119" s="89"/>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="89"/>
-      <c r="J119" s="89"/>
-      <c r="K119" s="89"/>
-      <c r="L119" s="107"/>
-      <c r="M119" s="89"/>
-      <c r="N119" s="89"/>
-      <c r="O119" s="89"/>
-      <c r="P119" s="89"/>
-      <c r="Q119" s="89"/>
-      <c r="R119" s="89"/>
-      <c r="S119" s="89"/>
-      <c r="T119" s="89"/>
-      <c r="U119" s="89"/>
+      <c r="A119" s="85"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="85"/>
+      <c r="I119" s="85"/>
+      <c r="J119" s="85"/>
+      <c r="K119" s="85"/>
+      <c r="L119" s="97"/>
+      <c r="M119" s="85"/>
+      <c r="N119" s="85"/>
+      <c r="O119" s="85"/>
+      <c r="P119" s="85"/>
+      <c r="Q119" s="85"/>
+      <c r="R119" s="85"/>
+      <c r="S119" s="85"/>
+      <c r="T119" s="85"/>
+      <c r="U119" s="85"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="89"/>
-      <c r="B120" s="89"/>
-      <c r="C120" s="89"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="89"/>
-      <c r="G120" s="89"/>
-      <c r="H120" s="89"/>
-      <c r="I120" s="89"/>
-      <c r="J120" s="89"/>
-      <c r="K120" s="89"/>
-      <c r="L120" s="107"/>
-      <c r="M120" s="89"/>
-      <c r="N120" s="89"/>
-      <c r="O120" s="89"/>
-      <c r="P120" s="89"/>
-      <c r="Q120" s="89"/>
-      <c r="R120" s="89"/>
-      <c r="S120" s="89"/>
-      <c r="T120" s="89"/>
-      <c r="U120" s="89"/>
+      <c r="A120" s="85"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="85"/>
+      <c r="K120" s="85"/>
+      <c r="L120" s="97"/>
+      <c r="M120" s="85"/>
+      <c r="N120" s="85"/>
+      <c r="O120" s="85"/>
+      <c r="P120" s="85"/>
+      <c r="Q120" s="85"/>
+      <c r="R120" s="85"/>
+      <c r="S120" s="85"/>
+      <c r="T120" s="85"/>
+      <c r="U120" s="85"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="89"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="89"/>
-      <c r="E121" s="89"/>
-      <c r="F121" s="89"/>
-      <c r="G121" s="89"/>
-      <c r="H121" s="89"/>
-      <c r="I121" s="89"/>
-      <c r="J121" s="89"/>
-      <c r="K121" s="89"/>
-      <c r="L121" s="107"/>
-      <c r="M121" s="89"/>
-      <c r="N121" s="89"/>
-      <c r="O121" s="89"/>
-      <c r="P121" s="89"/>
-      <c r="Q121" s="89"/>
-      <c r="R121" s="89"/>
-      <c r="S121" s="89"/>
-      <c r="T121" s="89"/>
-      <c r="U121" s="89"/>
+      <c r="A121" s="85"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
+      <c r="K121" s="85"/>
+      <c r="L121" s="97"/>
+      <c r="M121" s="85"/>
+      <c r="N121" s="85"/>
+      <c r="O121" s="85"/>
+      <c r="P121" s="85"/>
+      <c r="Q121" s="85"/>
+      <c r="R121" s="85"/>
+      <c r="S121" s="85"/>
+      <c r="T121" s="85"/>
+      <c r="U121" s="85"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="89"/>
-      <c r="B122" s="89"/>
-      <c r="C122" s="89"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="89"/>
-      <c r="G122" s="89"/>
-      <c r="H122" s="89"/>
-      <c r="I122" s="89"/>
-      <c r="J122" s="89"/>
-      <c r="K122" s="89"/>
-      <c r="L122" s="107"/>
-      <c r="M122" s="89"/>
-      <c r="N122" s="89"/>
-      <c r="O122" s="89"/>
-      <c r="P122" s="89"/>
-      <c r="Q122" s="89"/>
-      <c r="R122" s="89"/>
-      <c r="S122" s="89"/>
-      <c r="T122" s="89"/>
-      <c r="U122" s="89"/>
+      <c r="A122" s="85"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="85"/>
+      <c r="J122" s="85"/>
+      <c r="K122" s="85"/>
+      <c r="L122" s="97"/>
+      <c r="M122" s="85"/>
+      <c r="N122" s="85"/>
+      <c r="O122" s="85"/>
+      <c r="P122" s="85"/>
+      <c r="Q122" s="85"/>
+      <c r="R122" s="85"/>
+      <c r="S122" s="85"/>
+      <c r="T122" s="85"/>
+      <c r="U122" s="85"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="89"/>
-      <c r="B123" s="89"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="89"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="89"/>
-      <c r="I123" s="89"/>
-      <c r="J123" s="89"/>
-      <c r="K123" s="89"/>
-      <c r="L123" s="107"/>
-      <c r="M123" s="89"/>
-      <c r="N123" s="89"/>
-      <c r="O123" s="89"/>
-      <c r="P123" s="89"/>
-      <c r="Q123" s="89"/>
-      <c r="R123" s="89"/>
-      <c r="S123" s="89"/>
-      <c r="T123" s="89"/>
-      <c r="U123" s="89"/>
+      <c r="A123" s="85"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="K123" s="85"/>
+      <c r="L123" s="97"/>
+      <c r="M123" s="85"/>
+      <c r="N123" s="85"/>
+      <c r="O123" s="85"/>
+      <c r="P123" s="85"/>
+      <c r="Q123" s="85"/>
+      <c r="R123" s="85"/>
+      <c r="S123" s="85"/>
+      <c r="T123" s="85"/>
+      <c r="U123" s="85"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A124" s="89"/>
-      <c r="B124" s="89"/>
-      <c r="C124" s="89"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="89"/>
-      <c r="F124" s="89"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="89"/>
-      <c r="I124" s="89"/>
-      <c r="J124" s="89"/>
-      <c r="K124" s="89"/>
-      <c r="L124" s="107"/>
-      <c r="M124" s="89"/>
-      <c r="N124" s="89"/>
-      <c r="O124" s="89"/>
-      <c r="P124" s="89"/>
-      <c r="Q124" s="89"/>
-      <c r="R124" s="89"/>
-      <c r="S124" s="89"/>
-      <c r="T124" s="89"/>
-      <c r="U124" s="89"/>
+      <c r="A124" s="85"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="85"/>
+      <c r="I124" s="85"/>
+      <c r="J124" s="85"/>
+      <c r="K124" s="85"/>
+      <c r="L124" s="97"/>
+      <c r="M124" s="85"/>
+      <c r="N124" s="85"/>
+      <c r="O124" s="85"/>
+      <c r="P124" s="85"/>
+      <c r="Q124" s="85"/>
+      <c r="R124" s="85"/>
+      <c r="S124" s="85"/>
+      <c r="T124" s="85"/>
+      <c r="U124" s="85"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="89"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="89"/>
-      <c r="G125" s="89"/>
-      <c r="H125" s="89"/>
-      <c r="I125" s="89"/>
-      <c r="J125" s="89"/>
-      <c r="K125" s="89"/>
-      <c r="L125" s="107"/>
-      <c r="M125" s="89"/>
-      <c r="N125" s="89"/>
-      <c r="O125" s="89"/>
-      <c r="P125" s="89"/>
-      <c r="Q125" s="89"/>
-      <c r="R125" s="89"/>
-      <c r="S125" s="89"/>
-      <c r="T125" s="89"/>
-      <c r="U125" s="89"/>
+      <c r="A125" s="85"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+      <c r="K125" s="85"/>
+      <c r="L125" s="97"/>
+      <c r="M125" s="85"/>
+      <c r="N125" s="85"/>
+      <c r="O125" s="85"/>
+      <c r="P125" s="85"/>
+      <c r="Q125" s="85"/>
+      <c r="R125" s="85"/>
+      <c r="S125" s="85"/>
+      <c r="T125" s="85"/>
+      <c r="U125" s="85"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="89"/>
-      <c r="B126" s="89"/>
-      <c r="C126" s="89"/>
-      <c r="D126" s="89"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="89"/>
-      <c r="G126" s="89"/>
-      <c r="H126" s="89"/>
-      <c r="I126" s="89"/>
-      <c r="J126" s="89"/>
-      <c r="K126" s="89"/>
-      <c r="L126" s="107"/>
-      <c r="M126" s="89"/>
-      <c r="N126" s="89"/>
-      <c r="O126" s="89"/>
-      <c r="P126" s="89"/>
-      <c r="Q126" s="89"/>
-      <c r="R126" s="89"/>
-      <c r="S126" s="89"/>
-      <c r="T126" s="89"/>
-      <c r="U126" s="89"/>
+      <c r="A126" s="85"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="85"/>
+      <c r="H126" s="85"/>
+      <c r="I126" s="85"/>
+      <c r="J126" s="85"/>
+      <c r="K126" s="85"/>
+      <c r="L126" s="97"/>
+      <c r="M126" s="85"/>
+      <c r="N126" s="85"/>
+      <c r="O126" s="85"/>
+      <c r="P126" s="85"/>
+      <c r="Q126" s="85"/>
+      <c r="R126" s="85"/>
+      <c r="S126" s="85"/>
+      <c r="T126" s="85"/>
+      <c r="U126" s="85"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="89"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="89"/>
-      <c r="D127" s="89"/>
-      <c r="E127" s="89"/>
-      <c r="F127" s="89"/>
-      <c r="G127" s="89"/>
-      <c r="H127" s="89"/>
-      <c r="I127" s="89"/>
-      <c r="J127" s="89"/>
-      <c r="K127" s="89"/>
-      <c r="L127" s="107"/>
-      <c r="M127" s="89"/>
-      <c r="N127" s="89"/>
-      <c r="O127" s="89"/>
-      <c r="P127" s="89"/>
-      <c r="Q127" s="89"/>
-      <c r="R127" s="89"/>
-      <c r="S127" s="89"/>
-      <c r="T127" s="89"/>
-      <c r="U127" s="89"/>
+      <c r="A127" s="85"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="85"/>
+      <c r="I127" s="85"/>
+      <c r="J127" s="85"/>
+      <c r="K127" s="85"/>
+      <c r="L127" s="97"/>
+      <c r="M127" s="85"/>
+      <c r="N127" s="85"/>
+      <c r="O127" s="85"/>
+      <c r="P127" s="85"/>
+      <c r="Q127" s="85"/>
+      <c r="R127" s="85"/>
+      <c r="S127" s="85"/>
+      <c r="T127" s="85"/>
+      <c r="U127" s="85"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="89"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89"/>
-      <c r="E128" s="89"/>
-      <c r="F128" s="89"/>
-      <c r="G128" s="89"/>
-      <c r="H128" s="89"/>
-      <c r="I128" s="89"/>
-      <c r="J128" s="89"/>
-      <c r="K128" s="89"/>
-      <c r="L128" s="107"/>
-      <c r="M128" s="89"/>
-      <c r="N128" s="89"/>
-      <c r="O128" s="89"/>
-      <c r="P128" s="89"/>
-      <c r="Q128" s="89"/>
-      <c r="R128" s="89"/>
-      <c r="S128" s="89"/>
-      <c r="T128" s="89"/>
-      <c r="U128" s="89"/>
+      <c r="A128" s="85"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="85"/>
+      <c r="J128" s="85"/>
+      <c r="K128" s="85"/>
+      <c r="L128" s="97"/>
+      <c r="M128" s="85"/>
+      <c r="N128" s="85"/>
+      <c r="O128" s="85"/>
+      <c r="P128" s="85"/>
+      <c r="Q128" s="85"/>
+      <c r="R128" s="85"/>
+      <c r="S128" s="85"/>
+      <c r="T128" s="85"/>
+      <c r="U128" s="85"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A129" s="89"/>
-      <c r="B129" s="89"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="89"/>
-      <c r="E129" s="89"/>
-      <c r="F129" s="89"/>
-      <c r="G129" s="89"/>
-      <c r="H129" s="89"/>
-      <c r="I129" s="89"/>
-      <c r="J129" s="89"/>
-      <c r="K129" s="89"/>
-      <c r="L129" s="107"/>
-      <c r="M129" s="89"/>
-      <c r="N129" s="89"/>
-      <c r="O129" s="89"/>
-      <c r="P129" s="89"/>
-      <c r="Q129" s="89"/>
-      <c r="R129" s="89"/>
-      <c r="S129" s="89"/>
-      <c r="T129" s="89"/>
-      <c r="U129" s="89"/>
+      <c r="A129" s="85"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="85"/>
+      <c r="I129" s="85"/>
+      <c r="J129" s="85"/>
+      <c r="K129" s="85"/>
+      <c r="L129" s="97"/>
+      <c r="M129" s="85"/>
+      <c r="N129" s="85"/>
+      <c r="O129" s="85"/>
+      <c r="P129" s="85"/>
+      <c r="Q129" s="85"/>
+      <c r="R129" s="85"/>
+      <c r="S129" s="85"/>
+      <c r="T129" s="85"/>
+      <c r="U129" s="85"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A130" s="89"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="89"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="89"/>
-      <c r="F130" s="89"/>
-      <c r="G130" s="89"/>
-      <c r="H130" s="89"/>
-      <c r="I130" s="89"/>
-      <c r="J130" s="89"/>
-      <c r="K130" s="89"/>
-      <c r="L130" s="107"/>
-      <c r="M130" s="89"/>
-      <c r="N130" s="89"/>
-      <c r="O130" s="89"/>
-      <c r="P130" s="89"/>
-      <c r="Q130" s="89"/>
-      <c r="R130" s="89"/>
-      <c r="S130" s="89"/>
-      <c r="T130" s="89"/>
-      <c r="U130" s="89"/>
+      <c r="A130" s="85"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="85"/>
+      <c r="H130" s="85"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="85"/>
+      <c r="K130" s="85"/>
+      <c r="L130" s="97"/>
+      <c r="M130" s="85"/>
+      <c r="N130" s="85"/>
+      <c r="O130" s="85"/>
+      <c r="P130" s="85"/>
+      <c r="Q130" s="85"/>
+      <c r="R130" s="85"/>
+      <c r="S130" s="85"/>
+      <c r="T130" s="85"/>
+      <c r="U130" s="85"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A131" s="89"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="89"/>
-      <c r="E131" s="89"/>
-      <c r="F131" s="89"/>
-      <c r="G131" s="89"/>
-      <c r="H131" s="89"/>
-      <c r="I131" s="89"/>
-      <c r="J131" s="89"/>
-      <c r="K131" s="89"/>
-      <c r="L131" s="107"/>
-      <c r="M131" s="89"/>
-      <c r="N131" s="89"/>
-      <c r="O131" s="89"/>
-      <c r="P131" s="89"/>
-      <c r="Q131" s="89"/>
-      <c r="R131" s="89"/>
-      <c r="S131" s="89"/>
-      <c r="T131" s="89"/>
-      <c r="U131" s="89"/>
+      <c r="A131" s="85"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="85"/>
+      <c r="I131" s="85"/>
+      <c r="J131" s="85"/>
+      <c r="K131" s="85"/>
+      <c r="L131" s="97"/>
+      <c r="M131" s="85"/>
+      <c r="N131" s="85"/>
+      <c r="O131" s="85"/>
+      <c r="P131" s="85"/>
+      <c r="Q131" s="85"/>
+      <c r="R131" s="85"/>
+      <c r="S131" s="85"/>
+      <c r="T131" s="85"/>
+      <c r="U131" s="85"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A132" s="89"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="89"/>
-      <c r="D132" s="89"/>
-      <c r="E132" s="89"/>
-      <c r="F132" s="89"/>
-      <c r="G132" s="89"/>
-      <c r="H132" s="89"/>
-      <c r="I132" s="89"/>
-      <c r="J132" s="89"/>
-      <c r="K132" s="89"/>
-      <c r="L132" s="107"/>
-      <c r="M132" s="89"/>
-      <c r="N132" s="89"/>
-      <c r="O132" s="89"/>
-      <c r="P132" s="89"/>
-      <c r="Q132" s="89"/>
-      <c r="R132" s="89"/>
-      <c r="S132" s="89"/>
-      <c r="T132" s="89"/>
-      <c r="U132" s="89"/>
+      <c r="A132" s="85"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
+      <c r="F132" s="85"/>
+      <c r="G132" s="85"/>
+      <c r="H132" s="85"/>
+      <c r="I132" s="85"/>
+      <c r="J132" s="85"/>
+      <c r="K132" s="85"/>
+      <c r="L132" s="97"/>
+      <c r="M132" s="85"/>
+      <c r="N132" s="85"/>
+      <c r="O132" s="85"/>
+      <c r="P132" s="85"/>
+      <c r="Q132" s="85"/>
+      <c r="R132" s="85"/>
+      <c r="S132" s="85"/>
+      <c r="T132" s="85"/>
+      <c r="U132" s="85"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A133" s="89"/>
-      <c r="B133" s="89"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="89"/>
-      <c r="G133" s="89"/>
-      <c r="H133" s="89"/>
-      <c r="I133" s="89"/>
-      <c r="J133" s="89"/>
-      <c r="K133" s="89"/>
-      <c r="L133" s="107"/>
-      <c r="M133" s="89"/>
-      <c r="N133" s="89"/>
-      <c r="O133" s="89"/>
-      <c r="P133" s="89"/>
-      <c r="Q133" s="89"/>
-      <c r="R133" s="89"/>
-      <c r="S133" s="89"/>
-      <c r="T133" s="89"/>
-      <c r="U133" s="89"/>
+      <c r="A133" s="85"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
+      <c r="F133" s="85"/>
+      <c r="G133" s="85"/>
+      <c r="H133" s="85"/>
+      <c r="I133" s="85"/>
+      <c r="J133" s="85"/>
+      <c r="K133" s="85"/>
+      <c r="L133" s="97"/>
+      <c r="M133" s="85"/>
+      <c r="N133" s="85"/>
+      <c r="O133" s="85"/>
+      <c r="P133" s="85"/>
+      <c r="Q133" s="85"/>
+      <c r="R133" s="85"/>
+      <c r="S133" s="85"/>
+      <c r="T133" s="85"/>
+      <c r="U133" s="85"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A134" s="89"/>
-      <c r="B134" s="89"/>
-      <c r="C134" s="89"/>
-      <c r="D134" s="89"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="89"/>
-      <c r="G134" s="89"/>
-      <c r="H134" s="89"/>
-      <c r="I134" s="89"/>
-      <c r="J134" s="89"/>
-      <c r="K134" s="89"/>
-      <c r="L134" s="107"/>
-      <c r="M134" s="89"/>
-      <c r="N134" s="89"/>
-      <c r="O134" s="89"/>
-      <c r="P134" s="89"/>
-      <c r="Q134" s="89"/>
-      <c r="R134" s="89"/>
-      <c r="S134" s="89"/>
-      <c r="T134" s="89"/>
-      <c r="U134" s="89"/>
+      <c r="A134" s="85"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="85"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="85"/>
+      <c r="F134" s="85"/>
+      <c r="G134" s="85"/>
+      <c r="H134" s="85"/>
+      <c r="I134" s="85"/>
+      <c r="J134" s="85"/>
+      <c r="K134" s="85"/>
+      <c r="L134" s="97"/>
+      <c r="M134" s="85"/>
+      <c r="N134" s="85"/>
+      <c r="O134" s="85"/>
+      <c r="P134" s="85"/>
+      <c r="Q134" s="85"/>
+      <c r="R134" s="85"/>
+      <c r="S134" s="85"/>
+      <c r="T134" s="85"/>
+      <c r="U134" s="85"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A135" s="89"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="89"/>
-      <c r="G135" s="89"/>
-      <c r="H135" s="89"/>
-      <c r="I135" s="89"/>
-      <c r="J135" s="89"/>
-      <c r="K135" s="89"/>
-      <c r="L135" s="107"/>
-      <c r="M135" s="89"/>
-      <c r="N135" s="89"/>
-      <c r="O135" s="89"/>
-      <c r="P135" s="89"/>
-      <c r="Q135" s="89"/>
-      <c r="R135" s="89"/>
-      <c r="S135" s="89"/>
-      <c r="T135" s="89"/>
-      <c r="U135" s="89"/>
+      <c r="A135" s="85"/>
+      <c r="B135" s="85"/>
+      <c r="C135" s="85"/>
+      <c r="D135" s="85"/>
+      <c r="E135" s="85"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="85"/>
+      <c r="I135" s="85"/>
+      <c r="J135" s="85"/>
+      <c r="K135" s="85"/>
+      <c r="L135" s="97"/>
+      <c r="M135" s="85"/>
+      <c r="N135" s="85"/>
+      <c r="O135" s="85"/>
+      <c r="P135" s="85"/>
+      <c r="Q135" s="85"/>
+      <c r="R135" s="85"/>
+      <c r="S135" s="85"/>
+      <c r="T135" s="85"/>
+      <c r="U135" s="85"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A136" s="89"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="89"/>
-      <c r="G136" s="89"/>
-      <c r="H136" s="89"/>
-      <c r="I136" s="89"/>
-      <c r="J136" s="89"/>
-      <c r="K136" s="89"/>
-      <c r="L136" s="107"/>
-      <c r="M136" s="89"/>
-      <c r="N136" s="89"/>
-      <c r="O136" s="89"/>
-      <c r="P136" s="89"/>
-      <c r="Q136" s="89"/>
-      <c r="R136" s="89"/>
-      <c r="S136" s="89"/>
-      <c r="T136" s="89"/>
-      <c r="U136" s="89"/>
+      <c r="A136" s="85"/>
+      <c r="B136" s="85"/>
+      <c r="C136" s="85"/>
+      <c r="D136" s="85"/>
+      <c r="E136" s="85"/>
+      <c r="F136" s="85"/>
+      <c r="G136" s="85"/>
+      <c r="H136" s="85"/>
+      <c r="I136" s="85"/>
+      <c r="J136" s="85"/>
+      <c r="K136" s="85"/>
+      <c r="L136" s="97"/>
+      <c r="M136" s="85"/>
+      <c r="N136" s="85"/>
+      <c r="O136" s="85"/>
+      <c r="P136" s="85"/>
+      <c r="Q136" s="85"/>
+      <c r="R136" s="85"/>
+      <c r="S136" s="85"/>
+      <c r="T136" s="85"/>
+      <c r="U136" s="85"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A137" s="89"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="89"/>
-      <c r="G137" s="89"/>
-      <c r="H137" s="89"/>
-      <c r="I137" s="89"/>
-      <c r="J137" s="89"/>
-      <c r="K137" s="89"/>
-      <c r="L137" s="107"/>
-      <c r="M137" s="89"/>
-      <c r="N137" s="89"/>
-      <c r="O137" s="89"/>
-      <c r="P137" s="89"/>
-      <c r="Q137" s="89"/>
-      <c r="R137" s="89"/>
-      <c r="S137" s="89"/>
-      <c r="T137" s="89"/>
-      <c r="U137" s="89"/>
+      <c r="A137" s="85"/>
+      <c r="B137" s="85"/>
+      <c r="C137" s="85"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="85"/>
+      <c r="H137" s="85"/>
+      <c r="I137" s="85"/>
+      <c r="J137" s="85"/>
+      <c r="K137" s="85"/>
+      <c r="L137" s="97"/>
+      <c r="M137" s="85"/>
+      <c r="N137" s="85"/>
+      <c r="O137" s="85"/>
+      <c r="P137" s="85"/>
+      <c r="Q137" s="85"/>
+      <c r="R137" s="85"/>
+      <c r="S137" s="85"/>
+      <c r="T137" s="85"/>
+      <c r="U137" s="85"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A138" s="89"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="89"/>
-      <c r="H138" s="89"/>
-      <c r="I138" s="89"/>
-      <c r="J138" s="89"/>
-      <c r="K138" s="89"/>
-      <c r="L138" s="107"/>
-      <c r="M138" s="89"/>
-      <c r="N138" s="89"/>
-      <c r="O138" s="89"/>
-      <c r="P138" s="89"/>
-      <c r="Q138" s="89"/>
-      <c r="R138" s="89"/>
-      <c r="S138" s="89"/>
-      <c r="T138" s="89"/>
-      <c r="U138" s="89"/>
+      <c r="A138" s="85"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="85"/>
+      <c r="D138" s="85"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="85"/>
+      <c r="H138" s="85"/>
+      <c r="I138" s="85"/>
+      <c r="J138" s="85"/>
+      <c r="K138" s="85"/>
+      <c r="L138" s="97"/>
+      <c r="M138" s="85"/>
+      <c r="N138" s="85"/>
+      <c r="O138" s="85"/>
+      <c r="P138" s="85"/>
+      <c r="Q138" s="85"/>
+      <c r="R138" s="85"/>
+      <c r="S138" s="85"/>
+      <c r="T138" s="85"/>
+      <c r="U138" s="85"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A139" s="89"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="89"/>
-      <c r="D139" s="89"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="89"/>
-      <c r="G139" s="89"/>
-      <c r="H139" s="89"/>
-      <c r="I139" s="89"/>
-      <c r="J139" s="89"/>
-      <c r="K139" s="89"/>
-      <c r="L139" s="107"/>
-      <c r="M139" s="89"/>
-      <c r="N139" s="89"/>
-      <c r="O139" s="89"/>
-      <c r="P139" s="89"/>
-      <c r="Q139" s="89"/>
-      <c r="R139" s="89"/>
-      <c r="S139" s="89"/>
-      <c r="T139" s="89"/>
-      <c r="U139" s="89"/>
+      <c r="A139" s="85"/>
+      <c r="B139" s="85"/>
+      <c r="C139" s="85"/>
+      <c r="D139" s="85"/>
+      <c r="E139" s="85"/>
+      <c r="F139" s="85"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="85"/>
+      <c r="I139" s="85"/>
+      <c r="J139" s="85"/>
+      <c r="K139" s="85"/>
+      <c r="L139" s="97"/>
+      <c r="M139" s="85"/>
+      <c r="N139" s="85"/>
+      <c r="O139" s="85"/>
+      <c r="P139" s="85"/>
+      <c r="Q139" s="85"/>
+      <c r="R139" s="85"/>
+      <c r="S139" s="85"/>
+      <c r="T139" s="85"/>
+      <c r="U139" s="85"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A140" s="89"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="89"/>
-      <c r="G140" s="89"/>
-      <c r="H140" s="89"/>
-      <c r="I140" s="89"/>
-      <c r="J140" s="89"/>
-      <c r="K140" s="89"/>
-      <c r="L140" s="107"/>
-      <c r="M140" s="89"/>
-      <c r="N140" s="89"/>
-      <c r="O140" s="89"/>
-      <c r="P140" s="89"/>
-      <c r="Q140" s="89"/>
-      <c r="R140" s="89"/>
-      <c r="S140" s="89"/>
-      <c r="T140" s="89"/>
-      <c r="U140" s="89"/>
+      <c r="A140" s="85"/>
+      <c r="B140" s="85"/>
+      <c r="C140" s="85"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="85"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="85"/>
+      <c r="H140" s="85"/>
+      <c r="I140" s="85"/>
+      <c r="J140" s="85"/>
+      <c r="K140" s="85"/>
+      <c r="L140" s="97"/>
+      <c r="M140" s="85"/>
+      <c r="N140" s="85"/>
+      <c r="O140" s="85"/>
+      <c r="P140" s="85"/>
+      <c r="Q140" s="85"/>
+      <c r="R140" s="85"/>
+      <c r="S140" s="85"/>
+      <c r="T140" s="85"/>
+      <c r="U140" s="85"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A141" s="89"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="89"/>
-      <c r="D141" s="89"/>
-      <c r="E141" s="89"/>
-      <c r="F141" s="89"/>
-      <c r="G141" s="89"/>
-      <c r="H141" s="89"/>
-      <c r="I141" s="89"/>
-      <c r="J141" s="89"/>
-      <c r="K141" s="89"/>
-      <c r="L141" s="107"/>
-      <c r="M141" s="89"/>
-      <c r="N141" s="89"/>
-      <c r="O141" s="89"/>
-      <c r="P141" s="89"/>
-      <c r="Q141" s="89"/>
-      <c r="R141" s="89"/>
-      <c r="S141" s="89"/>
-      <c r="T141" s="89"/>
-      <c r="U141" s="89"/>
+      <c r="A141" s="85"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="85"/>
+      <c r="D141" s="85"/>
+      <c r="E141" s="85"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="85"/>
+      <c r="I141" s="85"/>
+      <c r="J141" s="85"/>
+      <c r="K141" s="85"/>
+      <c r="L141" s="97"/>
+      <c r="M141" s="85"/>
+      <c r="N141" s="85"/>
+      <c r="O141" s="85"/>
+      <c r="P141" s="85"/>
+      <c r="Q141" s="85"/>
+      <c r="R141" s="85"/>
+      <c r="S141" s="85"/>
+      <c r="T141" s="85"/>
+      <c r="U141" s="85"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A142" s="89"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="89"/>
-      <c r="D142" s="89"/>
-      <c r="E142" s="89"/>
-      <c r="F142" s="89"/>
-      <c r="G142" s="89"/>
-      <c r="H142" s="89"/>
-      <c r="I142" s="89"/>
-      <c r="J142" s="89"/>
-      <c r="K142" s="89"/>
-      <c r="L142" s="107"/>
-      <c r="M142" s="89"/>
-      <c r="N142" s="89"/>
-      <c r="O142" s="89"/>
-      <c r="P142" s="89"/>
-      <c r="Q142" s="89"/>
-      <c r="R142" s="89"/>
-      <c r="S142" s="89"/>
-      <c r="T142" s="89"/>
-      <c r="U142" s="89"/>
+      <c r="A142" s="85"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="85"/>
+      <c r="D142" s="85"/>
+      <c r="E142" s="85"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="85"/>
+      <c r="H142" s="85"/>
+      <c r="I142" s="85"/>
+      <c r="J142" s="85"/>
+      <c r="K142" s="85"/>
+      <c r="L142" s="97"/>
+      <c r="M142" s="85"/>
+      <c r="N142" s="85"/>
+      <c r="O142" s="85"/>
+      <c r="P142" s="85"/>
+      <c r="Q142" s="85"/>
+      <c r="R142" s="85"/>
+      <c r="S142" s="85"/>
+      <c r="T142" s="85"/>
+      <c r="U142" s="85"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A143" s="89"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-      <c r="F143" s="89"/>
-      <c r="G143" s="89"/>
-      <c r="H143" s="89"/>
-      <c r="I143" s="89"/>
-      <c r="J143" s="89"/>
-      <c r="K143" s="89"/>
-      <c r="L143" s="107"/>
-      <c r="M143" s="89"/>
-      <c r="N143" s="89"/>
-      <c r="O143" s="89"/>
-      <c r="P143" s="89"/>
-      <c r="Q143" s="89"/>
-      <c r="R143" s="89"/>
-      <c r="S143" s="89"/>
-      <c r="T143" s="89"/>
-      <c r="U143" s="89"/>
+      <c r="A143" s="85"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="85"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="85"/>
+      <c r="I143" s="85"/>
+      <c r="J143" s="85"/>
+      <c r="K143" s="85"/>
+      <c r="L143" s="97"/>
+      <c r="M143" s="85"/>
+      <c r="N143" s="85"/>
+      <c r="O143" s="85"/>
+      <c r="P143" s="85"/>
+      <c r="Q143" s="85"/>
+      <c r="R143" s="85"/>
+      <c r="S143" s="85"/>
+      <c r="T143" s="85"/>
+      <c r="U143" s="85"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A144" s="89"/>
-      <c r="B144" s="89"/>
-      <c r="C144" s="89"/>
-      <c r="D144" s="89"/>
-      <c r="E144" s="89"/>
-      <c r="F144" s="89"/>
-      <c r="G144" s="89"/>
-      <c r="H144" s="89"/>
-      <c r="I144" s="89"/>
-      <c r="J144" s="89"/>
-      <c r="K144" s="89"/>
-      <c r="L144" s="107"/>
-      <c r="M144" s="89"/>
-      <c r="N144" s="89"/>
-      <c r="O144" s="89"/>
-      <c r="P144" s="89"/>
-      <c r="Q144" s="89"/>
-      <c r="R144" s="89"/>
-      <c r="S144" s="89"/>
-      <c r="T144" s="89"/>
-      <c r="U144" s="89"/>
+      <c r="A144" s="85"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="85"/>
+      <c r="I144" s="85"/>
+      <c r="J144" s="85"/>
+      <c r="K144" s="85"/>
+      <c r="L144" s="97"/>
+      <c r="M144" s="85"/>
+      <c r="N144" s="85"/>
+      <c r="O144" s="85"/>
+      <c r="P144" s="85"/>
+      <c r="Q144" s="85"/>
+      <c r="R144" s="85"/>
+      <c r="S144" s="85"/>
+      <c r="T144" s="85"/>
+      <c r="U144" s="85"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A145" s="89"/>
-      <c r="B145" s="89"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="89"/>
-      <c r="F145" s="89"/>
-      <c r="G145" s="89"/>
-      <c r="H145" s="89"/>
-      <c r="I145" s="89"/>
-      <c r="J145" s="89"/>
-      <c r="K145" s="89"/>
-      <c r="L145" s="107"/>
-      <c r="M145" s="89"/>
-      <c r="N145" s="89"/>
-      <c r="O145" s="89"/>
-      <c r="P145" s="89"/>
-      <c r="Q145" s="89"/>
-      <c r="R145" s="89"/>
-      <c r="S145" s="89"/>
-      <c r="T145" s="89"/>
-      <c r="U145" s="89"/>
+      <c r="A145" s="85"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="85"/>
+      <c r="I145" s="85"/>
+      <c r="J145" s="85"/>
+      <c r="K145" s="85"/>
+      <c r="L145" s="97"/>
+      <c r="M145" s="85"/>
+      <c r="N145" s="85"/>
+      <c r="O145" s="85"/>
+      <c r="P145" s="85"/>
+      <c r="Q145" s="85"/>
+      <c r="R145" s="85"/>
+      <c r="S145" s="85"/>
+      <c r="T145" s="85"/>
+      <c r="U145" s="85"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A146" s="89"/>
-      <c r="B146" s="89"/>
-      <c r="C146" s="89"/>
-      <c r="D146" s="89"/>
-      <c r="E146" s="89"/>
-      <c r="F146" s="89"/>
-      <c r="G146" s="89"/>
-      <c r="H146" s="89"/>
-      <c r="I146" s="89"/>
-      <c r="J146" s="89"/>
-      <c r="K146" s="89"/>
-      <c r="L146" s="107"/>
-      <c r="M146" s="89"/>
-      <c r="N146" s="89"/>
-      <c r="O146" s="89"/>
-      <c r="P146" s="89"/>
-      <c r="Q146" s="89"/>
-      <c r="R146" s="89"/>
-      <c r="S146" s="89"/>
-      <c r="T146" s="89"/>
-      <c r="U146" s="89"/>
+      <c r="A146" s="85"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="85"/>
+      <c r="I146" s="85"/>
+      <c r="J146" s="85"/>
+      <c r="K146" s="85"/>
+      <c r="L146" s="97"/>
+      <c r="M146" s="85"/>
+      <c r="N146" s="85"/>
+      <c r="O146" s="85"/>
+      <c r="P146" s="85"/>
+      <c r="Q146" s="85"/>
+      <c r="R146" s="85"/>
+      <c r="S146" s="85"/>
+      <c r="T146" s="85"/>
+      <c r="U146" s="85"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A147" s="89"/>
-      <c r="B147" s="89"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="89"/>
-      <c r="G147" s="89"/>
-      <c r="H147" s="89"/>
-      <c r="I147" s="89"/>
-      <c r="J147" s="89"/>
-      <c r="K147" s="89"/>
-      <c r="L147" s="107"/>
-      <c r="M147" s="89"/>
-      <c r="N147" s="89"/>
-      <c r="O147" s="89"/>
-      <c r="P147" s="89"/>
-      <c r="Q147" s="89"/>
-      <c r="R147" s="89"/>
-      <c r="S147" s="89"/>
-      <c r="T147" s="89"/>
-      <c r="U147" s="89"/>
+      <c r="A147" s="85"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="85"/>
+      <c r="K147" s="85"/>
+      <c r="L147" s="97"/>
+      <c r="M147" s="85"/>
+      <c r="N147" s="85"/>
+      <c r="O147" s="85"/>
+      <c r="P147" s="85"/>
+      <c r="Q147" s="85"/>
+      <c r="R147" s="85"/>
+      <c r="S147" s="85"/>
+      <c r="T147" s="85"/>
+      <c r="U147" s="85"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A148" s="89"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="89"/>
-      <c r="G148" s="89"/>
-      <c r="H148" s="89"/>
-      <c r="I148" s="89"/>
-      <c r="J148" s="89"/>
-      <c r="K148" s="89"/>
-      <c r="L148" s="107"/>
-      <c r="M148" s="89"/>
-      <c r="N148" s="89"/>
-      <c r="O148" s="89"/>
-      <c r="P148" s="89"/>
-      <c r="Q148" s="89"/>
-      <c r="R148" s="89"/>
-      <c r="S148" s="89"/>
-      <c r="T148" s="89"/>
-      <c r="U148" s="89"/>
+      <c r="A148" s="85"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="85"/>
+      <c r="I148" s="85"/>
+      <c r="J148" s="85"/>
+      <c r="K148" s="85"/>
+      <c r="L148" s="97"/>
+      <c r="M148" s="85"/>
+      <c r="N148" s="85"/>
+      <c r="O148" s="85"/>
+      <c r="P148" s="85"/>
+      <c r="Q148" s="85"/>
+      <c r="R148" s="85"/>
+      <c r="S148" s="85"/>
+      <c r="T148" s="85"/>
+      <c r="U148" s="85"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A149" s="89"/>
-      <c r="B149" s="89"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="89"/>
-      <c r="G149" s="89"/>
-      <c r="H149" s="89"/>
-      <c r="I149" s="89"/>
-      <c r="J149" s="89"/>
-      <c r="K149" s="89"/>
-      <c r="L149" s="107"/>
-      <c r="M149" s="89"/>
-      <c r="N149" s="89"/>
-      <c r="O149" s="89"/>
-      <c r="P149" s="89"/>
-      <c r="Q149" s="89"/>
-      <c r="R149" s="89"/>
-      <c r="S149" s="89"/>
-      <c r="T149" s="89"/>
-      <c r="U149" s="89"/>
+      <c r="A149" s="85"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="85"/>
+      <c r="I149" s="85"/>
+      <c r="J149" s="85"/>
+      <c r="K149" s="85"/>
+      <c r="L149" s="97"/>
+      <c r="M149" s="85"/>
+      <c r="N149" s="85"/>
+      <c r="O149" s="85"/>
+      <c r="P149" s="85"/>
+      <c r="Q149" s="85"/>
+      <c r="R149" s="85"/>
+      <c r="S149" s="85"/>
+      <c r="T149" s="85"/>
+      <c r="U149" s="85"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A150" s="89"/>
-      <c r="B150" s="89"/>
-      <c r="C150" s="89"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="89"/>
-      <c r="G150" s="89"/>
-      <c r="H150" s="89"/>
-      <c r="I150" s="89"/>
-      <c r="J150" s="89"/>
-      <c r="K150" s="89"/>
-      <c r="L150" s="107"/>
-      <c r="M150" s="89"/>
-      <c r="N150" s="89"/>
-      <c r="O150" s="89"/>
-      <c r="P150" s="89"/>
-      <c r="Q150" s="89"/>
-      <c r="R150" s="89"/>
-      <c r="S150" s="89"/>
-      <c r="T150" s="89"/>
-      <c r="U150" s="89"/>
+      <c r="A150" s="85"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="85"/>
+      <c r="I150" s="85"/>
+      <c r="J150" s="85"/>
+      <c r="K150" s="85"/>
+      <c r="L150" s="97"/>
+      <c r="M150" s="85"/>
+      <c r="N150" s="85"/>
+      <c r="O150" s="85"/>
+      <c r="P150" s="85"/>
+      <c r="Q150" s="85"/>
+      <c r="R150" s="85"/>
+      <c r="S150" s="85"/>
+      <c r="T150" s="85"/>
+      <c r="U150" s="85"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A151" s="89"/>
-      <c r="B151" s="89"/>
-      <c r="C151" s="89"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="89"/>
-      <c r="F151" s="89"/>
-      <c r="G151" s="89"/>
-      <c r="H151" s="89"/>
-      <c r="I151" s="89"/>
-      <c r="J151" s="89"/>
-      <c r="K151" s="89"/>
-      <c r="L151" s="107"/>
-      <c r="M151" s="89"/>
-      <c r="N151" s="89"/>
-      <c r="O151" s="89"/>
-      <c r="P151" s="89"/>
-      <c r="Q151" s="89"/>
-      <c r="R151" s="89"/>
-      <c r="S151" s="89"/>
-      <c r="T151" s="89"/>
-      <c r="U151" s="89"/>
+      <c r="A151" s="85"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="85"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="85"/>
+      <c r="I151" s="85"/>
+      <c r="J151" s="85"/>
+      <c r="K151" s="85"/>
+      <c r="L151" s="97"/>
+      <c r="M151" s="85"/>
+      <c r="N151" s="85"/>
+      <c r="O151" s="85"/>
+      <c r="P151" s="85"/>
+      <c r="Q151" s="85"/>
+      <c r="R151" s="85"/>
+      <c r="S151" s="85"/>
+      <c r="T151" s="85"/>
+      <c r="U151" s="85"/>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A152" s="89"/>
-      <c r="B152" s="89"/>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="89"/>
-      <c r="G152" s="89"/>
-      <c r="H152" s="89"/>
-      <c r="I152" s="89"/>
-      <c r="J152" s="89"/>
-      <c r="K152" s="89"/>
-      <c r="L152" s="107"/>
-      <c r="M152" s="89"/>
-      <c r="N152" s="89"/>
-      <c r="O152" s="89"/>
-      <c r="P152" s="89"/>
-      <c r="Q152" s="89"/>
-      <c r="R152" s="89"/>
-      <c r="S152" s="89"/>
-      <c r="T152" s="89"/>
-      <c r="U152" s="89"/>
+      <c r="A152" s="85"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85"/>
+      <c r="G152" s="85"/>
+      <c r="H152" s="85"/>
+      <c r="I152" s="85"/>
+      <c r="J152" s="85"/>
+      <c r="K152" s="85"/>
+      <c r="L152" s="97"/>
+      <c r="M152" s="85"/>
+      <c r="N152" s="85"/>
+      <c r="O152" s="85"/>
+      <c r="P152" s="85"/>
+      <c r="Q152" s="85"/>
+      <c r="R152" s="85"/>
+      <c r="S152" s="85"/>
+      <c r="T152" s="85"/>
+      <c r="U152" s="85"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A153" s="89"/>
-      <c r="B153" s="89"/>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="89"/>
-      <c r="G153" s="89"/>
-      <c r="H153" s="89"/>
-      <c r="I153" s="89"/>
-      <c r="J153" s="89"/>
-      <c r="K153" s="89"/>
-      <c r="L153" s="107"/>
-      <c r="M153" s="89"/>
-      <c r="N153" s="89"/>
-      <c r="O153" s="89"/>
-      <c r="P153" s="89"/>
-      <c r="Q153" s="89"/>
-      <c r="R153" s="89"/>
-      <c r="S153" s="89"/>
-      <c r="T153" s="89"/>
-      <c r="U153" s="89"/>
+      <c r="A153" s="85"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
+      <c r="F153" s="85"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="85"/>
+      <c r="I153" s="85"/>
+      <c r="J153" s="85"/>
+      <c r="K153" s="85"/>
+      <c r="L153" s="97"/>
+      <c r="M153" s="85"/>
+      <c r="N153" s="85"/>
+      <c r="O153" s="85"/>
+      <c r="P153" s="85"/>
+      <c r="Q153" s="85"/>
+      <c r="R153" s="85"/>
+      <c r="S153" s="85"/>
+      <c r="T153" s="85"/>
+      <c r="U153" s="85"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A154" s="89"/>
-      <c r="B154" s="89"/>
-      <c r="C154" s="89"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="89"/>
-      <c r="F154" s="89"/>
-      <c r="G154" s="89"/>
-      <c r="H154" s="89"/>
-      <c r="I154" s="89"/>
-      <c r="J154" s="89"/>
-      <c r="K154" s="89"/>
-      <c r="L154" s="107"/>
-      <c r="M154" s="89"/>
-      <c r="N154" s="89"/>
-      <c r="O154" s="89"/>
-      <c r="P154" s="89"/>
-      <c r="Q154" s="89"/>
-      <c r="R154" s="89"/>
-      <c r="S154" s="89"/>
-      <c r="T154" s="89"/>
-      <c r="U154" s="89"/>
+      <c r="A154" s="85"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="85"/>
+      <c r="I154" s="85"/>
+      <c r="J154" s="85"/>
+      <c r="K154" s="85"/>
+      <c r="L154" s="97"/>
+      <c r="M154" s="85"/>
+      <c r="N154" s="85"/>
+      <c r="O154" s="85"/>
+      <c r="P154" s="85"/>
+      <c r="Q154" s="85"/>
+      <c r="R154" s="85"/>
+      <c r="S154" s="85"/>
+      <c r="T154" s="85"/>
+      <c r="U154" s="85"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A155" s="89"/>
-      <c r="B155" s="89"/>
-      <c r="C155" s="89"/>
-      <c r="D155" s="89"/>
-      <c r="E155" s="89"/>
-      <c r="F155" s="89"/>
-      <c r="G155" s="89"/>
-      <c r="H155" s="89"/>
-      <c r="I155" s="89"/>
-      <c r="J155" s="89"/>
-      <c r="K155" s="89"/>
-      <c r="L155" s="107"/>
-      <c r="M155" s="89"/>
-      <c r="N155" s="89"/>
-      <c r="O155" s="89"/>
-      <c r="P155" s="89"/>
-      <c r="Q155" s="89"/>
-      <c r="R155" s="89"/>
-      <c r="S155" s="89"/>
-      <c r="T155" s="89"/>
-      <c r="U155" s="89"/>
+      <c r="A155" s="85"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="85"/>
+      <c r="I155" s="85"/>
+      <c r="J155" s="85"/>
+      <c r="K155" s="85"/>
+      <c r="L155" s="97"/>
+      <c r="M155" s="85"/>
+      <c r="N155" s="85"/>
+      <c r="O155" s="85"/>
+      <c r="P155" s="85"/>
+      <c r="Q155" s="85"/>
+      <c r="R155" s="85"/>
+      <c r="S155" s="85"/>
+      <c r="T155" s="85"/>
+      <c r="U155" s="85"/>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A156" s="89"/>
-      <c r="B156" s="89"/>
-      <c r="C156" s="89"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="89"/>
-      <c r="G156" s="89"/>
-      <c r="H156" s="89"/>
-      <c r="I156" s="89"/>
-      <c r="J156" s="89"/>
-      <c r="K156" s="89"/>
-      <c r="L156" s="107"/>
-      <c r="M156" s="89"/>
-      <c r="N156" s="89"/>
-      <c r="O156" s="89"/>
-      <c r="P156" s="89"/>
-      <c r="Q156" s="89"/>
-      <c r="R156" s="89"/>
-      <c r="S156" s="89"/>
-      <c r="T156" s="89"/>
-      <c r="U156" s="89"/>
+      <c r="A156" s="85"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
+      <c r="K156" s="85"/>
+      <c r="L156" s="97"/>
+      <c r="M156" s="85"/>
+      <c r="N156" s="85"/>
+      <c r="O156" s="85"/>
+      <c r="P156" s="85"/>
+      <c r="Q156" s="85"/>
+      <c r="R156" s="85"/>
+      <c r="S156" s="85"/>
+      <c r="T156" s="85"/>
+      <c r="U156" s="85"/>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A157" s="89"/>
-      <c r="B157" s="89"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="89"/>
-      <c r="G157" s="89"/>
-      <c r="H157" s="89"/>
-      <c r="I157" s="89"/>
-      <c r="J157" s="89"/>
-      <c r="K157" s="89"/>
-      <c r="L157" s="107"/>
-      <c r="M157" s="89"/>
-      <c r="N157" s="89"/>
-      <c r="O157" s="89"/>
-      <c r="P157" s="89"/>
-      <c r="Q157" s="89"/>
-      <c r="R157" s="89"/>
-      <c r="S157" s="89"/>
-      <c r="T157" s="89"/>
-      <c r="U157" s="89"/>
+      <c r="A157" s="85"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="85"/>
+      <c r="I157" s="85"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="85"/>
+      <c r="L157" s="97"/>
+      <c r="M157" s="85"/>
+      <c r="N157" s="85"/>
+      <c r="O157" s="85"/>
+      <c r="P157" s="85"/>
+      <c r="Q157" s="85"/>
+      <c r="R157" s="85"/>
+      <c r="S157" s="85"/>
+      <c r="T157" s="85"/>
+      <c r="U157" s="85"/>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A158" s="89"/>
-      <c r="B158" s="89"/>
-      <c r="C158" s="89"/>
-      <c r="D158" s="89"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="89"/>
-      <c r="G158" s="89"/>
-      <c r="H158" s="89"/>
-      <c r="I158" s="89"/>
-      <c r="J158" s="89"/>
-      <c r="K158" s="89"/>
-      <c r="L158" s="107"/>
-      <c r="M158" s="89"/>
-      <c r="N158" s="89"/>
-      <c r="O158" s="89"/>
-      <c r="P158" s="89"/>
-      <c r="Q158" s="89"/>
-      <c r="R158" s="89"/>
-      <c r="S158" s="89"/>
-      <c r="T158" s="89"/>
-      <c r="U158" s="89"/>
+      <c r="A158" s="85"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
+      <c r="K158" s="85"/>
+      <c r="L158" s="97"/>
+      <c r="M158" s="85"/>
+      <c r="N158" s="85"/>
+      <c r="O158" s="85"/>
+      <c r="P158" s="85"/>
+      <c r="Q158" s="85"/>
+      <c r="R158" s="85"/>
+      <c r="S158" s="85"/>
+      <c r="T158" s="85"/>
+      <c r="U158" s="85"/>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A159" s="89"/>
-      <c r="B159" s="89"/>
-      <c r="C159" s="89"/>
-      <c r="D159" s="89"/>
-      <c r="E159" s="89"/>
-      <c r="F159" s="89"/>
-      <c r="G159" s="89"/>
-      <c r="H159" s="89"/>
-      <c r="I159" s="89"/>
-      <c r="J159" s="89"/>
-      <c r="K159" s="89"/>
-      <c r="L159" s="107"/>
-      <c r="M159" s="89"/>
-      <c r="N159" s="89"/>
-      <c r="O159" s="89"/>
-      <c r="P159" s="89"/>
-      <c r="Q159" s="89"/>
-      <c r="R159" s="89"/>
-      <c r="S159" s="89"/>
-      <c r="T159" s="89"/>
-      <c r="U159" s="89"/>
+      <c r="A159" s="85"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="85"/>
+      <c r="I159" s="85"/>
+      <c r="J159" s="85"/>
+      <c r="K159" s="85"/>
+      <c r="L159" s="97"/>
+      <c r="M159" s="85"/>
+      <c r="N159" s="85"/>
+      <c r="O159" s="85"/>
+      <c r="P159" s="85"/>
+      <c r="Q159" s="85"/>
+      <c r="R159" s="85"/>
+      <c r="S159" s="85"/>
+      <c r="T159" s="85"/>
+      <c r="U159" s="85"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A160" s="89"/>
-      <c r="B160" s="89"/>
-      <c r="C160" s="89"/>
-      <c r="D160" s="89"/>
-      <c r="E160" s="89"/>
-      <c r="F160" s="89"/>
-      <c r="G160" s="89"/>
-      <c r="H160" s="89"/>
-      <c r="I160" s="89"/>
-      <c r="J160" s="89"/>
-      <c r="K160" s="89"/>
-      <c r="L160" s="107"/>
-      <c r="M160" s="89"/>
-      <c r="N160" s="89"/>
-      <c r="O160" s="89"/>
-      <c r="P160" s="89"/>
-      <c r="Q160" s="89"/>
-      <c r="R160" s="89"/>
-      <c r="S160" s="89"/>
-      <c r="T160" s="89"/>
-      <c r="U160" s="89"/>
+      <c r="A160" s="85"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="85"/>
+      <c r="D160" s="85"/>
+      <c r="E160" s="85"/>
+      <c r="F160" s="85"/>
+      <c r="G160" s="85"/>
+      <c r="H160" s="85"/>
+      <c r="I160" s="85"/>
+      <c r="J160" s="85"/>
+      <c r="K160" s="85"/>
+      <c r="L160" s="97"/>
+      <c r="M160" s="85"/>
+      <c r="N160" s="85"/>
+      <c r="O160" s="85"/>
+      <c r="P160" s="85"/>
+      <c r="Q160" s="85"/>
+      <c r="R160" s="85"/>
+      <c r="S160" s="85"/>
+      <c r="T160" s="85"/>
+      <c r="U160" s="85"/>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A161" s="89"/>
-      <c r="B161" s="89"/>
-      <c r="C161" s="89"/>
-      <c r="D161" s="89"/>
-      <c r="E161" s="89"/>
-      <c r="F161" s="89"/>
-      <c r="G161" s="89"/>
-      <c r="H161" s="89"/>
-      <c r="I161" s="89"/>
-      <c r="J161" s="89"/>
-      <c r="K161" s="89"/>
-      <c r="L161" s="107"/>
-      <c r="M161" s="89"/>
-      <c r="N161" s="89"/>
-      <c r="O161" s="89"/>
-      <c r="P161" s="89"/>
-      <c r="Q161" s="89"/>
-      <c r="R161" s="89"/>
-      <c r="S161" s="89"/>
-      <c r="T161" s="89"/>
-      <c r="U161" s="89"/>
+      <c r="A161" s="85"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="85"/>
+      <c r="H161" s="85"/>
+      <c r="I161" s="85"/>
+      <c r="J161" s="85"/>
+      <c r="K161" s="85"/>
+      <c r="L161" s="97"/>
+      <c r="M161" s="85"/>
+      <c r="N161" s="85"/>
+      <c r="O161" s="85"/>
+      <c r="P161" s="85"/>
+      <c r="Q161" s="85"/>
+      <c r="R161" s="85"/>
+      <c r="S161" s="85"/>
+      <c r="T161" s="85"/>
+      <c r="U161" s="85"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A162" s="89"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="89"/>
-      <c r="D162" s="89"/>
-      <c r="E162" s="89"/>
-      <c r="F162" s="89"/>
-      <c r="G162" s="89"/>
-      <c r="H162" s="89"/>
-      <c r="I162" s="89"/>
-      <c r="J162" s="89"/>
-      <c r="K162" s="89"/>
-      <c r="L162" s="107"/>
-      <c r="M162" s="89"/>
-      <c r="N162" s="89"/>
-      <c r="O162" s="89"/>
-      <c r="P162" s="89"/>
-      <c r="Q162" s="89"/>
-      <c r="R162" s="89"/>
-      <c r="S162" s="89"/>
-      <c r="T162" s="89"/>
-      <c r="U162" s="89"/>
+      <c r="A162" s="85"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="85"/>
+      <c r="D162" s="85"/>
+      <c r="E162" s="85"/>
+      <c r="F162" s="85"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="85"/>
+      <c r="I162" s="85"/>
+      <c r="J162" s="85"/>
+      <c r="K162" s="85"/>
+      <c r="L162" s="97"/>
+      <c r="M162" s="85"/>
+      <c r="N162" s="85"/>
+      <c r="O162" s="85"/>
+      <c r="P162" s="85"/>
+      <c r="Q162" s="85"/>
+      <c r="R162" s="85"/>
+      <c r="S162" s="85"/>
+      <c r="T162" s="85"/>
+      <c r="U162" s="85"/>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A163" s="89"/>
-      <c r="B163" s="89"/>
-      <c r="C163" s="89"/>
-      <c r="D163" s="89"/>
-      <c r="E163" s="89"/>
-      <c r="F163" s="89"/>
-      <c r="G163" s="89"/>
-      <c r="H163" s="89"/>
-      <c r="I163" s="89"/>
-      <c r="J163" s="89"/>
-      <c r="K163" s="89"/>
-      <c r="L163" s="107"/>
-      <c r="M163" s="89"/>
-      <c r="N163" s="89"/>
-      <c r="O163" s="89"/>
-      <c r="P163" s="89"/>
-      <c r="Q163" s="89"/>
-      <c r="R163" s="89"/>
-      <c r="S163" s="89"/>
-      <c r="T163" s="89"/>
-      <c r="U163" s="89"/>
+      <c r="A163" s="85"/>
+      <c r="B163" s="85"/>
+      <c r="C163" s="85"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="85"/>
+      <c r="F163" s="85"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="85"/>
+      <c r="I163" s="85"/>
+      <c r="J163" s="85"/>
+      <c r="K163" s="85"/>
+      <c r="L163" s="97"/>
+      <c r="M163" s="85"/>
+      <c r="N163" s="85"/>
+      <c r="O163" s="85"/>
+      <c r="P163" s="85"/>
+      <c r="Q163" s="85"/>
+      <c r="R163" s="85"/>
+      <c r="S163" s="85"/>
+      <c r="T163" s="85"/>
+      <c r="U163" s="85"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A164" s="89"/>
-      <c r="B164" s="89"/>
-      <c r="C164" s="89"/>
-      <c r="D164" s="89"/>
-      <c r="E164" s="89"/>
-      <c r="F164" s="89"/>
-      <c r="G164" s="89"/>
-      <c r="H164" s="89"/>
-      <c r="I164" s="89"/>
-      <c r="J164" s="89"/>
-      <c r="K164" s="89"/>
-      <c r="L164" s="107"/>
-      <c r="M164" s="89"/>
-      <c r="N164" s="89"/>
-      <c r="O164" s="89"/>
-      <c r="P164" s="89"/>
-      <c r="Q164" s="89"/>
-      <c r="R164" s="89"/>
-      <c r="S164" s="89"/>
-      <c r="T164" s="89"/>
-      <c r="U164" s="89"/>
+      <c r="A164" s="85"/>
+      <c r="B164" s="85"/>
+      <c r="C164" s="85"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="85"/>
+      <c r="F164" s="85"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="85"/>
+      <c r="I164" s="85"/>
+      <c r="J164" s="85"/>
+      <c r="K164" s="85"/>
+      <c r="L164" s="97"/>
+      <c r="M164" s="85"/>
+      <c r="N164" s="85"/>
+      <c r="O164" s="85"/>
+      <c r="P164" s="85"/>
+      <c r="Q164" s="85"/>
+      <c r="R164" s="85"/>
+      <c r="S164" s="85"/>
+      <c r="T164" s="85"/>
+      <c r="U164" s="85"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A165" s="89"/>
-      <c r="B165" s="89"/>
-      <c r="C165" s="89"/>
-      <c r="D165" s="89"/>
-      <c r="E165" s="89"/>
-      <c r="F165" s="89"/>
-      <c r="G165" s="89"/>
-      <c r="H165" s="89"/>
-      <c r="I165" s="89"/>
-      <c r="J165" s="89"/>
-      <c r="K165" s="89"/>
-      <c r="L165" s="107"/>
-      <c r="M165" s="89"/>
-      <c r="N165" s="89"/>
-      <c r="O165" s="89"/>
-      <c r="P165" s="89"/>
-      <c r="Q165" s="89"/>
-      <c r="R165" s="89"/>
-      <c r="S165" s="89"/>
-      <c r="T165" s="89"/>
-      <c r="U165" s="89"/>
+      <c r="A165" s="85"/>
+      <c r="B165" s="85"/>
+      <c r="C165" s="85"/>
+      <c r="D165" s="85"/>
+      <c r="E165" s="85"/>
+      <c r="F165" s="85"/>
+      <c r="G165" s="85"/>
+      <c r="H165" s="85"/>
+      <c r="I165" s="85"/>
+      <c r="J165" s="85"/>
+      <c r="K165" s="85"/>
+      <c r="L165" s="97"/>
+      <c r="M165" s="85"/>
+      <c r="N165" s="85"/>
+      <c r="O165" s="85"/>
+      <c r="P165" s="85"/>
+      <c r="Q165" s="85"/>
+      <c r="R165" s="85"/>
+      <c r="S165" s="85"/>
+      <c r="T165" s="85"/>
+      <c r="U165" s="85"/>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A166" s="89"/>
-      <c r="B166" s="89"/>
-      <c r="C166" s="89"/>
-      <c r="D166" s="89"/>
-      <c r="E166" s="89"/>
-      <c r="F166" s="89"/>
-      <c r="G166" s="89"/>
-      <c r="H166" s="89"/>
-      <c r="I166" s="89"/>
-      <c r="J166" s="89"/>
-      <c r="K166" s="89"/>
-      <c r="L166" s="107"/>
-      <c r="M166" s="89"/>
-      <c r="N166" s="89"/>
-      <c r="O166" s="89"/>
-      <c r="P166" s="89"/>
-      <c r="Q166" s="89"/>
-      <c r="R166" s="89"/>
-      <c r="S166" s="89"/>
-      <c r="T166" s="89"/>
-      <c r="U166" s="89"/>
+      <c r="A166" s="85"/>
+      <c r="B166" s="85"/>
+      <c r="C166" s="85"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="85"/>
+      <c r="F166" s="85"/>
+      <c r="G166" s="85"/>
+      <c r="H166" s="85"/>
+      <c r="I166" s="85"/>
+      <c r="J166" s="85"/>
+      <c r="K166" s="85"/>
+      <c r="L166" s="97"/>
+      <c r="M166" s="85"/>
+      <c r="N166" s="85"/>
+      <c r="O166" s="85"/>
+      <c r="P166" s="85"/>
+      <c r="Q166" s="85"/>
+      <c r="R166" s="85"/>
+      <c r="S166" s="85"/>
+      <c r="T166" s="85"/>
+      <c r="U166" s="85"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A167" s="89"/>
-      <c r="B167" s="89"/>
-      <c r="C167" s="89"/>
-      <c r="D167" s="89"/>
-      <c r="E167" s="89"/>
-      <c r="F167" s="89"/>
-      <c r="G167" s="89"/>
-      <c r="H167" s="89"/>
-      <c r="I167" s="89"/>
-      <c r="J167" s="89"/>
-      <c r="K167" s="89"/>
-      <c r="L167" s="107"/>
-      <c r="M167" s="89"/>
-      <c r="N167" s="89"/>
-      <c r="O167" s="89"/>
-      <c r="P167" s="89"/>
-      <c r="Q167" s="89"/>
-      <c r="R167" s="89"/>
-      <c r="S167" s="89"/>
-      <c r="T167" s="89"/>
-      <c r="U167" s="89"/>
+      <c r="A167" s="85"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="85"/>
+      <c r="F167" s="85"/>
+      <c r="G167" s="85"/>
+      <c r="H167" s="85"/>
+      <c r="I167" s="85"/>
+      <c r="J167" s="85"/>
+      <c r="K167" s="85"/>
+      <c r="L167" s="97"/>
+      <c r="M167" s="85"/>
+      <c r="N167" s="85"/>
+      <c r="O167" s="85"/>
+      <c r="P167" s="85"/>
+      <c r="Q167" s="85"/>
+      <c r="R167" s="85"/>
+      <c r="S167" s="85"/>
+      <c r="T167" s="85"/>
+      <c r="U167" s="85"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A168" s="89"/>
-      <c r="B168" s="89"/>
-      <c r="C168" s="89"/>
-      <c r="D168" s="89"/>
-      <c r="E168" s="89"/>
-      <c r="F168" s="89"/>
-      <c r="G168" s="89"/>
-      <c r="H168" s="89"/>
-      <c r="I168" s="89"/>
-      <c r="J168" s="89"/>
-      <c r="K168" s="89"/>
-      <c r="L168" s="107"/>
-      <c r="M168" s="89"/>
-      <c r="N168" s="89"/>
-      <c r="O168" s="89"/>
-      <c r="P168" s="89"/>
-      <c r="Q168" s="89"/>
-      <c r="R168" s="89"/>
-      <c r="S168" s="89"/>
-      <c r="T168" s="89"/>
-      <c r="U168" s="89"/>
+      <c r="A168" s="85"/>
+      <c r="B168" s="85"/>
+      <c r="C168" s="85"/>
+      <c r="D168" s="85"/>
+      <c r="E168" s="85"/>
+      <c r="F168" s="85"/>
+      <c r="G168" s="85"/>
+      <c r="H168" s="85"/>
+      <c r="I168" s="85"/>
+      <c r="J168" s="85"/>
+      <c r="K168" s="85"/>
+      <c r="L168" s="97"/>
+      <c r="M168" s="85"/>
+      <c r="N168" s="85"/>
+      <c r="O168" s="85"/>
+      <c r="P168" s="85"/>
+      <c r="Q168" s="85"/>
+      <c r="R168" s="85"/>
+      <c r="S168" s="85"/>
+      <c r="T168" s="85"/>
+      <c r="U168" s="85"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A169" s="89"/>
-      <c r="B169" s="89"/>
-      <c r="C169" s="89"/>
-      <c r="D169" s="89"/>
-      <c r="E169" s="89"/>
-      <c r="F169" s="89"/>
-      <c r="G169" s="89"/>
-      <c r="H169" s="89"/>
-      <c r="I169" s="89"/>
-      <c r="J169" s="89"/>
-      <c r="K169" s="89"/>
-      <c r="L169" s="107"/>
-      <c r="M169" s="89"/>
-      <c r="N169" s="89"/>
-      <c r="O169" s="89"/>
-      <c r="P169" s="89"/>
-      <c r="Q169" s="89"/>
-      <c r="R169" s="89"/>
-      <c r="S169" s="89"/>
-      <c r="T169" s="89"/>
-      <c r="U169" s="89"/>
+      <c r="A169" s="85"/>
+      <c r="B169" s="85"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="85"/>
+      <c r="F169" s="85"/>
+      <c r="G169" s="85"/>
+      <c r="H169" s="85"/>
+      <c r="I169" s="85"/>
+      <c r="J169" s="85"/>
+      <c r="K169" s="85"/>
+      <c r="L169" s="97"/>
+      <c r="M169" s="85"/>
+      <c r="N169" s="85"/>
+      <c r="O169" s="85"/>
+      <c r="P169" s="85"/>
+      <c r="Q169" s="85"/>
+      <c r="R169" s="85"/>
+      <c r="S169" s="85"/>
+      <c r="T169" s="85"/>
+      <c r="U169" s="85"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A170" s="89"/>
-      <c r="B170" s="89"/>
-      <c r="C170" s="89"/>
-      <c r="D170" s="89"/>
-      <c r="E170" s="89"/>
-      <c r="F170" s="89"/>
-      <c r="G170" s="89"/>
-      <c r="H170" s="89"/>
-      <c r="I170" s="89"/>
-      <c r="J170" s="89"/>
-      <c r="K170" s="89"/>
-      <c r="L170" s="107"/>
-      <c r="M170" s="89"/>
-      <c r="N170" s="89"/>
-      <c r="O170" s="89"/>
-      <c r="P170" s="89"/>
-      <c r="Q170" s="89"/>
-      <c r="R170" s="89"/>
-      <c r="S170" s="89"/>
-      <c r="T170" s="89"/>
-      <c r="U170" s="89"/>
+      <c r="A170" s="85"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="85"/>
+      <c r="D170" s="85"/>
+      <c r="E170" s="85"/>
+      <c r="F170" s="85"/>
+      <c r="G170" s="85"/>
+      <c r="H170" s="85"/>
+      <c r="I170" s="85"/>
+      <c r="J170" s="85"/>
+      <c r="K170" s="85"/>
+      <c r="L170" s="97"/>
+      <c r="M170" s="85"/>
+      <c r="N170" s="85"/>
+      <c r="O170" s="85"/>
+      <c r="P170" s="85"/>
+      <c r="Q170" s="85"/>
+      <c r="R170" s="85"/>
+      <c r="S170" s="85"/>
+      <c r="T170" s="85"/>
+      <c r="U170" s="85"/>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A171" s="89"/>
-      <c r="B171" s="89"/>
-      <c r="C171" s="89"/>
-      <c r="D171" s="89"/>
-      <c r="E171" s="89"/>
-      <c r="F171" s="89"/>
-      <c r="G171" s="89"/>
-      <c r="H171" s="89"/>
-      <c r="I171" s="89"/>
-      <c r="J171" s="89"/>
-      <c r="K171" s="89"/>
-      <c r="L171" s="107"/>
-      <c r="M171" s="89"/>
-      <c r="N171" s="89"/>
-      <c r="O171" s="89"/>
-      <c r="P171" s="89"/>
-      <c r="Q171" s="89"/>
-      <c r="R171" s="89"/>
-      <c r="S171" s="89"/>
-      <c r="T171" s="89"/>
-      <c r="U171" s="89"/>
+      <c r="A171" s="85"/>
+      <c r="B171" s="85"/>
+      <c r="C171" s="85"/>
+      <c r="D171" s="85"/>
+      <c r="E171" s="85"/>
+      <c r="F171" s="85"/>
+      <c r="G171" s="85"/>
+      <c r="H171" s="85"/>
+      <c r="I171" s="85"/>
+      <c r="J171" s="85"/>
+      <c r="K171" s="85"/>
+      <c r="L171" s="97"/>
+      <c r="M171" s="85"/>
+      <c r="N171" s="85"/>
+      <c r="O171" s="85"/>
+      <c r="P171" s="85"/>
+      <c r="Q171" s="85"/>
+      <c r="R171" s="85"/>
+      <c r="S171" s="85"/>
+      <c r="T171" s="85"/>
+      <c r="U171" s="85"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A172" s="89"/>
-      <c r="B172" s="89"/>
-      <c r="C172" s="89"/>
-      <c r="D172" s="89"/>
-      <c r="E172" s="89"/>
-      <c r="F172" s="89"/>
-      <c r="G172" s="89"/>
-      <c r="H172" s="89"/>
-      <c r="I172" s="89"/>
-      <c r="J172" s="89"/>
-      <c r="K172" s="89"/>
-      <c r="L172" s="107"/>
-      <c r="M172" s="89"/>
-      <c r="N172" s="89"/>
-      <c r="O172" s="89"/>
-      <c r="P172" s="89"/>
-      <c r="Q172" s="89"/>
-      <c r="R172" s="89"/>
-      <c r="S172" s="89"/>
-      <c r="T172" s="89"/>
-      <c r="U172" s="89"/>
+      <c r="A172" s="85"/>
+      <c r="B172" s="85"/>
+      <c r="C172" s="85"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="85"/>
+      <c r="F172" s="85"/>
+      <c r="G172" s="85"/>
+      <c r="H172" s="85"/>
+      <c r="I172" s="85"/>
+      <c r="J172" s="85"/>
+      <c r="K172" s="85"/>
+      <c r="L172" s="97"/>
+      <c r="M172" s="85"/>
+      <c r="N172" s="85"/>
+      <c r="O172" s="85"/>
+      <c r="P172" s="85"/>
+      <c r="Q172" s="85"/>
+      <c r="R172" s="85"/>
+      <c r="S172" s="85"/>
+      <c r="T172" s="85"/>
+      <c r="U172" s="85"/>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A173" s="89"/>
-      <c r="B173" s="89"/>
-      <c r="C173" s="89"/>
-      <c r="D173" s="89"/>
-      <c r="E173" s="89"/>
-      <c r="F173" s="89"/>
-      <c r="G173" s="89"/>
-      <c r="H173" s="89"/>
-      <c r="I173" s="89"/>
-      <c r="J173" s="89"/>
-      <c r="K173" s="89"/>
-      <c r="L173" s="107"/>
-      <c r="M173" s="89"/>
-      <c r="N173" s="89"/>
-      <c r="O173" s="89"/>
-      <c r="P173" s="89"/>
-      <c r="Q173" s="89"/>
-      <c r="R173" s="89"/>
-      <c r="S173" s="89"/>
-      <c r="T173" s="89"/>
-      <c r="U173" s="89"/>
+      <c r="A173" s="85"/>
+      <c r="B173" s="85"/>
+      <c r="C173" s="85"/>
+      <c r="D173" s="85"/>
+      <c r="E173" s="85"/>
+      <c r="F173" s="85"/>
+      <c r="G173" s="85"/>
+      <c r="H173" s="85"/>
+      <c r="I173" s="85"/>
+      <c r="J173" s="85"/>
+      <c r="K173" s="85"/>
+      <c r="L173" s="97"/>
+      <c r="M173" s="85"/>
+      <c r="N173" s="85"/>
+      <c r="O173" s="85"/>
+      <c r="P173" s="85"/>
+      <c r="Q173" s="85"/>
+      <c r="R173" s="85"/>
+      <c r="S173" s="85"/>
+      <c r="T173" s="85"/>
+      <c r="U173" s="85"/>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A174" s="89"/>
-      <c r="B174" s="89"/>
-      <c r="C174" s="89"/>
-      <c r="D174" s="89"/>
-      <c r="E174" s="89"/>
-      <c r="F174" s="89"/>
-      <c r="G174" s="89"/>
-      <c r="H174" s="89"/>
-      <c r="I174" s="89"/>
-      <c r="J174" s="89"/>
-      <c r="K174" s="89"/>
-      <c r="L174" s="107"/>
-      <c r="M174" s="89"/>
-      <c r="N174" s="89"/>
-      <c r="O174" s="89"/>
-      <c r="P174" s="89"/>
-      <c r="Q174" s="89"/>
-      <c r="R174" s="89"/>
-      <c r="S174" s="89"/>
-      <c r="T174" s="89"/>
-      <c r="U174" s="89"/>
+      <c r="A174" s="85"/>
+      <c r="B174" s="85"/>
+      <c r="C174" s="85"/>
+      <c r="D174" s="85"/>
+      <c r="E174" s="85"/>
+      <c r="F174" s="85"/>
+      <c r="G174" s="85"/>
+      <c r="H174" s="85"/>
+      <c r="I174" s="85"/>
+      <c r="J174" s="85"/>
+      <c r="K174" s="85"/>
+      <c r="L174" s="97"/>
+      <c r="M174" s="85"/>
+      <c r="N174" s="85"/>
+      <c r="O174" s="85"/>
+      <c r="P174" s="85"/>
+      <c r="Q174" s="85"/>
+      <c r="R174" s="85"/>
+      <c r="S174" s="85"/>
+      <c r="T174" s="85"/>
+      <c r="U174" s="85"/>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A175" s="89"/>
-      <c r="B175" s="89"/>
-      <c r="C175" s="89"/>
-      <c r="D175" s="89"/>
-      <c r="E175" s="89"/>
-      <c r="F175" s="89"/>
-      <c r="G175" s="89"/>
-      <c r="H175" s="89"/>
-      <c r="I175" s="89"/>
-      <c r="J175" s="89"/>
-      <c r="K175" s="89"/>
-      <c r="L175" s="107"/>
-      <c r="M175" s="89"/>
-      <c r="N175" s="89"/>
-      <c r="O175" s="89"/>
-      <c r="P175" s="89"/>
-      <c r="Q175" s="89"/>
-      <c r="R175" s="89"/>
-      <c r="S175" s="89"/>
-      <c r="T175" s="89"/>
-      <c r="U175" s="89"/>
+      <c r="A175" s="85"/>
+      <c r="B175" s="85"/>
+      <c r="C175" s="85"/>
+      <c r="D175" s="85"/>
+      <c r="E175" s="85"/>
+      <c r="F175" s="85"/>
+      <c r="G175" s="85"/>
+      <c r="H175" s="85"/>
+      <c r="I175" s="85"/>
+      <c r="J175" s="85"/>
+      <c r="K175" s="85"/>
+      <c r="L175" s="97"/>
+      <c r="M175" s="85"/>
+      <c r="N175" s="85"/>
+      <c r="O175" s="85"/>
+      <c r="P175" s="85"/>
+      <c r="Q175" s="85"/>
+      <c r="R175" s="85"/>
+      <c r="S175" s="85"/>
+      <c r="T175" s="85"/>
+      <c r="U175" s="85"/>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A176" s="89"/>
-      <c r="B176" s="89"/>
-      <c r="C176" s="89"/>
-      <c r="D176" s="89"/>
-      <c r="E176" s="89"/>
-      <c r="F176" s="89"/>
-      <c r="G176" s="89"/>
-      <c r="H176" s="89"/>
-      <c r="I176" s="89"/>
-      <c r="J176" s="89"/>
-      <c r="K176" s="89"/>
-      <c r="L176" s="107"/>
-      <c r="M176" s="89"/>
-      <c r="N176" s="89"/>
-      <c r="O176" s="89"/>
-      <c r="P176" s="89"/>
-      <c r="Q176" s="89"/>
-      <c r="R176" s="89"/>
-      <c r="S176" s="89"/>
-      <c r="T176" s="89"/>
-      <c r="U176" s="89"/>
+      <c r="A176" s="85"/>
+      <c r="B176" s="85"/>
+      <c r="C176" s="85"/>
+      <c r="D176" s="85"/>
+      <c r="E176" s="85"/>
+      <c r="F176" s="85"/>
+      <c r="G176" s="85"/>
+      <c r="H176" s="85"/>
+      <c r="I176" s="85"/>
+      <c r="J176" s="85"/>
+      <c r="K176" s="85"/>
+      <c r="L176" s="97"/>
+      <c r="M176" s="85"/>
+      <c r="N176" s="85"/>
+      <c r="O176" s="85"/>
+      <c r="P176" s="85"/>
+      <c r="Q176" s="85"/>
+      <c r="R176" s="85"/>
+      <c r="S176" s="85"/>
+      <c r="T176" s="85"/>
+      <c r="U176" s="85"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A177" s="85"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
+      <c r="K177" s="85"/>
+      <c r="L177" s="97"/>
+      <c r="M177" s="85"/>
+      <c r="N177" s="85"/>
+      <c r="O177" s="85"/>
+      <c r="P177" s="85"/>
+      <c r="Q177" s="85"/>
+      <c r="R177" s="85"/>
+      <c r="S177" s="85"/>
+      <c r="T177" s="85"/>
+      <c r="U177" s="85"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A178" s="85"/>
+      <c r="B178" s="85"/>
+      <c r="C178" s="85"/>
+      <c r="D178" s="85"/>
+      <c r="E178" s="85"/>
+      <c r="F178" s="85"/>
+      <c r="G178" s="85"/>
+      <c r="H178" s="85"/>
+      <c r="I178" s="85"/>
+      <c r="J178" s="85"/>
+      <c r="K178" s="85"/>
+      <c r="L178" s="97"/>
+      <c r="M178" s="85"/>
+      <c r="N178" s="85"/>
+      <c r="O178" s="85"/>
+      <c r="P178" s="85"/>
+      <c r="Q178" s="85"/>
+      <c r="R178" s="85"/>
+      <c r="S178" s="85"/>
+      <c r="T178" s="85"/>
+      <c r="U178" s="85"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A179" s="85"/>
+      <c r="B179" s="85"/>
+      <c r="C179" s="85"/>
+      <c r="D179" s="85"/>
+      <c r="E179" s="85"/>
+      <c r="F179" s="85"/>
+      <c r="G179" s="85"/>
+      <c r="H179" s="85"/>
+      <c r="I179" s="85"/>
+      <c r="J179" s="85"/>
+      <c r="K179" s="85"/>
+      <c r="L179" s="97"/>
+      <c r="M179" s="85"/>
+      <c r="N179" s="85"/>
+      <c r="O179" s="85"/>
+      <c r="P179" s="85"/>
+      <c r="Q179" s="85"/>
+      <c r="R179" s="85"/>
+      <c r="S179" s="85"/>
+      <c r="T179" s="85"/>
+      <c r="U179" s="85"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A180" s="85"/>
+      <c r="B180" s="85"/>
+      <c r="C180" s="85"/>
+      <c r="D180" s="85"/>
+      <c r="E180" s="85"/>
+      <c r="F180" s="85"/>
+      <c r="G180" s="85"/>
+      <c r="H180" s="85"/>
+      <c r="I180" s="85"/>
+      <c r="J180" s="85"/>
+      <c r="K180" s="85"/>
+      <c r="L180" s="97"/>
+      <c r="M180" s="85"/>
+      <c r="N180" s="85"/>
+      <c r="O180" s="85"/>
+      <c r="P180" s="85"/>
+      <c r="Q180" s="85"/>
+      <c r="R180" s="85"/>
+      <c r="S180" s="85"/>
+      <c r="T180" s="85"/>
+      <c r="U180" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/Product & Sprint Backlog Doc.xlsx
+++ b/Product & Sprint Backlog Doc.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F825F47-AE27-4B6A-B172-11A34F436A9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="818" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="818" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BneWorkBookProperties" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -27,18 +21,18 @@
     <definedName name="Subject">#REF!</definedName>
     <definedName name="Title">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Russell Pitts</author>
     <author>SueEllen Strapp</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -293,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -306,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -319,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -338,14 +332,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Russell Pitts</author>
     <author>SueEllen Strapp</author>
     <author>Theresa Merenkov</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{0853783A-9F1B-4FC8-87B8-BABDBEBABDE3}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{43FD8C91-4305-4918-9032-D8D259A82CE9}">
+    <comment ref="B3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -371,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{9BF95FDE-FA67-4B66-AC86-E120B3D638CD}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5A6DADCB-F7F4-4B70-AF08-01279199F523}">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{4942B4C8-DCF8-452A-B726-6F005C3C46AD}">
+    <comment ref="F3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -410,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{C8372126-A86E-459D-9E0C-57631DB5FBC5}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="2" shapeId="0" xr:uid="{9548BA27-34C0-4F72-83C5-96739D112E0D}">
+    <comment ref="H3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -436,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="2" shapeId="0" xr:uid="{E9ACDD2A-6B1D-4FE9-A421-EB54312BF055}">
+    <comment ref="I3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -454,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="2" shapeId="0" xr:uid="{78BF6D20-CF7C-46F5-A1DF-DE1BEB86DFA2}">
+    <comment ref="J3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -468,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{77AFC1EB-F1EA-43A8-B8F8-E09A6B18284D}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{868BD819-B5D4-4FDD-8959-E1773726D207}">
+    <comment ref="M3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -494,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{5DC465AF-6375-4214-B60D-8166C7330B45}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -517,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{D2D91F32-6F55-472B-982B-0599D477AF98}">
+    <comment ref="O3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -530,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{075D1469-786C-4617-BE8B-A76F382D70E9}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -548,14 +542,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Russell Pitts</author>
     <author>SueEllen Strapp</author>
     <author>Theresa Merenkov</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -581,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -594,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="F3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -620,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="H3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -646,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="I3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -664,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="J3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -678,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -691,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="M3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -704,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -727,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="O3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -740,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -758,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="154">
   <si>
     <t>Type</t>
   </si>
@@ -1174,9 +1168,6 @@
     <t>Show Balance method which helps users to check the balance in their wallet account.</t>
   </si>
   <si>
-    <t xml:space="preserve">createprofile method which will take the user data entered from user in frontend </t>
-  </si>
-  <si>
     <t>showprofile method which will show the profiledata from user</t>
   </si>
   <si>
@@ -1217,14 +1208,20 @@
   </si>
   <si>
     <t>Work in Progres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showallusers method which will take the user data entered from user in frontend </t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1463,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,7 +1607,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,9 +1726,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,7 +1837,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1910,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7085E66D-E43F-4F13-9B9D-F7ED1E93AD9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7085E66D-E43F-4F13-9B9D-F7ED1E93AD9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +1998,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2148,26 +2142,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2200,23 +2177,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2392,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2407,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
@@ -5290,7 +5250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EACBC0D-5E78-4C24-A426-2AF8BCD8D4BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
@@ -6370,11 +6330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6448,7 +6408,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>26</v>
@@ -6494,7 +6454,7 @@
       <c r="E4" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="103">
+      <c r="F4" s="102">
         <v>43875</v>
       </c>
       <c r="G4" s="99">
@@ -6526,7 +6486,7 @@
       <c r="E5" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="103">
+      <c r="F5" s="102">
         <v>43875</v>
       </c>
       <c r="G5" s="99">
@@ -6558,7 +6518,7 @@
       <c r="E6" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="103">
+      <c r="F6" s="102">
         <v>43875</v>
       </c>
       <c r="G6" s="99">
@@ -6590,7 +6550,7 @@
       <c r="E7" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="103">
+      <c r="F7" s="102">
         <v>43875</v>
       </c>
       <c r="G7" s="99">
@@ -6622,7 +6582,7 @@
       <c r="E8" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="102">
         <v>43875</v>
       </c>
       <c r="G8" s="99">
@@ -6654,7 +6614,7 @@
       <c r="E9" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="103">
+      <c r="F9" s="102">
         <v>43875</v>
       </c>
       <c r="G9" s="99">
@@ -6686,7 +6646,7 @@
       <c r="E10" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="102">
         <v>43875</v>
       </c>
       <c r="G10" s="99">
@@ -6718,7 +6678,7 @@
       <c r="E11" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="102">
         <v>43875</v>
       </c>
       <c r="G11" s="99">
@@ -6750,7 +6710,7 @@
       <c r="E12" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="102">
         <v>43935</v>
       </c>
       <c r="G12" s="99">
@@ -6804,7 +6764,7 @@
       <c r="E14" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="102">
         <v>43938</v>
       </c>
       <c r="G14" s="99">
@@ -6836,7 +6796,7 @@
       <c r="E15" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="103">
+      <c r="F15" s="102">
         <v>43938</v>
       </c>
       <c r="G15" s="99">
@@ -6868,7 +6828,7 @@
       <c r="E16" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="103">
+      <c r="F16" s="102">
         <v>43938</v>
       </c>
       <c r="G16" s="99">
@@ -6904,7 +6864,7 @@
       <c r="E17" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="103">
+      <c r="F17" s="102">
         <v>43938</v>
       </c>
       <c r="G17" s="99">
@@ -6938,7 +6898,7 @@
       <c r="E18" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F18" s="102">
         <v>43938</v>
       </c>
       <c r="G18" s="99">
@@ -6972,7 +6932,7 @@
       <c r="E19" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="103">
+      <c r="F19" s="102">
         <v>43938</v>
       </c>
       <c r="G19" s="99">
@@ -7010,7 +6970,7 @@
       <c r="E20" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="103">
+      <c r="F20" s="102">
         <v>43938</v>
       </c>
       <c r="G20" s="99">
@@ -7044,7 +7004,7 @@
       <c r="E21" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="103">
+      <c r="F21" s="102">
         <v>43941</v>
       </c>
       <c r="G21" s="99">
@@ -7078,7 +7038,7 @@
       <c r="E22" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="103">
+      <c r="F22" s="102">
         <v>43941</v>
       </c>
       <c r="G22" s="99">
@@ -7116,7 +7076,7 @@
       <c r="E23" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="102">
         <v>43938</v>
       </c>
       <c r="G23" s="99">
@@ -7150,7 +7110,7 @@
       <c r="E24" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="103">
+      <c r="F24" s="102">
         <v>43938</v>
       </c>
       <c r="G24" s="99">
@@ -7184,7 +7144,7 @@
       <c r="E25" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="103">
+      <c r="F25" s="102">
         <v>43938</v>
       </c>
       <c r="G25" s="99">
@@ -7218,7 +7178,7 @@
       <c r="E26" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="103">
+      <c r="F26" s="102">
         <v>43938</v>
       </c>
       <c r="G26" s="99">
@@ -7256,7 +7216,7 @@
       <c r="E27" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="103">
+      <c r="F27" s="102">
         <v>43942</v>
       </c>
       <c r="G27" s="99">
@@ -7290,7 +7250,7 @@
       <c r="E28" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="103">
+      <c r="F28" s="102">
         <v>43942</v>
       </c>
       <c r="G28" s="99">
@@ -7324,7 +7284,7 @@
       <c r="E29" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="102">
         <v>43942</v>
       </c>
       <c r="G29" s="99">
@@ -7358,7 +7318,7 @@
       <c r="E30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="103">
+      <c r="F30" s="102">
         <v>43942</v>
       </c>
       <c r="G30" s="99">
@@ -7391,12 +7351,12 @@
         <v>1</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="103">
+      <c r="F31" s="102">
         <v>43945</v>
       </c>
       <c r="G31" s="99">
@@ -7406,7 +7366,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J31" s="99"/>
       <c r="K31" s="89"/>
@@ -7423,12 +7383,12 @@
         <v>2</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="103">
+      <c r="F32" s="102">
         <v>43945</v>
       </c>
       <c r="G32" s="99">
@@ -7438,7 +7398,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J32" s="99"/>
       <c r="K32" s="89"/>
@@ -7455,12 +7415,12 @@
         <v>3</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="103">
+      <c r="F33" s="102">
         <v>43945</v>
       </c>
       <c r="G33" s="99">
@@ -7470,7 +7430,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J33" s="99"/>
       <c r="K33" s="89"/>
@@ -7487,12 +7447,12 @@
         <v>4</v>
       </c>
       <c r="D34" s="87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="103">
+      <c r="F34" s="102">
         <v>43945</v>
       </c>
       <c r="G34" s="99">
@@ -7502,7 +7462,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J34" s="99"/>
       <c r="K34" s="89"/>
@@ -7528,7 +7488,7 @@
       <c r="E35" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="103">
+      <c r="F35" s="102">
         <v>43941</v>
       </c>
       <c r="G35" s="99">
@@ -7560,7 +7520,7 @@
       <c r="E36" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="103">
+      <c r="F36" s="102">
         <v>43941</v>
       </c>
       <c r="G36" s="99">
@@ -7592,7 +7552,7 @@
       <c r="E37" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="103">
+      <c r="F37" s="102">
         <v>43942</v>
       </c>
       <c r="G37" s="99">
@@ -7624,7 +7584,7 @@
       <c r="E38" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="103">
+      <c r="F38" s="102">
         <v>43942</v>
       </c>
       <c r="G38" s="99">
@@ -7649,7 +7609,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="89">
         <v>1</v>
@@ -7660,7 +7620,7 @@
       <c r="E39" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="103">
+      <c r="F39" s="102">
         <v>43941</v>
       </c>
       <c r="G39" s="99">
@@ -7692,7 +7652,7 @@
       <c r="E40" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="103">
+      <c r="F40" s="102">
         <v>43943</v>
       </c>
       <c r="G40" s="99">
@@ -7724,7 +7684,7 @@
       <c r="E41" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="103">
+      <c r="F41" s="102">
         <v>43943</v>
       </c>
       <c r="G41" s="99">
@@ -7756,7 +7716,7 @@
       <c r="E42" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F42" s="103">
+      <c r="F42" s="102">
         <v>43943</v>
       </c>
       <c r="G42" s="99">
@@ -7781,7 +7741,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="89">
         <v>1</v>
@@ -7792,7 +7752,7 @@
       <c r="E43" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F43" s="103">
+      <c r="F43" s="102">
         <v>43941</v>
       </c>
       <c r="G43" s="99">
@@ -7824,7 +7784,7 @@
       <c r="E44" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="102">
         <v>43944</v>
       </c>
       <c r="G44" s="99">
@@ -7856,7 +7816,7 @@
       <c r="E45" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="102">
         <v>43944</v>
       </c>
       <c r="G45" s="99">
@@ -7888,7 +7848,7 @@
       <c r="E46" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="102">
         <v>43945</v>
       </c>
       <c r="G46" s="99">
@@ -7919,18 +7879,23 @@
         <v>1</v>
       </c>
       <c r="D47" s="87" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E47" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="103">
+      <c r="F47" s="102">
         <v>43941</v>
       </c>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="101"/>
+      <c r="G47" s="99">
+        <v>3</v>
+      </c>
+      <c r="H47" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I47" s="99" t="s">
+        <v>64</v>
+      </c>
       <c r="K47" s="69"/>
       <c r="L47" s="77"/>
       <c r="M47" s="10"/>
@@ -7950,13 +7915,18 @@
       <c r="E48" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="103">
+      <c r="F48" s="102">
         <v>43942</v>
       </c>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
+      <c r="G48" s="99">
+        <v>2</v>
+      </c>
+      <c r="H48" s="99">
+        <v>2</v>
+      </c>
+      <c r="I48" s="99" t="s">
+        <v>64</v>
+      </c>
       <c r="K48" s="61"/>
       <c r="L48" s="77"/>
       <c r="M48" s="10"/>
@@ -7976,13 +7946,18 @@
       <c r="E49" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="103">
+      <c r="F49" s="102">
         <v>43942</v>
       </c>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
+      <c r="G49" s="99">
+        <v>2</v>
+      </c>
+      <c r="H49" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I49" s="99" t="s">
+        <v>64</v>
+      </c>
       <c r="K49" s="61"/>
       <c r="L49" s="78"/>
       <c r="M49" s="68"/>
@@ -8002,13 +7977,18 @@
       <c r="E50" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="103">
+      <c r="F50" s="102">
         <v>43943</v>
       </c>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
+      <c r="G50" s="99">
+        <v>1</v>
+      </c>
+      <c r="H50" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I50" s="99" t="s">
+        <v>64</v>
+      </c>
       <c r="K50" s="61"/>
       <c r="L50" s="78"/>
       <c r="M50" s="68"/>
@@ -8027,18 +8007,26 @@
         <v>1</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E51" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="103">
+      <c r="F51" s="102">
         <v>43943</v>
       </c>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
+      <c r="G51" s="99">
+        <v>5</v>
+      </c>
+      <c r="H51" s="99">
+        <v>7</v>
+      </c>
+      <c r="I51" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="99">
+        <v>15</v>
+      </c>
       <c r="K51" s="61"/>
       <c r="L51" s="78"/>
       <c r="M51" s="68"/>
@@ -8058,13 +8046,21 @@
       <c r="E52" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="103">
+      <c r="F52" s="102">
         <v>43944</v>
       </c>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
+      <c r="G52" s="99">
+        <v>2</v>
+      </c>
+      <c r="H52" s="99">
+        <v>3</v>
+      </c>
+      <c r="I52" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="99">
+        <v>5</v>
+      </c>
       <c r="K52" s="61"/>
       <c r="L52" s="79"/>
       <c r="M52" s="71"/>
@@ -8084,13 +8080,21 @@
       <c r="E53" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="103">
+      <c r="F53" s="102">
         <v>43945</v>
       </c>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
+      <c r="G53" s="99">
+        <v>3</v>
+      </c>
+      <c r="H53" s="99">
+        <v>3</v>
+      </c>
+      <c r="I53" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="99">
+        <v>6</v>
+      </c>
       <c r="K53" s="61"/>
       <c r="L53" s="80"/>
       <c r="M53" s="11"/>
@@ -8110,13 +8114,21 @@
       <c r="E54" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="103">
+      <c r="F54" s="102">
         <v>43945</v>
       </c>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
+      <c r="G54" s="99">
+        <v>2</v>
+      </c>
+      <c r="H54" s="99">
+        <v>4</v>
+      </c>
+      <c r="I54" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="99">
+        <v>6</v>
+      </c>
       <c r="K54" s="61"/>
       <c r="L54" s="77"/>
       <c r="M54" s="10"/>
@@ -8129,24 +8141,32 @@
         <v>13</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="89">
         <v>1</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E55" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="103">
+      <c r="F55" s="102">
         <v>43941</v>
       </c>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
+      <c r="G55" s="99">
+        <v>3</v>
+      </c>
+      <c r="H55" s="99">
+        <v>2</v>
+      </c>
+      <c r="I55" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="99">
+        <v>2</v>
+      </c>
       <c r="K55" s="61"/>
       <c r="L55" s="77"/>
       <c r="M55" s="10"/>
@@ -8166,13 +8186,21 @@
       <c r="E56" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="103">
+      <c r="F56" s="102">
         <v>43941</v>
       </c>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
+      <c r="G56" s="99">
+        <v>2</v>
+      </c>
+      <c r="H56" s="99">
+        <v>3</v>
+      </c>
+      <c r="I56" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="99">
+        <v>3</v>
+      </c>
       <c r="K56" s="61"/>
       <c r="L56" s="77"/>
       <c r="M56" s="10"/>
@@ -8192,13 +8220,21 @@
       <c r="E57" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="103">
+      <c r="F57" s="102">
         <v>43942</v>
       </c>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
+      <c r="G57" s="99">
+        <v>3</v>
+      </c>
+      <c r="H57" s="99">
+        <v>4</v>
+      </c>
+      <c r="I57" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J57" s="99">
+        <v>4</v>
+      </c>
       <c r="K57" s="61"/>
       <c r="L57" s="77"/>
       <c r="M57" s="10"/>
@@ -8218,13 +8254,21 @@
       <c r="E58" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="103">
+      <c r="F58" s="102">
         <v>43942</v>
       </c>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
+      <c r="G58" s="99">
+        <v>3</v>
+      </c>
+      <c r="H58" s="99">
+        <v>4</v>
+      </c>
+      <c r="I58" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="J58" s="99">
+        <v>5</v>
+      </c>
       <c r="K58" s="61"/>
       <c r="L58" s="77"/>
       <c r="M58" s="10"/>
@@ -8237,7 +8281,7 @@
         <v>14</v>
       </c>
       <c r="B59" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="89">
         <v>1</v>
@@ -8248,12 +8292,18 @@
       <c r="E59" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="103">
+      <c r="F59" s="102">
         <v>43941</v>
       </c>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="99"/>
+      <c r="G59" s="99">
+        <v>3</v>
+      </c>
+      <c r="H59" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I59" s="99" t="s">
+        <v>64</v>
+      </c>
       <c r="J59" s="99"/>
       <c r="K59" s="61"/>
       <c r="L59" s="77"/>
@@ -8274,12 +8324,18 @@
       <c r="E60" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="103">
+      <c r="F60" s="102">
         <v>43944</v>
       </c>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
+      <c r="G60" s="99">
+        <v>2</v>
+      </c>
+      <c r="H60" s="99">
+        <v>2</v>
+      </c>
+      <c r="I60" s="99" t="s">
+        <v>64</v>
+      </c>
       <c r="J60" s="99"/>
       <c r="K60" s="61"/>
       <c r="L60" s="77"/>
@@ -8300,12 +8356,18 @@
       <c r="E61" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="103">
+      <c r="F61" s="102">
         <v>43944</v>
       </c>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
+      <c r="G61" s="99">
+        <v>2</v>
+      </c>
+      <c r="H61" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I61" s="99" t="s">
+        <v>64</v>
+      </c>
       <c r="J61" s="99"/>
       <c r="K61" s="61"/>
       <c r="L61" s="77"/>
@@ -8326,12 +8388,18 @@
       <c r="E62" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="103">
+      <c r="F62" s="102">
         <v>43945</v>
       </c>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
+      <c r="G62" s="99">
+        <v>1</v>
+      </c>
+      <c r="H62" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I62" s="99" t="s">
+        <v>64</v>
+      </c>
       <c r="J62" s="99"/>
       <c r="K62" s="61"/>
       <c r="L62" s="77"/>
@@ -8345,23 +8413,29 @@
         <v>15</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="89">
         <v>1</v>
       </c>
       <c r="D63" s="87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E63" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="103">
+      <c r="F63" s="102">
         <v>43944</v>
       </c>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
+      <c r="G63" s="99">
+        <v>3</v>
+      </c>
+      <c r="H63" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I63" s="99" t="s">
+        <v>153</v>
+      </c>
       <c r="J63" s="99"/>
       <c r="K63" s="61"/>
       <c r="L63" s="77"/>
@@ -8372,7 +8446,7 @@
     </row>
     <row r="64" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="89"/>
-      <c r="B64" s="102"/>
+      <c r="B64" s="101"/>
       <c r="C64" s="89">
         <v>2</v>
       </c>
@@ -8382,13 +8456,19 @@
       <c r="E64" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="103">
+      <c r="F64" s="102">
         <v>43944</v>
       </c>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="102"/>
+      <c r="G64" s="99">
+        <v>2</v>
+      </c>
+      <c r="H64" s="99">
+        <v>2</v>
+      </c>
+      <c r="I64" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="J64" s="101"/>
       <c r="K64" s="61"/>
       <c r="L64" s="77"/>
       <c r="M64" s="10"/>
@@ -8398,7 +8478,7 @@
     </row>
     <row r="65" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="89"/>
-      <c r="B65" s="102"/>
+      <c r="B65" s="101"/>
       <c r="C65" s="89">
         <v>3</v>
       </c>
@@ -8408,13 +8488,19 @@
       <c r="E65" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="103">
+      <c r="F65" s="102">
         <v>43945</v>
       </c>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="102"/>
+      <c r="G65" s="99">
+        <v>2</v>
+      </c>
+      <c r="H65" s="99">
+        <v>1</v>
+      </c>
+      <c r="I65" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" s="101"/>
       <c r="K65" s="61"/>
       <c r="L65" s="77"/>
       <c r="M65" s="10"/>
@@ -8424,7 +8510,7 @@
     </row>
     <row r="66" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="89"/>
-      <c r="B66" s="102"/>
+      <c r="B66" s="101"/>
       <c r="C66" s="89">
         <v>4</v>
       </c>
@@ -8434,13 +8520,19 @@
       <c r="E66" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="103">
+      <c r="F66" s="102">
         <v>43945</v>
       </c>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="102"/>
+      <c r="G66" s="99">
+        <v>1</v>
+      </c>
+      <c r="H66" s="99">
+        <v>1.5</v>
+      </c>
+      <c r="I66" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" s="101"/>
       <c r="K66" s="61"/>
       <c r="L66" s="77"/>
       <c r="M66" s="10"/>

--- a/Product & Sprint Backlog Doc.xlsx
+++ b/Product & Sprint Backlog Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AISHWARYA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B49C2B-06F8-40F3-86AC-959CEE6432FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B6D3B-CD83-40A3-B2FF-18F956D9755C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="818" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BneWorkBookProperties" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -758,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="198">
   <si>
     <t>Type</t>
   </si>
@@ -1325,6 +1325,33 @@
   </si>
   <si>
     <t>OnlineWallet: 013</t>
+  </si>
+  <si>
+    <t>OnlineWallet : 021</t>
+  </si>
+  <si>
+    <t>Designing Add Money page which helps user to add money in his/her wallet using his account Id</t>
+  </si>
+  <si>
+    <t>3.5 hrs</t>
+  </si>
+  <si>
+    <t>Add Money components send the Id and amount to the service</t>
+  </si>
+  <si>
+    <t>Service fetches the data through wireframing from backend</t>
+  </si>
+  <si>
+    <t>2.5 hrs</t>
+  </si>
+  <si>
+    <t>OnlineWallet : 022</t>
+  </si>
+  <si>
+    <t>Designing TransferMoney page which takes senders Id and receivers Id and sends money from former to latter.</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1840,6 +1867,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2502,7 +2566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2518,31 +2582,31 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="22" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="50" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="22" customWidth="1"/>
+    <col min="7" max="8" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5546875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" style="50" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="21" customWidth="1"/>
     <col min="14" max="14" width="18" style="55" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="55" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="55" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="22" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="27" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="27" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="22"/>
-    <col min="22" max="16384" width="9.140625" style="27"/>
+    <col min="18" max="18" width="18.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" style="27" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="22"/>
+    <col min="22" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2563,7 +2627,7 @@
       <c r="R1" s="10"/>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -2585,7 +2649,7 @@
       <c r="S2" s="34"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2648,7 +2712,7 @@
       </c>
       <c r="U3" s="28"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -2699,7 +2763,7 @@
       <c r="T4" s="25"/>
       <c r="U4" s="28"/>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24">
         <v>2</v>
@@ -2744,7 +2808,7 @@
       <c r="T5" s="25"/>
       <c r="U5" s="28"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>2</v>
       </c>
@@ -2795,7 +2859,7 @@
       <c r="T6" s="25"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>3</v>
       </c>
@@ -2846,7 +2910,7 @@
       <c r="T7" s="25"/>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>4</v>
       </c>
@@ -2897,7 +2961,7 @@
       <c r="T8" s="25"/>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -2948,7 +3012,7 @@
       <c r="T9" s="25"/>
       <c r="U9" s="28"/>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>6</v>
       </c>
@@ -2995,7 +3059,7 @@
       <c r="T10" s="25"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>7</v>
       </c>
@@ -3042,7 +3106,7 @@
       <c r="T11" s="25"/>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>8</v>
       </c>
@@ -3089,7 +3153,7 @@
       <c r="T12" s="25"/>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>9</v>
       </c>
@@ -3136,7 +3200,7 @@
       <c r="T13" s="25"/>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>10</v>
       </c>
@@ -3183,7 +3247,7 @@
       <c r="T14" s="25"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>12</v>
       </c>
@@ -3230,7 +3294,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>71</v>
       </c>
@@ -3256,7 +3320,7 @@
       <c r="S16" s="60"/>
       <c r="T16" s="60"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>15</v>
       </c>
@@ -3305,7 +3369,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="37"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24">
         <v>17</v>
@@ -3346,7 +3410,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="37"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>16</v>
       </c>
@@ -3393,7 +3457,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="37"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>17</v>
       </c>
@@ -3440,7 +3504,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="37"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>19</v>
       </c>
@@ -3487,7 +3551,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="37"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>20</v>
       </c>
@@ -3534,7 +3598,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="37"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>21</v>
       </c>
@@ -3581,7 +3645,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="37"/>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>22</v>
       </c>
@@ -3628,7 +3692,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="37"/>
     </row>
-    <row r="25" spans="1:21" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>23</v>
       </c>
@@ -3675,7 +3739,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="37"/>
     </row>
-    <row r="26" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>24</v>
       </c>
@@ -3722,7 +3786,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="37"/>
     </row>
-    <row r="27" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>25</v>
       </c>
@@ -3769,7 +3833,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="37"/>
     </row>
-    <row r="28" spans="1:21" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>26</v>
       </c>
@@ -3816,7 +3880,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="37"/>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>27</v>
       </c>
@@ -3863,7 +3927,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="37"/>
     </row>
-    <row r="30" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>28</v>
       </c>
@@ -3890,7 +3954,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="37"/>
     </row>
-    <row r="31" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>29</v>
       </c>
@@ -3917,7 +3981,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="37"/>
     </row>
-    <row r="32" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>30</v>
       </c>
@@ -3944,12 +4008,12 @@
       <c r="T32" s="4"/>
       <c r="U32" s="37"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B33" s="24">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>31</v>
       </c>
@@ -3976,7 +4040,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>32</v>
       </c>
@@ -4003,7 +4067,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="37"/>
     </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>33</v>
       </c>
@@ -4030,7 +4094,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="37"/>
     </row>
-    <row r="37" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>34</v>
       </c>
@@ -4057,7 +4121,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="37"/>
     </row>
-    <row r="38" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>35</v>
       </c>
@@ -4084,7 +4148,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="37"/>
     </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>36</v>
       </c>
@@ -4111,7 +4175,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="37"/>
     </row>
-    <row r="40" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>37</v>
       </c>
@@ -4138,7 +4202,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="37"/>
     </row>
-    <row r="41" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>38</v>
       </c>
@@ -4165,7 +4229,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="37"/>
     </row>
-    <row r="42" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>39</v>
       </c>
@@ -4192,7 +4256,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="37"/>
     </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>40</v>
       </c>
@@ -4219,7 +4283,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="37"/>
     </row>
-    <row r="44" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>41</v>
       </c>
@@ -4246,7 +4310,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="37"/>
     </row>
-    <row r="45" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>42</v>
       </c>
@@ -4273,7 +4337,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="37"/>
     </row>
-    <row r="46" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>43</v>
       </c>
@@ -4300,7 +4364,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="37"/>
     </row>
-    <row r="47" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44</v>
       </c>
@@ -4327,7 +4391,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="37"/>
     </row>
-    <row r="48" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>45</v>
       </c>
@@ -4354,7 +4418,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="37"/>
     </row>
-    <row r="49" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>46</v>
       </c>
@@ -4381,7 +4445,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="37"/>
     </row>
-    <row r="50" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
@@ -4404,7 +4468,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="37"/>
     </row>
-    <row r="51" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
@@ -4427,7 +4491,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="37"/>
     </row>
-    <row r="52" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
@@ -4450,7 +4514,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="37"/>
     </row>
-    <row r="53" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
@@ -4473,7 +4537,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="37"/>
     </row>
-    <row r="54" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="45"/>
@@ -4489,7 +4553,7 @@
       <c r="O54" s="47"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="45"/>
@@ -4501,7 +4565,7 @@
       <c r="O55" s="47"/>
       <c r="P55" s="15"/>
     </row>
-    <row r="56" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="45"/>
@@ -4513,7 +4577,7 @@
       <c r="O56" s="47"/>
       <c r="P56" s="15"/>
     </row>
-    <row r="57" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="45"/>
@@ -4529,7 +4593,7 @@
       <c r="O57" s="47"/>
       <c r="P57" s="15"/>
     </row>
-    <row r="58" spans="1:21" s="9" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" s="9" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49"/>
       <c r="B58" s="49"/>
       <c r="C58" s="45"/>
@@ -4549,7 +4613,7 @@
       <c r="S58" s="1"/>
       <c r="U58" s="37"/>
     </row>
-    <row r="59" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="49"/>
       <c r="B59" s="49"/>
       <c r="C59" s="45"/>
@@ -4569,7 +4633,7 @@
       <c r="S59" s="1"/>
       <c r="U59" s="37"/>
     </row>
-    <row r="60" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
       <c r="B60" s="49"/>
       <c r="C60" s="45"/>
@@ -4589,7 +4653,7 @@
       <c r="S60" s="1"/>
       <c r="U60" s="37"/>
     </row>
-    <row r="61" spans="1:21" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49"/>
       <c r="B61" s="49"/>
       <c r="C61" s="45"/>
@@ -4609,7 +4673,7 @@
       <c r="S61" s="1"/>
       <c r="U61" s="37"/>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49"/>
       <c r="B62" s="49"/>
       <c r="C62" s="45"/>
@@ -4629,7 +4693,7 @@
       <c r="S62" s="1"/>
       <c r="U62" s="37"/>
     </row>
-    <row r="63" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="C63" s="45"/>
@@ -4649,7 +4713,7 @@
       <c r="S63" s="1"/>
       <c r="U63" s="37"/>
     </row>
-    <row r="64" spans="1:21" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49"/>
       <c r="B64" s="49"/>
       <c r="C64" s="45"/>
@@ -4669,7 +4733,7 @@
       <c r="S64" s="1"/>
       <c r="U64" s="37"/>
     </row>
-    <row r="65" spans="1:21" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49"/>
       <c r="B65" s="49"/>
       <c r="C65" s="45"/>
@@ -4689,7 +4753,7 @@
       <c r="S65" s="1"/>
       <c r="U65" s="37"/>
     </row>
-    <row r="66" spans="1:21" s="9" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" s="9" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
       <c r="B66" s="49"/>
       <c r="C66" s="45"/>
@@ -4709,7 +4773,7 @@
       <c r="S66" s="1"/>
       <c r="U66" s="37"/>
     </row>
-    <row r="67" spans="1:21" s="9" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" s="9" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
       <c r="B67" s="49"/>
       <c r="C67" s="45"/>
@@ -4729,7 +4793,7 @@
       <c r="S67" s="1"/>
       <c r="U67" s="37"/>
     </row>
-    <row r="68" spans="1:21" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49"/>
       <c r="B68" s="49"/>
       <c r="C68" s="45"/>
@@ -4749,7 +4813,7 @@
       <c r="S68" s="1"/>
       <c r="U68" s="37"/>
     </row>
-    <row r="69" spans="1:21" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49"/>
       <c r="B69" s="49"/>
       <c r="C69" s="45"/>
@@ -4769,7 +4833,7 @@
       <c r="S69" s="1"/>
       <c r="U69" s="37"/>
     </row>
-    <row r="70" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
       <c r="B70" s="49"/>
       <c r="C70" s="45"/>
@@ -4789,7 +4853,7 @@
       <c r="S70" s="1"/>
       <c r="U70" s="37"/>
     </row>
-    <row r="71" spans="1:21" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49"/>
       <c r="B71" s="49"/>
       <c r="C71" s="45"/>
@@ -4809,7 +4873,7 @@
       <c r="S71" s="1"/>
       <c r="U71" s="37"/>
     </row>
-    <row r="72" spans="1:21" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49"/>
       <c r="B72" s="49"/>
       <c r="C72" s="45"/>
@@ -4829,7 +4893,7 @@
       <c r="S72" s="1"/>
       <c r="U72" s="37"/>
     </row>
-    <row r="73" spans="1:21" s="9" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" s="9" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49"/>
       <c r="B73" s="49"/>
       <c r="C73" s="45"/>
@@ -4849,7 +4913,7 @@
       <c r="S73" s="1"/>
       <c r="U73" s="37"/>
     </row>
-    <row r="74" spans="1:21" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
       <c r="B74" s="49"/>
       <c r="C74" s="45"/>
@@ -4869,7 +4933,7 @@
       <c r="S74" s="1"/>
       <c r="U74" s="37"/>
     </row>
-    <row r="75" spans="1:21" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
       <c r="B75" s="49"/>
       <c r="C75" s="45"/>
@@ -4889,7 +4953,7 @@
       <c r="S75" s="1"/>
       <c r="U75" s="37"/>
     </row>
-    <row r="76" spans="1:21" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49"/>
       <c r="B76" s="49"/>
       <c r="C76" s="45"/>
@@ -4909,7 +4973,7 @@
       <c r="S76" s="1"/>
       <c r="U76" s="37"/>
     </row>
-    <row r="77" spans="1:21" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49"/>
       <c r="B77" s="49"/>
       <c r="C77" s="45"/>
@@ -4929,7 +4993,7 @@
       <c r="S77" s="1"/>
       <c r="U77" s="37"/>
     </row>
-    <row r="78" spans="1:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49"/>
       <c r="B78" s="49"/>
       <c r="C78" s="45"/>
@@ -4949,7 +5013,7 @@
       <c r="S78" s="1"/>
       <c r="U78" s="37"/>
     </row>
-    <row r="79" spans="1:21" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49"/>
       <c r="B79" s="49"/>
       <c r="C79" s="45"/>
@@ -4969,7 +5033,7 @@
       <c r="S79" s="1"/>
       <c r="U79" s="37"/>
     </row>
-    <row r="80" spans="1:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
       <c r="B80" s="49"/>
       <c r="C80" s="45"/>
@@ -4989,7 +5053,7 @@
       <c r="S80" s="1"/>
       <c r="U80" s="37"/>
     </row>
-    <row r="81" spans="1:21" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>
       <c r="B81" s="49"/>
       <c r="C81" s="45"/>
@@ -5009,7 +5073,7 @@
       <c r="S81" s="1"/>
       <c r="U81" s="37"/>
     </row>
-    <row r="82" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49"/>
       <c r="B82" s="49"/>
       <c r="C82" s="45"/>
@@ -5029,7 +5093,7 @@
       <c r="S82" s="1"/>
       <c r="U82" s="37"/>
     </row>
-    <row r="83" spans="1:21" s="9" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" s="9" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49"/>
       <c r="B83" s="49"/>
       <c r="C83" s="45"/>
@@ -5049,7 +5113,7 @@
       <c r="S83" s="1"/>
       <c r="U83" s="37"/>
     </row>
-    <row r="84" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49"/>
       <c r="B84" s="49"/>
       <c r="C84" s="45"/>
@@ -5069,7 +5133,7 @@
       <c r="S84" s="1"/>
       <c r="U84" s="37"/>
     </row>
-    <row r="85" spans="1:21" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49"/>
       <c r="B85" s="49"/>
       <c r="C85" s="45"/>
@@ -5089,7 +5153,7 @@
       <c r="S85" s="1"/>
       <c r="U85" s="37"/>
     </row>
-    <row r="86" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49"/>
       <c r="B86" s="49"/>
       <c r="C86" s="45"/>
@@ -5109,7 +5173,7 @@
       <c r="S86" s="1"/>
       <c r="U86" s="37"/>
     </row>
-    <row r="87" spans="1:21" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49"/>
       <c r="B87" s="49"/>
       <c r="C87" s="45"/>
@@ -5129,7 +5193,7 @@
       <c r="S87" s="1"/>
       <c r="U87" s="37"/>
     </row>
-    <row r="88" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49"/>
       <c r="B88" s="49"/>
       <c r="C88" s="45"/>
@@ -5149,7 +5213,7 @@
       <c r="S88" s="1"/>
       <c r="U88" s="37"/>
     </row>
-    <row r="89" spans="1:21" s="9" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" s="9" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49"/>
       <c r="B89" s="49"/>
       <c r="C89" s="45"/>
@@ -5169,7 +5233,7 @@
       <c r="S89" s="1"/>
       <c r="U89" s="37"/>
     </row>
-    <row r="90" spans="1:21" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
       <c r="B90" s="49"/>
       <c r="C90" s="45"/>
@@ -5189,7 +5253,7 @@
       <c r="S90" s="1"/>
       <c r="U90" s="37"/>
     </row>
-    <row r="91" spans="1:21" s="9" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" s="9" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49"/>
       <c r="B91" s="49"/>
       <c r="C91" s="45"/>
@@ -5209,7 +5273,7 @@
       <c r="S91" s="1"/>
       <c r="U91" s="37"/>
     </row>
-    <row r="92" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -5224,7 +5288,7 @@
       <c r="O92" s="48"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -5239,7 +5303,7 @@
       <c r="O93" s="48"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -5254,7 +5318,7 @@
       <c r="O94" s="48"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -5269,7 +5333,7 @@
       <c r="O95" s="48"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -5284,7 +5348,7 @@
       <c r="O96" s="48"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -5299,7 +5363,7 @@
       <c r="O97" s="48"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -5314,7 +5378,7 @@
       <c r="O98" s="48"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -5329,7 +5393,7 @@
       <c r="O99" s="48"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -5344,7 +5408,7 @@
       <c r="O100" s="48"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -5365,7 +5429,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="27"/>
     </row>
-    <row r="102" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -5386,7 +5450,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="27"/>
     </row>
-    <row r="103" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -5407,7 +5471,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="27"/>
     </row>
-    <row r="104" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -5428,7 +5492,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="27"/>
     </row>
-    <row r="105" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -5449,7 +5513,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="27"/>
     </row>
-    <row r="106" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -5470,7 +5534,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="27"/>
     </row>
-    <row r="107" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -5491,7 +5555,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="27"/>
     </row>
-    <row r="108" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -5512,7 +5576,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="27"/>
     </row>
-    <row r="109" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -5533,7 +5597,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="27"/>
     </row>
-    <row r="110" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -5567,22 +5631,1408 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="108" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="113" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="113"/>
+    <col min="9" max="9" width="13.109375" style="113" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="113"/>
+    <col min="12" max="12" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="93">
+        <v>15</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="99">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="99">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="93"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="93"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="99">
+        <v>4</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="99">
+        <v>5</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="93"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="99">
+        <v>6</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93">
+        <v>16</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="93">
+        <v>1</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="96">
+        <v>43949</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="93"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93">
+        <v>2</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="96">
+        <v>43949</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="93">
+        <v>3</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="96">
+        <v>43949</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="93">
+        <v>17</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="93">
+        <v>1</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="93"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="93">
+        <v>2</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="93"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="93"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="93">
+        <v>3</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="98">
+        <v>43948</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="93"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="93">
+        <v>18</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="93">
+        <v>1</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="93"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93">
+        <v>2</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G16" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="93"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="93">
+        <v>3</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G17" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="93"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="93">
+        <v>19</v>
+      </c>
+      <c r="B18" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="93">
+        <v>1</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G18" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="93"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="93"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93">
+        <v>2</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="93"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="93">
+        <v>3</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G20" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="93"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="93">
+        <v>20</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="93">
+        <v>1</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G21" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" s="93"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93">
+        <v>2</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G22" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="93"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="93">
+        <v>21</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="93">
+        <v>1</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="96">
+        <v>43949</v>
+      </c>
+      <c r="G23" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="93"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="93">
+        <v>2</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="96">
+        <v>43949</v>
+      </c>
+      <c r="G24" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" s="56"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="93">
+        <v>3</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="96">
+        <v>43950</v>
+      </c>
+      <c r="G25" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="93">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="96">
+        <v>43951</v>
+      </c>
+      <c r="G26" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="56"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="93">
+        <v>2</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="96">
+        <v>43951</v>
+      </c>
+      <c r="G27" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="56"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="93">
+        <v>3</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G28" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+    </row>
+    <row r="44" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+    </row>
+    <row r="45" spans="1:16" s="3" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+    </row>
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="64"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+    </row>
+    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="5" width="30.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="76" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5596,7 +7046,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="67"/>
@@ -5614,7 +7064,7 @@
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -5634,7 +7084,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>26</v>
@@ -5664,1281 +7114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="93">
-        <v>15</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="99">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G4" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="99">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="99">
-        <v>4</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="99">
-        <v>5</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G7" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="99">
-        <v>6</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G8" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93">
-        <v>16</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="93">
-        <v>1</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="96">
-        <v>43949</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93">
-        <v>2</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="96">
-        <v>43949</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="93">
-        <v>3</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="96">
-        <v>43949</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="93">
-        <v>17</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="93">
-        <v>1</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="93">
-        <v>2</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G13" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I13" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="93"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="93">
-        <v>3</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="98">
-        <v>43948</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="93">
-        <v>18</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="93">
-        <v>1</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G15" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I15" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93">
-        <v>2</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G16" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="93">
-        <v>3</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G17" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="93">
-        <v>19</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="93">
-        <v>1</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G18" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93">
-        <v>2</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="93">
-        <v>3</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G20" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="93">
-        <v>20</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="93">
-        <v>1</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G21" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93">
-        <v>2</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G22" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-    </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-    </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-    </row>
-    <row r="44" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-    </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-    </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-    </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-    </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U176"/>
-  <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="5" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="76" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="93">
         <v>1</v>
       </c>
@@ -6974,7 +7150,7 @@
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="93"/>
       <c r="B5" s="93"/>
       <c r="C5" s="93">
@@ -7006,7 +7182,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="93"/>
       <c r="B6" s="93"/>
       <c r="C6" s="93">
@@ -7038,7 +7214,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="93"/>
       <c r="B7" s="93"/>
       <c r="C7" s="93">
@@ -7059,7 +7235,9 @@
       <c r="H7" s="93">
         <v>2</v>
       </c>
-      <c r="I7" s="93"/>
+      <c r="I7" s="93" t="s">
+        <v>62</v>
+      </c>
       <c r="J7" s="93">
         <v>3</v>
       </c>
@@ -7070,7 +7248,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="93"/>
       <c r="B8" s="93"/>
       <c r="C8" s="93">
@@ -7091,7 +7269,9 @@
       <c r="H8" s="93">
         <v>3</v>
       </c>
-      <c r="I8" s="93"/>
+      <c r="I8" s="93" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="93">
         <v>3</v>
       </c>
@@ -7102,7 +7282,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="93"/>
       <c r="B9" s="93"/>
       <c r="C9" s="93">
@@ -7123,7 +7303,9 @@
       <c r="H9" s="93">
         <v>4</v>
       </c>
-      <c r="I9" s="93"/>
+      <c r="I9" s="93" t="s">
+        <v>62</v>
+      </c>
       <c r="J9" s="93">
         <v>5</v>
       </c>
@@ -7134,7 +7316,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
       <c r="B10" s="93"/>
       <c r="C10" s="93">
@@ -7166,7 +7348,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="93"/>
       <c r="B11" s="93"/>
       <c r="C11" s="93">
@@ -7198,7 +7380,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="93"/>
       <c r="C12" s="93">
@@ -7230,7 +7412,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="93"/>
       <c r="B13" s="93"/>
       <c r="C13" s="93"/>
@@ -7248,7 +7430,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
         <v>2</v>
       </c>
@@ -7284,7 +7466,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="93"/>
       <c r="B15" s="94"/>
       <c r="C15" s="93">
@@ -7316,7 +7498,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="93"/>
       <c r="B16" s="94"/>
       <c r="C16" s="93">
@@ -7348,7 +7530,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
         <v>3</v>
       </c>
@@ -7386,7 +7568,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="93"/>
       <c r="B18" s="93"/>
       <c r="C18" s="93">
@@ -7420,7 +7602,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="93"/>
       <c r="B19" s="93"/>
       <c r="C19" s="93">
@@ -7454,7 +7636,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="93">
         <v>4</v>
       </c>
@@ -7492,7 +7674,7 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="93"/>
       <c r="B21" s="93"/>
       <c r="C21" s="93">
@@ -7526,7 +7708,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="93"/>
       <c r="B22" s="93"/>
       <c r="C22" s="93">
@@ -7560,7 +7742,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="93">
         <v>5</v>
       </c>
@@ -7598,7 +7780,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" s="93"/>
       <c r="B24" s="93"/>
       <c r="C24" s="93">
@@ -7632,7 +7814,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="93"/>
       <c r="B25" s="93"/>
       <c r="C25" s="93">
@@ -7666,7 +7848,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="93"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93">
@@ -7700,7 +7882,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="93">
         <v>6</v>
       </c>
@@ -7738,7 +7920,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="93"/>
       <c r="B28" s="93"/>
       <c r="C28" s="93">
@@ -7772,7 +7954,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="93"/>
       <c r="B29" s="93"/>
       <c r="C29" s="93">
@@ -7806,7 +7988,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="93"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93">
@@ -7840,7 +8022,7 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="93">
         <v>7</v>
       </c>
@@ -7878,7 +8060,7 @@
       <c r="O31" s="79"/>
       <c r="P31" s="79"/>
     </row>
-    <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="93"/>
       <c r="B32" s="93"/>
       <c r="C32" s="93">
@@ -7912,7 +8094,7 @@
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
     </row>
-    <row r="33" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="93"/>
       <c r="B33" s="93"/>
       <c r="C33" s="93">
@@ -7946,7 +8128,7 @@
       <c r="O33" s="79"/>
       <c r="P33" s="79"/>
     </row>
-    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
       <c r="B34" s="93"/>
       <c r="C34" s="93">
@@ -7980,7 +8162,7 @@
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
     </row>
-    <row r="35" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="93">
         <v>8</v>
       </c>
@@ -8018,7 +8200,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="93"/>
       <c r="B36" s="92"/>
       <c r="C36" s="93">
@@ -8052,7 +8234,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="92"/>
       <c r="C37" s="93">
@@ -8086,7 +8268,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A38" s="93"/>
       <c r="B38" s="92"/>
       <c r="C38" s="93">
@@ -8120,7 +8302,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="93">
         <v>9</v>
       </c>
@@ -8158,7 +8340,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A40" s="93"/>
       <c r="B40" s="92"/>
       <c r="C40" s="93">
@@ -8192,7 +8374,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A41" s="93"/>
       <c r="B41" s="92"/>
       <c r="C41" s="93">
@@ -8226,7 +8408,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
       <c r="B42" s="92"/>
       <c r="C42" s="93">
@@ -8260,7 +8442,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="93">
         <v>10</v>
       </c>
@@ -8298,7 +8480,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="93"/>
       <c r="B44" s="92"/>
       <c r="C44" s="93">
@@ -8332,7 +8514,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="101"/>
       <c r="B45" s="92"/>
       <c r="C45" s="93">
@@ -8366,7 +8548,7 @@
       <c r="O45" s="63"/>
       <c r="P45" s="63"/>
     </row>
-    <row r="46" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" s="101"/>
       <c r="B46" s="92"/>
       <c r="C46" s="93">
@@ -8400,7 +8582,7 @@
       <c r="O46" s="63"/>
       <c r="P46" s="63"/>
     </row>
-    <row r="47" spans="1:16" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="101">
         <v>11</v>
       </c>
@@ -8438,7 +8620,7 @@
       <c r="O47" s="63"/>
       <c r="P47" s="63"/>
     </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="3" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="92"/>
       <c r="B48" s="92"/>
       <c r="C48" s="93">
@@ -8472,7 +8654,7 @@
       <c r="O48" s="66"/>
       <c r="P48" s="66"/>
     </row>
-    <row r="49" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A49" s="102"/>
       <c r="B49" s="92"/>
       <c r="C49" s="93">
@@ -8506,7 +8688,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
     </row>
-    <row r="50" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A50" s="93"/>
       <c r="B50" s="92"/>
       <c r="C50" s="93">
@@ -8540,7 +8722,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="93">
         <v>12</v>
       </c>
@@ -8578,7 +8760,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A52" s="93"/>
       <c r="B52" s="92"/>
       <c r="C52" s="93">
@@ -8612,7 +8794,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A53" s="93"/>
       <c r="B53" s="92"/>
       <c r="C53" s="93">
@@ -8646,7 +8828,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A54" s="93"/>
       <c r="B54" s="92"/>
       <c r="C54" s="93">
@@ -8680,7 +8862,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A55" s="93">
         <v>13</v>
       </c>
@@ -8718,7 +8900,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A56" s="93"/>
       <c r="B56" s="92"/>
       <c r="C56" s="93">
@@ -8752,7 +8934,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A57" s="93"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93">
@@ -8786,7 +8968,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A58" s="93"/>
       <c r="B58" s="92"/>
       <c r="C58" s="93">
@@ -8820,7 +9002,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A59" s="93">
         <v>14</v>
       </c>
@@ -8858,7 +9040,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="93"/>
       <c r="B60" s="95"/>
       <c r="C60" s="93">
@@ -8892,7 +9074,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A61" s="93"/>
       <c r="B61" s="95"/>
       <c r="C61" s="93">
@@ -8926,7 +9108,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A62" s="93"/>
       <c r="B62" s="95"/>
       <c r="C62" s="93">
@@ -8960,7 +9142,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="79"/>
       <c r="B63" s="79"/>
       <c r="C63" s="79"/>
@@ -8978,7 +9160,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
       <c r="B64" s="79"/>
       <c r="C64" s="79"/>
@@ -8996,7 +9178,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="79"/>
       <c r="B65" s="79"/>
       <c r="C65" s="79"/>
@@ -9014,7 +9196,7 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="79"/>
       <c r="B66" s="79"/>
       <c r="C66" s="79"/>
@@ -9032,7 +9214,7 @@
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
     </row>
-    <row r="67" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A67" s="83"/>
       <c r="B67" s="88"/>
       <c r="C67" s="89"/>
@@ -9057,7 +9239,7 @@
       <c r="T67" s="79"/>
       <c r="U67" s="79"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="83"/>
       <c r="B68" s="79"/>
       <c r="C68" s="79"/>
@@ -9080,7 +9262,7 @@
       <c r="T68" s="79"/>
       <c r="U68" s="79"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="83"/>
       <c r="B69" s="79"/>
       <c r="C69" s="79"/>
@@ -9103,7 +9285,7 @@
       <c r="T69" s="79"/>
       <c r="U69" s="79"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="83"/>
       <c r="B70" s="83"/>
       <c r="C70" s="83"/>
@@ -9126,7 +9308,7 @@
       <c r="T70" s="79"/>
       <c r="U70" s="79"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="83"/>
       <c r="B71" s="87"/>
       <c r="C71" s="83"/>
@@ -9149,7 +9331,7 @@
       <c r="T71" s="79"/>
       <c r="U71" s="79"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="83"/>
       <c r="B72" s="87"/>
       <c r="C72" s="83"/>
@@ -9172,7 +9354,7 @@
       <c r="T72" s="79"/>
       <c r="U72" s="79"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="83"/>
       <c r="B73" s="87"/>
       <c r="C73" s="83"/>
@@ -9195,7 +9377,7 @@
       <c r="T73" s="79"/>
       <c r="U73" s="79"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="83"/>
       <c r="B74" s="79"/>
       <c r="C74" s="79"/>
@@ -9218,7 +9400,7 @@
       <c r="T74" s="79"/>
       <c r="U74" s="79"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="83"/>
       <c r="B75" s="87"/>
       <c r="C75" s="83"/>
@@ -9241,7 +9423,7 @@
       <c r="T75" s="79"/>
       <c r="U75" s="79"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="83"/>
       <c r="B76" s="87"/>
       <c r="C76" s="79"/>
@@ -9264,7 +9446,7 @@
       <c r="T76" s="79"/>
       <c r="U76" s="79"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="79"/>
       <c r="B77" s="87"/>
       <c r="C77" s="79"/>
@@ -9287,7 +9469,7 @@
       <c r="T77" s="79"/>
       <c r="U77" s="79"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="79"/>
       <c r="B78" s="87"/>
       <c r="C78" s="79"/>
@@ -9310,7 +9492,7 @@
       <c r="T78" s="79"/>
       <c r="U78" s="79"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="79"/>
       <c r="B79" s="79"/>
       <c r="C79" s="79"/>
@@ -9333,7 +9515,7 @@
       <c r="T79" s="79"/>
       <c r="U79" s="79"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="79"/>
       <c r="B80" s="79"/>
       <c r="C80" s="79"/>
@@ -9356,7 +9538,7 @@
       <c r="T80" s="79"/>
       <c r="U80" s="79"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="79"/>
       <c r="B81" s="79"/>
       <c r="C81" s="79"/>
@@ -9379,7 +9561,7 @@
       <c r="T81" s="79"/>
       <c r="U81" s="79"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="79"/>
       <c r="B82" s="79"/>
       <c r="C82" s="79"/>
@@ -9402,7 +9584,7 @@
       <c r="T82" s="79"/>
       <c r="U82" s="79"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="79"/>
       <c r="B83" s="79"/>
       <c r="C83" s="79"/>
@@ -9425,7 +9607,7 @@
       <c r="T83" s="79"/>
       <c r="U83" s="79"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="79"/>
       <c r="B84" s="79"/>
       <c r="C84" s="79"/>
@@ -9448,7 +9630,7 @@
       <c r="T84" s="79"/>
       <c r="U84" s="79"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="79"/>
       <c r="B85" s="79"/>
       <c r="C85" s="79"/>
@@ -9471,7 +9653,7 @@
       <c r="T85" s="79"/>
       <c r="U85" s="79"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="79"/>
       <c r="B86" s="79"/>
       <c r="C86" s="79"/>
@@ -9494,7 +9676,7 @@
       <c r="T86" s="79"/>
       <c r="U86" s="79"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="79"/>
       <c r="B87" s="79"/>
       <c r="C87" s="79"/>
@@ -9517,7 +9699,7 @@
       <c r="T87" s="79"/>
       <c r="U87" s="79"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="79"/>
       <c r="B88" s="79"/>
       <c r="C88" s="79"/>
@@ -9540,7 +9722,7 @@
       <c r="T88" s="79"/>
       <c r="U88" s="79"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="79"/>
       <c r="B89" s="79"/>
       <c r="C89" s="79"/>
@@ -9563,7 +9745,7 @@
       <c r="T89" s="79"/>
       <c r="U89" s="79"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="79"/>
       <c r="B90" s="79"/>
       <c r="C90" s="79"/>
@@ -9586,7 +9768,7 @@
       <c r="T90" s="79"/>
       <c r="U90" s="79"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="79"/>
       <c r="B91" s="79"/>
       <c r="C91" s="79"/>
@@ -9609,7 +9791,7 @@
       <c r="T91" s="79"/>
       <c r="U91" s="79"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="79"/>
       <c r="B92" s="79"/>
       <c r="C92" s="79"/>
@@ -9632,7 +9814,7 @@
       <c r="T92" s="79"/>
       <c r="U92" s="79"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="79"/>
       <c r="B93" s="79"/>
       <c r="C93" s="79"/>
@@ -9655,7 +9837,7 @@
       <c r="T93" s="79"/>
       <c r="U93" s="79"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="79"/>
       <c r="B94" s="79"/>
       <c r="C94" s="79"/>
@@ -9678,7 +9860,7 @@
       <c r="T94" s="79"/>
       <c r="U94" s="79"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="79"/>
       <c r="B95" s="79"/>
       <c r="C95" s="79"/>
@@ -9701,7 +9883,7 @@
       <c r="T95" s="79"/>
       <c r="U95" s="79"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="79"/>
       <c r="B96" s="79"/>
       <c r="C96" s="79"/>
@@ -9724,7 +9906,7 @@
       <c r="T96" s="79"/>
       <c r="U96" s="79"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="79"/>
       <c r="B97" s="79"/>
       <c r="C97" s="79"/>
@@ -9747,7 +9929,7 @@
       <c r="T97" s="79"/>
       <c r="U97" s="79"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="79"/>
       <c r="B98" s="79"/>
       <c r="C98" s="79"/>
@@ -9770,7 +9952,7 @@
       <c r="T98" s="79"/>
       <c r="U98" s="79"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="79"/>
       <c r="B99" s="79"/>
       <c r="C99" s="79"/>
@@ -9793,7 +9975,7 @@
       <c r="T99" s="79"/>
       <c r="U99" s="79"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="79"/>
       <c r="B100" s="79"/>
       <c r="C100" s="79"/>
@@ -9816,7 +9998,7 @@
       <c r="T100" s="79"/>
       <c r="U100" s="79"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="79"/>
       <c r="B101" s="79"/>
       <c r="C101" s="79"/>
@@ -9839,7 +10021,7 @@
       <c r="T101" s="79"/>
       <c r="U101" s="79"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="79"/>
       <c r="B102" s="79"/>
       <c r="C102" s="79"/>
@@ -9862,7 +10044,7 @@
       <c r="T102" s="79"/>
       <c r="U102" s="79"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="79"/>
       <c r="B103" s="79"/>
       <c r="C103" s="79"/>
@@ -9885,7 +10067,7 @@
       <c r="T103" s="79"/>
       <c r="U103" s="79"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="79"/>
       <c r="B104" s="79"/>
       <c r="C104" s="79"/>
@@ -9908,7 +10090,7 @@
       <c r="T104" s="79"/>
       <c r="U104" s="79"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="79"/>
       <c r="B105" s="79"/>
       <c r="C105" s="79"/>
@@ -9931,7 +10113,7 @@
       <c r="T105" s="79"/>
       <c r="U105" s="79"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="79"/>
       <c r="B106" s="79"/>
       <c r="C106" s="79"/>
@@ -9954,7 +10136,7 @@
       <c r="T106" s="79"/>
       <c r="U106" s="79"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="79"/>
       <c r="B107" s="79"/>
       <c r="C107" s="79"/>
@@ -9977,7 +10159,7 @@
       <c r="T107" s="79"/>
       <c r="U107" s="79"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="79"/>
       <c r="B108" s="79"/>
       <c r="C108" s="79"/>
@@ -10000,7 +10182,7 @@
       <c r="T108" s="79"/>
       <c r="U108" s="79"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="79"/>
       <c r="B109" s="79"/>
       <c r="C109" s="79"/>
@@ -10023,7 +10205,7 @@
       <c r="T109" s="79"/>
       <c r="U109" s="79"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="79"/>
       <c r="B110" s="79"/>
       <c r="C110" s="79"/>
@@ -10046,7 +10228,7 @@
       <c r="T110" s="79"/>
       <c r="U110" s="79"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="79"/>
       <c r="B111" s="79"/>
       <c r="C111" s="79"/>
@@ -10069,7 +10251,7 @@
       <c r="T111" s="79"/>
       <c r="U111" s="79"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="79"/>
       <c r="B112" s="79"/>
       <c r="C112" s="79"/>
@@ -10092,7 +10274,7 @@
       <c r="T112" s="79"/>
       <c r="U112" s="79"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="79"/>
       <c r="B113" s="79"/>
       <c r="C113" s="79"/>
@@ -10115,7 +10297,7 @@
       <c r="T113" s="79"/>
       <c r="U113" s="79"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="79"/>
       <c r="B114" s="79"/>
       <c r="C114" s="79"/>
@@ -10138,7 +10320,7 @@
       <c r="T114" s="79"/>
       <c r="U114" s="79"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="79"/>
       <c r="B115" s="79"/>
       <c r="C115" s="79"/>
@@ -10161,7 +10343,7 @@
       <c r="T115" s="79"/>
       <c r="U115" s="79"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="79"/>
       <c r="B116" s="79"/>
       <c r="C116" s="79"/>
@@ -10184,7 +10366,7 @@
       <c r="T116" s="79"/>
       <c r="U116" s="79"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="79"/>
       <c r="B117" s="79"/>
       <c r="C117" s="79"/>
@@ -10207,7 +10389,7 @@
       <c r="T117" s="79"/>
       <c r="U117" s="79"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="79"/>
       <c r="B118" s="79"/>
       <c r="C118" s="79"/>
@@ -10230,7 +10412,7 @@
       <c r="T118" s="79"/>
       <c r="U118" s="79"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="79"/>
       <c r="B119" s="79"/>
       <c r="C119" s="79"/>
@@ -10253,7 +10435,7 @@
       <c r="T119" s="79"/>
       <c r="U119" s="79"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="79"/>
       <c r="B120" s="79"/>
       <c r="C120" s="79"/>
@@ -10276,7 +10458,7 @@
       <c r="T120" s="79"/>
       <c r="U120" s="79"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="79"/>
       <c r="B121" s="79"/>
       <c r="C121" s="79"/>
@@ -10299,7 +10481,7 @@
       <c r="T121" s="79"/>
       <c r="U121" s="79"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="79"/>
       <c r="B122" s="79"/>
       <c r="C122" s="79"/>
@@ -10322,7 +10504,7 @@
       <c r="T122" s="79"/>
       <c r="U122" s="79"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="79"/>
       <c r="B123" s="79"/>
       <c r="C123" s="79"/>
@@ -10345,7 +10527,7 @@
       <c r="T123" s="79"/>
       <c r="U123" s="79"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="79"/>
       <c r="B124" s="79"/>
       <c r="C124" s="79"/>
@@ -10368,7 +10550,7 @@
       <c r="T124" s="79"/>
       <c r="U124" s="79"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="79"/>
       <c r="B125" s="79"/>
       <c r="C125" s="79"/>
@@ -10391,7 +10573,7 @@
       <c r="T125" s="79"/>
       <c r="U125" s="79"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="79"/>
       <c r="B126" s="79"/>
       <c r="C126" s="79"/>
@@ -10414,7 +10596,7 @@
       <c r="T126" s="79"/>
       <c r="U126" s="79"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="79"/>
       <c r="B127" s="79"/>
       <c r="C127" s="79"/>
@@ -10437,7 +10619,7 @@
       <c r="T127" s="79"/>
       <c r="U127" s="79"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="79"/>
       <c r="B128" s="79"/>
       <c r="C128" s="79"/>
@@ -10460,7 +10642,7 @@
       <c r="T128" s="79"/>
       <c r="U128" s="79"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="79"/>
       <c r="B129" s="79"/>
       <c r="C129" s="79"/>
@@ -10483,7 +10665,7 @@
       <c r="T129" s="79"/>
       <c r="U129" s="79"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="79"/>
       <c r="B130" s="79"/>
       <c r="C130" s="79"/>
@@ -10506,7 +10688,7 @@
       <c r="T130" s="79"/>
       <c r="U130" s="79"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="79"/>
       <c r="B131" s="79"/>
       <c r="C131" s="79"/>
@@ -10529,7 +10711,7 @@
       <c r="T131" s="79"/>
       <c r="U131" s="79"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="79"/>
       <c r="B132" s="79"/>
       <c r="C132" s="79"/>
@@ -10552,7 +10734,7 @@
       <c r="T132" s="79"/>
       <c r="U132" s="79"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="79"/>
       <c r="B133" s="79"/>
       <c r="C133" s="79"/>
@@ -10575,7 +10757,7 @@
       <c r="T133" s="79"/>
       <c r="U133" s="79"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="79"/>
       <c r="B134" s="79"/>
       <c r="C134" s="79"/>
@@ -10598,7 +10780,7 @@
       <c r="T134" s="79"/>
       <c r="U134" s="79"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="79"/>
       <c r="B135" s="79"/>
       <c r="C135" s="79"/>
@@ -10621,7 +10803,7 @@
       <c r="T135" s="79"/>
       <c r="U135" s="79"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="79"/>
       <c r="B136" s="79"/>
       <c r="C136" s="79"/>
@@ -10644,7 +10826,7 @@
       <c r="T136" s="79"/>
       <c r="U136" s="79"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="79"/>
       <c r="B137" s="79"/>
       <c r="C137" s="79"/>
@@ -10667,7 +10849,7 @@
       <c r="T137" s="79"/>
       <c r="U137" s="79"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="79"/>
       <c r="B138" s="79"/>
       <c r="C138" s="79"/>
@@ -10690,7 +10872,7 @@
       <c r="T138" s="79"/>
       <c r="U138" s="79"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="79"/>
       <c r="B139" s="79"/>
       <c r="C139" s="79"/>
@@ -10713,7 +10895,7 @@
       <c r="T139" s="79"/>
       <c r="U139" s="79"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="79"/>
       <c r="B140" s="79"/>
       <c r="C140" s="79"/>
@@ -10736,7 +10918,7 @@
       <c r="T140" s="79"/>
       <c r="U140" s="79"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="79"/>
       <c r="B141" s="79"/>
       <c r="C141" s="79"/>
@@ -10759,7 +10941,7 @@
       <c r="T141" s="79"/>
       <c r="U141" s="79"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="79"/>
       <c r="B142" s="79"/>
       <c r="C142" s="79"/>
@@ -10782,7 +10964,7 @@
       <c r="T142" s="79"/>
       <c r="U142" s="79"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="79"/>
       <c r="B143" s="79"/>
       <c r="C143" s="79"/>
@@ -10805,7 +10987,7 @@
       <c r="T143" s="79"/>
       <c r="U143" s="79"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="79"/>
       <c r="B144" s="79"/>
       <c r="C144" s="79"/>
@@ -10828,7 +11010,7 @@
       <c r="T144" s="79"/>
       <c r="U144" s="79"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="79"/>
       <c r="B145" s="79"/>
       <c r="C145" s="79"/>
@@ -10851,7 +11033,7 @@
       <c r="T145" s="79"/>
       <c r="U145" s="79"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="79"/>
       <c r="B146" s="79"/>
       <c r="C146" s="79"/>
@@ -10874,7 +11056,7 @@
       <c r="T146" s="79"/>
       <c r="U146" s="79"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="79"/>
       <c r="B147" s="79"/>
       <c r="C147" s="79"/>
@@ -10897,7 +11079,7 @@
       <c r="T147" s="79"/>
       <c r="U147" s="79"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="79"/>
       <c r="B148" s="79"/>
       <c r="C148" s="79"/>
@@ -10920,7 +11102,7 @@
       <c r="T148" s="79"/>
       <c r="U148" s="79"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="79"/>
       <c r="B149" s="79"/>
       <c r="C149" s="79"/>
@@ -10943,7 +11125,7 @@
       <c r="T149" s="79"/>
       <c r="U149" s="79"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="79"/>
       <c r="B150" s="79"/>
       <c r="C150" s="79"/>
@@ -10966,7 +11148,7 @@
       <c r="T150" s="79"/>
       <c r="U150" s="79"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="79"/>
       <c r="B151" s="79"/>
       <c r="C151" s="79"/>
@@ -10989,7 +11171,7 @@
       <c r="T151" s="79"/>
       <c r="U151" s="79"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="79"/>
       <c r="B152" s="79"/>
       <c r="C152" s="79"/>
@@ -11012,7 +11194,7 @@
       <c r="T152" s="79"/>
       <c r="U152" s="79"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="79"/>
       <c r="B153" s="79"/>
       <c r="C153" s="79"/>
@@ -11035,7 +11217,7 @@
       <c r="T153" s="79"/>
       <c r="U153" s="79"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="79"/>
       <c r="B154" s="79"/>
       <c r="C154" s="79"/>
@@ -11058,7 +11240,7 @@
       <c r="T154" s="79"/>
       <c r="U154" s="79"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="79"/>
       <c r="B155" s="79"/>
       <c r="C155" s="79"/>
@@ -11081,7 +11263,7 @@
       <c r="T155" s="79"/>
       <c r="U155" s="79"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="79"/>
       <c r="B156" s="79"/>
       <c r="C156" s="79"/>
@@ -11104,7 +11286,7 @@
       <c r="T156" s="79"/>
       <c r="U156" s="79"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="79"/>
       <c r="B157" s="79"/>
       <c r="C157" s="79"/>
@@ -11127,7 +11309,7 @@
       <c r="T157" s="79"/>
       <c r="U157" s="79"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="79"/>
       <c r="B158" s="79"/>
       <c r="C158" s="79"/>
@@ -11150,7 +11332,7 @@
       <c r="T158" s="79"/>
       <c r="U158" s="79"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="79"/>
       <c r="B159" s="79"/>
       <c r="C159" s="79"/>
@@ -11173,7 +11355,7 @@
       <c r="T159" s="79"/>
       <c r="U159" s="79"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="79"/>
       <c r="B160" s="79"/>
       <c r="C160" s="79"/>
@@ -11196,7 +11378,7 @@
       <c r="T160" s="79"/>
       <c r="U160" s="79"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="79"/>
       <c r="B161" s="79"/>
       <c r="C161" s="79"/>
@@ -11219,7 +11401,7 @@
       <c r="T161" s="79"/>
       <c r="U161" s="79"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="79"/>
       <c r="B162" s="79"/>
       <c r="C162" s="79"/>
@@ -11242,7 +11424,7 @@
       <c r="T162" s="79"/>
       <c r="U162" s="79"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="79"/>
       <c r="B163" s="79"/>
       <c r="C163" s="79"/>
@@ -11265,7 +11447,7 @@
       <c r="T163" s="79"/>
       <c r="U163" s="79"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="79"/>
       <c r="B164" s="79"/>
       <c r="C164" s="79"/>
@@ -11288,7 +11470,7 @@
       <c r="T164" s="79"/>
       <c r="U164" s="79"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="79"/>
       <c r="B165" s="79"/>
       <c r="C165" s="79"/>
@@ -11311,7 +11493,7 @@
       <c r="T165" s="79"/>
       <c r="U165" s="79"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="79"/>
       <c r="B166" s="79"/>
       <c r="C166" s="79"/>
@@ -11334,7 +11516,7 @@
       <c r="T166" s="79"/>
       <c r="U166" s="79"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="79"/>
       <c r="B167" s="79"/>
       <c r="C167" s="79"/>
@@ -11357,7 +11539,7 @@
       <c r="T167" s="79"/>
       <c r="U167" s="79"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="79"/>
       <c r="B168" s="79"/>
       <c r="C168" s="79"/>
@@ -11380,7 +11562,7 @@
       <c r="T168" s="79"/>
       <c r="U168" s="79"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="79"/>
       <c r="B169" s="79"/>
       <c r="C169" s="79"/>
@@ -11403,7 +11585,7 @@
       <c r="T169" s="79"/>
       <c r="U169" s="79"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="79"/>
       <c r="B170" s="79"/>
       <c r="C170" s="79"/>
@@ -11426,7 +11608,7 @@
       <c r="T170" s="79"/>
       <c r="U170" s="79"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="79"/>
       <c r="B171" s="79"/>
       <c r="C171" s="79"/>
@@ -11449,7 +11631,7 @@
       <c r="T171" s="79"/>
       <c r="U171" s="79"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="79"/>
       <c r="B172" s="79"/>
       <c r="C172" s="79"/>
@@ -11472,7 +11654,7 @@
       <c r="T172" s="79"/>
       <c r="U172" s="79"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="79"/>
       <c r="B173" s="79"/>
       <c r="C173" s="79"/>
@@ -11495,7 +11677,7 @@
       <c r="T173" s="79"/>
       <c r="U173" s="79"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="79"/>
       <c r="B174" s="79"/>
       <c r="C174" s="79"/>
@@ -11518,7 +11700,7 @@
       <c r="T174" s="79"/>
       <c r="U174" s="79"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="79"/>
       <c r="B175" s="79"/>
       <c r="C175" s="79"/>
@@ -11541,7 +11723,7 @@
       <c r="T175" s="79"/>
       <c r="U175" s="79"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="79"/>
       <c r="B176" s="79"/>
       <c r="C176" s="79"/>

--- a/Product & Sprint Backlog Doc.xlsx
+++ b/Product & Sprint Backlog Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AISHWARYA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B6D3B-CD83-40A3-B2FF-18F956D9755C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE947F-D203-4261-B62A-E4204A70442A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="818" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BneWorkBookProperties" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -758,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="207">
   <si>
     <t>Type</t>
   </si>
@@ -1246,9 +1246,6 @@
     <t>OnlineWallet: 016</t>
   </si>
   <si>
-    <t>Designin Login Page</t>
-  </si>
-  <si>
     <t>Userservice class confirms the user through backend</t>
   </si>
   <si>
@@ -1351,7 +1348,37 @@
     <t>Designing TransferMoney page which takes senders Id and receivers Id and sends money from former to latter.</t>
   </si>
   <si>
-    <t>1 hrs</t>
+    <t>OnlineWallet: 023</t>
+  </si>
+  <si>
+    <t>Desig profile page which shows the user details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component sends the user details to user service </t>
+  </si>
+  <si>
+    <t>Userservice class fetches the user data from backend</t>
+  </si>
+  <si>
+    <t>OnlineWallet: 024</t>
+  </si>
+  <si>
+    <t>Design a passbook that captures the details of transaction</t>
+  </si>
+  <si>
+    <t>service class fetches the transaction data from backend</t>
+  </si>
+  <si>
+    <t>OnlineWallet: 025</t>
+  </si>
+  <si>
+    <t>Design a check balance page to show the account details and balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component sends the account details to service </t>
+  </si>
+  <si>
+    <t>Designing Login Page</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,41 +1896,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2566,7 +2583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2578,35 +2595,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="22" customWidth="1"/>
-    <col min="7" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5546875" style="21" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="30.5546875" style="50" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="22" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" style="50" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="21" customWidth="1"/>
     <col min="14" max="14" width="18" style="55" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="55" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="55" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="22" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="27" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" style="27" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" style="22"/>
-    <col min="22" max="16384" width="9.109375" style="27"/>
+    <col min="18" max="18" width="18.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="27" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="22"/>
+    <col min="22" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2627,7 +2644,7 @@
       <c r="R1" s="10"/>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -2649,7 +2666,7 @@
       <c r="S2" s="34"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2712,7 +2729,7 @@
       </c>
       <c r="U3" s="28"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -2763,7 +2780,7 @@
       <c r="T4" s="25"/>
       <c r="U4" s="28"/>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="24">
         <v>2</v>
@@ -2808,7 +2825,7 @@
       <c r="T5" s="25"/>
       <c r="U5" s="28"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>2</v>
       </c>
@@ -2859,7 +2876,7 @@
       <c r="T6" s="25"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>3</v>
       </c>
@@ -2910,7 +2927,7 @@
       <c r="T7" s="25"/>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>4</v>
       </c>
@@ -2961,7 +2978,7 @@
       <c r="T8" s="25"/>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -3012,7 +3029,7 @@
       <c r="T9" s="25"/>
       <c r="U9" s="28"/>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>6</v>
       </c>
@@ -3053,13 +3070,13 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="25"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>7</v>
       </c>
@@ -3100,13 +3117,13 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S11" s="24"/>
       <c r="T11" s="25"/>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>8</v>
       </c>
@@ -3153,7 +3170,7 @@
       <c r="T12" s="25"/>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>9</v>
       </c>
@@ -3200,7 +3217,7 @@
       <c r="T13" s="25"/>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>10</v>
       </c>
@@ -3241,13 +3258,13 @@
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S14" s="12"/>
       <c r="T14" s="25"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>12</v>
       </c>
@@ -3294,7 +3311,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
         <v>71</v>
       </c>
@@ -3320,7 +3337,7 @@
       <c r="S16" s="60"/>
       <c r="T16" s="60"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
         <v>15</v>
       </c>
@@ -3369,7 +3386,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="37"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="24">
         <v>17</v>
@@ -3410,7 +3427,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="37"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>16</v>
       </c>
@@ -3457,7 +3474,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="37"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>17</v>
       </c>
@@ -3504,7 +3521,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="37"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>19</v>
       </c>
@@ -3551,7 +3568,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="37"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>20</v>
       </c>
@@ -3598,7 +3615,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="37"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>21</v>
       </c>
@@ -3645,7 +3662,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="37"/>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>22</v>
       </c>
@@ -3686,13 +3703,13 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="4"/>
       <c r="U24" s="37"/>
     </row>
-    <row r="25" spans="1:21" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
         <v>23</v>
       </c>
@@ -3739,7 +3756,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="37"/>
     </row>
-    <row r="26" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="24">
         <v>24</v>
       </c>
@@ -3786,7 +3803,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="37"/>
     </row>
-    <row r="27" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="24">
         <v>25</v>
       </c>
@@ -3827,13 +3844,13 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="4"/>
       <c r="U27" s="37"/>
     </row>
-    <row r="28" spans="1:21" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24">
         <v>26</v>
       </c>
@@ -3874,13 +3891,13 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="4"/>
       <c r="U28" s="37"/>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
         <v>27</v>
       </c>
@@ -3927,7 +3944,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="37"/>
     </row>
-    <row r="30" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
         <v>28</v>
       </c>
@@ -3954,7 +3971,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="37"/>
     </row>
-    <row r="31" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
         <v>29</v>
       </c>
@@ -3981,7 +3998,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="37"/>
     </row>
-    <row r="32" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
         <v>30</v>
       </c>
@@ -4008,12 +4025,12 @@
       <c r="T32" s="4"/>
       <c r="U32" s="37"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B33" s="24">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
         <v>31</v>
       </c>
@@ -4040,7 +4057,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
         <v>32</v>
       </c>
@@ -4067,7 +4084,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="37"/>
     </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
         <v>33</v>
       </c>
@@ -4094,7 +4111,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="37"/>
     </row>
-    <row r="37" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
         <v>34</v>
       </c>
@@ -4121,7 +4138,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="37"/>
     </row>
-    <row r="38" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>35</v>
       </c>
@@ -4148,7 +4165,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="37"/>
     </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24">
         <v>36</v>
       </c>
@@ -4175,7 +4192,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="37"/>
     </row>
-    <row r="40" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24">
         <v>37</v>
       </c>
@@ -4202,7 +4219,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="37"/>
     </row>
-    <row r="41" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
         <v>38</v>
       </c>
@@ -4229,7 +4246,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="37"/>
     </row>
-    <row r="42" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24">
         <v>39</v>
       </c>
@@ -4256,7 +4273,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="37"/>
     </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24">
         <v>40</v>
       </c>
@@ -4283,7 +4300,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="37"/>
     </row>
-    <row r="44" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24">
         <v>41</v>
       </c>
@@ -4310,7 +4327,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="37"/>
     </row>
-    <row r="45" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24">
         <v>42</v>
       </c>
@@ -4337,7 +4354,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="37"/>
     </row>
-    <row r="46" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24">
         <v>43</v>
       </c>
@@ -4364,7 +4381,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="37"/>
     </row>
-    <row r="47" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24">
         <v>44</v>
       </c>
@@ -4391,7 +4408,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="37"/>
     </row>
-    <row r="48" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24">
         <v>45</v>
       </c>
@@ -4418,7 +4435,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="37"/>
     </row>
-    <row r="49" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>46</v>
       </c>
@@ -4445,7 +4462,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="37"/>
     </row>
-    <row r="50" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
@@ -4468,7 +4485,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="37"/>
     </row>
-    <row r="51" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
@@ -4491,7 +4508,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="37"/>
     </row>
-    <row r="52" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
@@ -4514,7 +4531,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="37"/>
     </row>
-    <row r="53" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
@@ -4537,7 +4554,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="37"/>
     </row>
-    <row r="54" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="45"/>
@@ -4553,7 +4570,7 @@
       <c r="O54" s="47"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="45"/>
@@ -4565,7 +4582,7 @@
       <c r="O55" s="47"/>
       <c r="P55" s="15"/>
     </row>
-    <row r="56" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="45"/>
@@ -4577,7 +4594,7 @@
       <c r="O56" s="47"/>
       <c r="P56" s="15"/>
     </row>
-    <row r="57" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="45"/>
@@ -4593,7 +4610,7 @@
       <c r="O57" s="47"/>
       <c r="P57" s="15"/>
     </row>
-    <row r="58" spans="1:21" s="9" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" s="9" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="49"/>
       <c r="B58" s="49"/>
       <c r="C58" s="45"/>
@@ -4613,7 +4630,7 @@
       <c r="S58" s="1"/>
       <c r="U58" s="37"/>
     </row>
-    <row r="59" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49"/>
       <c r="B59" s="49"/>
       <c r="C59" s="45"/>
@@ -4633,7 +4650,7 @@
       <c r="S59" s="1"/>
       <c r="U59" s="37"/>
     </row>
-    <row r="60" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49"/>
       <c r="B60" s="49"/>
       <c r="C60" s="45"/>
@@ -4653,7 +4670,7 @@
       <c r="S60" s="1"/>
       <c r="U60" s="37"/>
     </row>
-    <row r="61" spans="1:21" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49"/>
       <c r="B61" s="49"/>
       <c r="C61" s="45"/>
@@ -4673,7 +4690,7 @@
       <c r="S61" s="1"/>
       <c r="U61" s="37"/>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="49"/>
       <c r="B62" s="49"/>
       <c r="C62" s="45"/>
@@ -4693,7 +4710,7 @@
       <c r="S62" s="1"/>
       <c r="U62" s="37"/>
     </row>
-    <row r="63" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="C63" s="45"/>
@@ -4713,7 +4730,7 @@
       <c r="S63" s="1"/>
       <c r="U63" s="37"/>
     </row>
-    <row r="64" spans="1:21" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="49"/>
       <c r="B64" s="49"/>
       <c r="C64" s="45"/>
@@ -4733,7 +4750,7 @@
       <c r="S64" s="1"/>
       <c r="U64" s="37"/>
     </row>
-    <row r="65" spans="1:21" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="49"/>
       <c r="B65" s="49"/>
       <c r="C65" s="45"/>
@@ -4753,7 +4770,7 @@
       <c r="S65" s="1"/>
       <c r="U65" s="37"/>
     </row>
-    <row r="66" spans="1:21" s="9" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" s="9" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="49"/>
       <c r="B66" s="49"/>
       <c r="C66" s="45"/>
@@ -4773,7 +4790,7 @@
       <c r="S66" s="1"/>
       <c r="U66" s="37"/>
     </row>
-    <row r="67" spans="1:21" s="9" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" s="9" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="49"/>
       <c r="B67" s="49"/>
       <c r="C67" s="45"/>
@@ -4793,7 +4810,7 @@
       <c r="S67" s="1"/>
       <c r="U67" s="37"/>
     </row>
-    <row r="68" spans="1:21" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49"/>
       <c r="B68" s="49"/>
       <c r="C68" s="45"/>
@@ -4813,7 +4830,7 @@
       <c r="S68" s="1"/>
       <c r="U68" s="37"/>
     </row>
-    <row r="69" spans="1:21" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="49"/>
       <c r="B69" s="49"/>
       <c r="C69" s="45"/>
@@ -4833,7 +4850,7 @@
       <c r="S69" s="1"/>
       <c r="U69" s="37"/>
     </row>
-    <row r="70" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="49"/>
       <c r="B70" s="49"/>
       <c r="C70" s="45"/>
@@ -4853,7 +4870,7 @@
       <c r="S70" s="1"/>
       <c r="U70" s="37"/>
     </row>
-    <row r="71" spans="1:21" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="49"/>
       <c r="B71" s="49"/>
       <c r="C71" s="45"/>
@@ -4873,7 +4890,7 @@
       <c r="S71" s="1"/>
       <c r="U71" s="37"/>
     </row>
-    <row r="72" spans="1:21" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="49"/>
       <c r="B72" s="49"/>
       <c r="C72" s="45"/>
@@ -4893,7 +4910,7 @@
       <c r="S72" s="1"/>
       <c r="U72" s="37"/>
     </row>
-    <row r="73" spans="1:21" s="9" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" s="9" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="49"/>
       <c r="B73" s="49"/>
       <c r="C73" s="45"/>
@@ -4913,7 +4930,7 @@
       <c r="S73" s="1"/>
       <c r="U73" s="37"/>
     </row>
-    <row r="74" spans="1:21" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="49"/>
       <c r="B74" s="49"/>
       <c r="C74" s="45"/>
@@ -4933,7 +4950,7 @@
       <c r="S74" s="1"/>
       <c r="U74" s="37"/>
     </row>
-    <row r="75" spans="1:21" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="49"/>
       <c r="B75" s="49"/>
       <c r="C75" s="45"/>
@@ -4953,7 +4970,7 @@
       <c r="S75" s="1"/>
       <c r="U75" s="37"/>
     </row>
-    <row r="76" spans="1:21" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="49"/>
       <c r="B76" s="49"/>
       <c r="C76" s="45"/>
@@ -4973,7 +4990,7 @@
       <c r="S76" s="1"/>
       <c r="U76" s="37"/>
     </row>
-    <row r="77" spans="1:21" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="49"/>
       <c r="B77" s="49"/>
       <c r="C77" s="45"/>
@@ -4993,7 +5010,7 @@
       <c r="S77" s="1"/>
       <c r="U77" s="37"/>
     </row>
-    <row r="78" spans="1:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="49"/>
       <c r="B78" s="49"/>
       <c r="C78" s="45"/>
@@ -5013,7 +5030,7 @@
       <c r="S78" s="1"/>
       <c r="U78" s="37"/>
     </row>
-    <row r="79" spans="1:21" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="49"/>
       <c r="B79" s="49"/>
       <c r="C79" s="45"/>
@@ -5033,7 +5050,7 @@
       <c r="S79" s="1"/>
       <c r="U79" s="37"/>
     </row>
-    <row r="80" spans="1:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="49"/>
       <c r="B80" s="49"/>
       <c r="C80" s="45"/>
@@ -5053,7 +5070,7 @@
       <c r="S80" s="1"/>
       <c r="U80" s="37"/>
     </row>
-    <row r="81" spans="1:21" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="49"/>
       <c r="B81" s="49"/>
       <c r="C81" s="45"/>
@@ -5073,7 +5090,7 @@
       <c r="S81" s="1"/>
       <c r="U81" s="37"/>
     </row>
-    <row r="82" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="49"/>
       <c r="B82" s="49"/>
       <c r="C82" s="45"/>
@@ -5093,7 +5110,7 @@
       <c r="S82" s="1"/>
       <c r="U82" s="37"/>
     </row>
-    <row r="83" spans="1:21" s="9" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" s="9" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="49"/>
       <c r="B83" s="49"/>
       <c r="C83" s="45"/>
@@ -5113,7 +5130,7 @@
       <c r="S83" s="1"/>
       <c r="U83" s="37"/>
     </row>
-    <row r="84" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="49"/>
       <c r="B84" s="49"/>
       <c r="C84" s="45"/>
@@ -5133,7 +5150,7 @@
       <c r="S84" s="1"/>
       <c r="U84" s="37"/>
     </row>
-    <row r="85" spans="1:21" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="49"/>
       <c r="B85" s="49"/>
       <c r="C85" s="45"/>
@@ -5153,7 +5170,7 @@
       <c r="S85" s="1"/>
       <c r="U85" s="37"/>
     </row>
-    <row r="86" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="49"/>
       <c r="B86" s="49"/>
       <c r="C86" s="45"/>
@@ -5173,7 +5190,7 @@
       <c r="S86" s="1"/>
       <c r="U86" s="37"/>
     </row>
-    <row r="87" spans="1:21" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="49"/>
       <c r="B87" s="49"/>
       <c r="C87" s="45"/>
@@ -5193,7 +5210,7 @@
       <c r="S87" s="1"/>
       <c r="U87" s="37"/>
     </row>
-    <row r="88" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="49"/>
       <c r="B88" s="49"/>
       <c r="C88" s="45"/>
@@ -5213,7 +5230,7 @@
       <c r="S88" s="1"/>
       <c r="U88" s="37"/>
     </row>
-    <row r="89" spans="1:21" s="9" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" s="9" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="49"/>
       <c r="B89" s="49"/>
       <c r="C89" s="45"/>
@@ -5233,7 +5250,7 @@
       <c r="S89" s="1"/>
       <c r="U89" s="37"/>
     </row>
-    <row r="90" spans="1:21" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="49"/>
       <c r="B90" s="49"/>
       <c r="C90" s="45"/>
@@ -5253,7 +5270,7 @@
       <c r="S90" s="1"/>
       <c r="U90" s="37"/>
     </row>
-    <row r="91" spans="1:21" s="9" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" s="9" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="49"/>
       <c r="B91" s="49"/>
       <c r="C91" s="45"/>
@@ -5273,7 +5290,7 @@
       <c r="S91" s="1"/>
       <c r="U91" s="37"/>
     </row>
-    <row r="92" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -5288,7 +5305,7 @@
       <c r="O92" s="48"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -5303,7 +5320,7 @@
       <c r="O93" s="48"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -5318,7 +5335,7 @@
       <c r="O94" s="48"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -5333,7 +5350,7 @@
       <c r="O95" s="48"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -5348,7 +5365,7 @@
       <c r="O96" s="48"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -5363,7 +5380,7 @@
       <c r="O97" s="48"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -5378,7 +5395,7 @@
       <c r="O98" s="48"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -5393,7 +5410,7 @@
       <c r="O99" s="48"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -5408,7 +5425,7 @@
       <c r="O100" s="48"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -5429,7 +5446,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="27"/>
     </row>
-    <row r="102" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -5450,7 +5467,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="27"/>
     </row>
-    <row r="103" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -5471,7 +5488,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="27"/>
     </row>
-    <row r="104" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -5492,7 +5509,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="27"/>
     </row>
-    <row r="105" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -5513,7 +5530,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="27"/>
     </row>
-    <row r="106" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -5534,7 +5551,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="27"/>
     </row>
-    <row r="107" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -5555,7 +5572,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="27"/>
     </row>
-    <row r="108" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -5576,7 +5593,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="27"/>
     </row>
-    <row r="109" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -5597,7 +5614,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="27"/>
     </row>
-    <row r="110" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -5631,1408 +5648,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" style="108" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="113" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="113"/>
-    <col min="9" max="9" width="13.109375" style="113" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="113"/>
-    <col min="12" max="12" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="93">
-        <v>15</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="99">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G4" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="99">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="99">
-        <v>4</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="99">
-        <v>5</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G7" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="99">
-        <v>6</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G8" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93">
-        <v>16</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="93">
-        <v>1</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="96">
-        <v>43949</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93">
-        <v>2</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="96">
-        <v>43949</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="93">
-        <v>3</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="96">
-        <v>43949</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="93">
-        <v>17</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="93">
-        <v>1</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="93">
-        <v>2</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="96">
-        <v>43948</v>
-      </c>
-      <c r="G13" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I13" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="93">
-        <v>3</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="98">
-        <v>43948</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="93">
-        <v>18</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="93">
-        <v>1</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G15" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I15" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93">
-        <v>2</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G16" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="93">
-        <v>3</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G17" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="93">
-        <v>19</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="93">
-        <v>1</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G18" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93">
-        <v>2</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="93">
-        <v>3</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G20" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="93">
-        <v>20</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="93">
-        <v>1</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G21" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93">
-        <v>2</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G22" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A23" s="93">
-        <v>21</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="93">
-        <v>1</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="96">
-        <v>43949</v>
-      </c>
-      <c r="G23" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="I23" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="93"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="93">
-        <v>2</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="96">
-        <v>43949</v>
-      </c>
-      <c r="G24" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="93">
-        <v>3</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="96">
-        <v>43950</v>
-      </c>
-      <c r="G25" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="93">
-        <v>1</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="96">
-        <v>43951</v>
-      </c>
-      <c r="G26" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="93">
-        <v>2</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="96">
-        <v>43951</v>
-      </c>
-      <c r="G27" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="93">
-        <v>3</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="96">
-        <v>43952</v>
-      </c>
-      <c r="G28" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H28" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-    </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-    </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-    </row>
-    <row r="44" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-    </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-    </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-    </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-    </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U176"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="5" width="30.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" style="76" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -7046,7 +5677,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="67"/>
@@ -7064,7 +5695,7 @@
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -7084,7 +5715,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>26</v>
@@ -7114,7 +5745,1561 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="93">
+        <v>15</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="99">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="99">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="93"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="99">
+        <v>3</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="93"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="99">
+        <v>4</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="99">
+        <v>5</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="93"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93">
+        <v>16</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="93">
+        <v>1</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="96">
+        <v>43949</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93">
+        <v>2</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="96">
+        <v>43949</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="93">
+        <v>3</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="96">
+        <v>43949</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="93">
+        <v>17</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="93">
+        <v>1</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="93"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="93">
+        <v>2</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="96">
+        <v>43948</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="93"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="93"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="93">
+        <v>3</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="98">
+        <v>43948</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="93"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="93">
+        <v>18</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="93">
+        <v>1</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="93"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93">
+        <v>2</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G16" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="93"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="93">
+        <v>3</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G17" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="93"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="93">
+        <v>19</v>
+      </c>
+      <c r="B18" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="93">
+        <v>1</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G18" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="93"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93">
+        <v>2</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="93"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="93">
+        <v>3</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G20" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="93"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="93">
+        <v>20</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="93">
+        <v>1</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G21" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="93"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93">
+        <v>2</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="96">
+        <v>43952</v>
+      </c>
+      <c r="G22" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="93"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="108">
+        <v>21</v>
+      </c>
+      <c r="B23" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="108">
+        <v>1</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="110">
+        <v>43949</v>
+      </c>
+      <c r="G23" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="108"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="105"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="108">
+        <v>2</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="110">
+        <v>43949</v>
+      </c>
+      <c r="G24" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="105"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="105"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="108">
+        <v>3</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="110">
+        <v>43950</v>
+      </c>
+      <c r="G25" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="105"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="105">
+        <v>22</v>
+      </c>
+      <c r="B26" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="108">
+        <v>1</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="110">
+        <v>43951</v>
+      </c>
+      <c r="G26" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="105"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="105"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="108">
+        <v>2</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="110">
+        <v>43951</v>
+      </c>
+      <c r="G27" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" s="105"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="105"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108">
+        <v>3</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="110">
+        <v>43952</v>
+      </c>
+      <c r="G28" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="105"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="105">
+        <v>23</v>
+      </c>
+      <c r="B29" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="108">
+        <v>1</v>
+      </c>
+      <c r="D29" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="110">
+        <v>43949</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="108"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="105"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108">
+        <v>2</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="110">
+        <v>43949</v>
+      </c>
+      <c r="G30" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="108"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="105"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="108">
+        <v>3</v>
+      </c>
+      <c r="D31" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="110">
+        <v>43949</v>
+      </c>
+      <c r="G31" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="108"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="105">
+        <v>24</v>
+      </c>
+      <c r="B32" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="108">
+        <v>1</v>
+      </c>
+      <c r="D32" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="110">
+        <v>43948</v>
+      </c>
+      <c r="G32" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" s="108"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="105"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="108">
+        <v>2</v>
+      </c>
+      <c r="D33" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="110">
+        <v>43948</v>
+      </c>
+      <c r="G33" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="108"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="105"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="108">
+        <v>3</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="111">
+        <v>43948</v>
+      </c>
+      <c r="G34" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="108"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="105">
+        <v>25</v>
+      </c>
+      <c r="B35" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="108">
+        <v>1</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="110">
+        <v>43952</v>
+      </c>
+      <c r="G35" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="108"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="105"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="108">
+        <v>2</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="110">
+        <v>43952</v>
+      </c>
+      <c r="G36" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36" s="108"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="105"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="108">
+        <v>3</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="110">
+        <v>43952</v>
+      </c>
+      <c r="G37" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="108"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+    </row>
+    <row r="44" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+    </row>
+    <row r="45" spans="1:16" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+    </row>
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+    </row>
+    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U176"/>
+  <sheetViews>
+    <sheetView topLeftCell="A69" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="5" width="30.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="76" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="93">
         <v>1</v>
       </c>
@@ -7139,7 +7324,9 @@
       <c r="H4" s="93">
         <v>2</v>
       </c>
-      <c r="I4" s="93"/>
+      <c r="I4" s="108" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="93">
         <v>3</v>
       </c>
@@ -7150,7 +7337,7 @@
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="93"/>
       <c r="C5" s="93">
@@ -7171,7 +7358,9 @@
       <c r="H5" s="93">
         <v>2</v>
       </c>
-      <c r="I5" s="93"/>
+      <c r="I5" s="108" t="s">
+        <v>62</v>
+      </c>
       <c r="J5" s="93">
         <v>2</v>
       </c>
@@ -7182,7 +7371,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="93"/>
       <c r="B6" s="93"/>
       <c r="C6" s="93">
@@ -7203,7 +7392,9 @@
       <c r="H6" s="93">
         <v>1</v>
       </c>
-      <c r="I6" s="93"/>
+      <c r="I6" s="93" t="s">
+        <v>62</v>
+      </c>
       <c r="J6" s="93">
         <v>2</v>
       </c>
@@ -7214,7 +7405,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
       <c r="B7" s="93"/>
       <c r="C7" s="93">
@@ -7248,7 +7439,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="93"/>
       <c r="B8" s="93"/>
       <c r="C8" s="93">
@@ -7273,7 +7464,7 @@
         <v>62</v>
       </c>
       <c r="J8" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="71"/>
@@ -7282,7 +7473,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
       <c r="B9" s="93"/>
       <c r="C9" s="93">
@@ -7307,7 +7498,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="71"/>
@@ -7316,7 +7507,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="93"/>
       <c r="B10" s="93"/>
       <c r="C10" s="93">
@@ -7337,7 +7528,9 @@
       <c r="H10" s="93">
         <v>2</v>
       </c>
-      <c r="I10" s="93"/>
+      <c r="I10" s="93" t="s">
+        <v>62</v>
+      </c>
       <c r="J10" s="93">
         <v>2</v>
       </c>
@@ -7348,7 +7541,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
       <c r="B11" s="93"/>
       <c r="C11" s="93">
@@ -7369,7 +7562,9 @@
       <c r="H11" s="93">
         <v>2</v>
       </c>
-      <c r="I11" s="93"/>
+      <c r="I11" s="108" t="s">
+        <v>62</v>
+      </c>
       <c r="J11" s="93">
         <v>3</v>
       </c>
@@ -7380,7 +7575,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="93"/>
       <c r="B12" s="93"/>
       <c r="C12" s="93">
@@ -7401,7 +7596,9 @@
       <c r="H12" s="93">
         <v>1</v>
       </c>
-      <c r="I12" s="93"/>
+      <c r="I12" s="108" t="s">
+        <v>62</v>
+      </c>
       <c r="J12" s="93">
         <v>1</v>
       </c>
@@ -7412,7 +7609,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
       <c r="B13" s="93"/>
       <c r="C13" s="93"/>
@@ -7421,7 +7618,7 @@
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="93"/>
       <c r="K13" s="15"/>
       <c r="L13" s="71"/>
@@ -7430,7 +7627,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="93">
         <v>2</v>
       </c>
@@ -7455,7 +7652,9 @@
       <c r="H14" s="93">
         <v>2</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="108" t="s">
+        <v>62</v>
+      </c>
       <c r="J14" s="93">
         <v>2</v>
       </c>
@@ -7466,7 +7665,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="94"/>
       <c r="C15" s="93">
@@ -7487,7 +7686,9 @@
       <c r="H15" s="93">
         <v>1</v>
       </c>
-      <c r="I15" s="93"/>
+      <c r="I15" s="93" t="s">
+        <v>62</v>
+      </c>
       <c r="J15" s="93">
         <v>2</v>
       </c>
@@ -7498,7 +7699,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
       <c r="B16" s="94"/>
       <c r="C16" s="93">
@@ -7519,7 +7720,9 @@
       <c r="H16" s="93">
         <v>2</v>
       </c>
-      <c r="I16" s="93"/>
+      <c r="I16" s="93" t="s">
+        <v>62</v>
+      </c>
       <c r="J16" s="93">
         <v>3</v>
       </c>
@@ -7530,7 +7733,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="93">
         <v>3</v>
       </c>
@@ -7568,7 +7771,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="93"/>
       <c r="B18" s="93"/>
       <c r="C18" s="93">
@@ -7602,7 +7805,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="93"/>
       <c r="B19" s="93"/>
       <c r="C19" s="93">
@@ -7636,7 +7839,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="93">
         <v>4</v>
       </c>
@@ -7674,7 +7877,7 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
       <c r="B21" s="93"/>
       <c r="C21" s="93">
@@ -7708,7 +7911,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
       <c r="B22" s="93"/>
       <c r="C22" s="93">
@@ -7742,7 +7945,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="93">
         <v>5</v>
       </c>
@@ -7780,7 +7983,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="93"/>
       <c r="B24" s="93"/>
       <c r="C24" s="93">
@@ -7814,7 +8017,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="93"/>
       <c r="B25" s="93"/>
       <c r="C25" s="93">
@@ -7848,7 +8051,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="93"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93">
@@ -7882,7 +8085,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="93">
         <v>6</v>
       </c>
@@ -7920,7 +8123,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
       <c r="B28" s="93"/>
       <c r="C28" s="93">
@@ -7954,7 +8157,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="93"/>
       <c r="B29" s="93"/>
       <c r="C29" s="93">
@@ -7988,7 +8191,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93">
@@ -8022,7 +8225,7 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="93">
         <v>7</v>
       </c>
@@ -8060,7 +8263,7 @@
       <c r="O31" s="79"/>
       <c r="P31" s="79"/>
     </row>
-    <row r="32" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
       <c r="B32" s="93"/>
       <c r="C32" s="93">
@@ -8094,7 +8297,7 @@
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
     </row>
-    <row r="33" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
       <c r="B33" s="93"/>
       <c r="C33" s="93">
@@ -8128,7 +8331,7 @@
       <c r="O33" s="79"/>
       <c r="P33" s="79"/>
     </row>
-    <row r="34" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
       <c r="B34" s="93"/>
       <c r="C34" s="93">
@@ -8162,7 +8365,7 @@
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
     </row>
-    <row r="35" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="93">
         <v>8</v>
       </c>
@@ -8200,7 +8403,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
       <c r="B36" s="92"/>
       <c r="C36" s="93">
@@ -8234,7 +8437,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
       <c r="B37" s="92"/>
       <c r="C37" s="93">
@@ -8268,7 +8471,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
       <c r="B38" s="92"/>
       <c r="C38" s="93">
@@ -8302,7 +8505,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
         <v>9</v>
       </c>
@@ -8340,7 +8543,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
       <c r="B40" s="92"/>
       <c r="C40" s="93">
@@ -8374,7 +8577,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
       <c r="B41" s="92"/>
       <c r="C41" s="93">
@@ -8408,7 +8611,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
       <c r="B42" s="92"/>
       <c r="C42" s="93">
@@ -8442,7 +8645,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="93">
         <v>10</v>
       </c>
@@ -8480,7 +8683,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
       <c r="B44" s="92"/>
       <c r="C44" s="93">
@@ -8514,7 +8717,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="101"/>
       <c r="B45" s="92"/>
       <c r="C45" s="93">
@@ -8548,7 +8751,7 @@
       <c r="O45" s="63"/>
       <c r="P45" s="63"/>
     </row>
-    <row r="46" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="101"/>
       <c r="B46" s="92"/>
       <c r="C46" s="93">
@@ -8582,7 +8785,7 @@
       <c r="O46" s="63"/>
       <c r="P46" s="63"/>
     </row>
-    <row r="47" spans="1:16" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="101">
         <v>11</v>
       </c>
@@ -8620,7 +8823,7 @@
       <c r="O47" s="63"/>
       <c r="P47" s="63"/>
     </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="92"/>
       <c r="B48" s="92"/>
       <c r="C48" s="93">
@@ -8654,7 +8857,7 @@
       <c r="O48" s="66"/>
       <c r="P48" s="66"/>
     </row>
-    <row r="49" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="102"/>
       <c r="B49" s="92"/>
       <c r="C49" s="93">
@@ -8688,7 +8891,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
     </row>
-    <row r="50" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="93"/>
       <c r="B50" s="92"/>
       <c r="C50" s="93">
@@ -8722,12 +8925,12 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="93">
         <v>12</v>
       </c>
       <c r="B51" s="92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C51" s="93">
         <v>1</v>
@@ -8760,7 +8963,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
       <c r="B52" s="92"/>
       <c r="C52" s="93">
@@ -8794,7 +8997,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="93"/>
       <c r="B53" s="92"/>
       <c r="C53" s="93">
@@ -8828,7 +9031,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
       <c r="B54" s="92"/>
       <c r="C54" s="93">
@@ -8862,12 +9065,12 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="93">
         <v>13</v>
       </c>
       <c r="B55" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C55" s="93">
         <v>1</v>
@@ -8900,7 +9103,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="93"/>
       <c r="B56" s="92"/>
       <c r="C56" s="93">
@@ -8934,7 +9137,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="93"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93">
@@ -8968,7 +9171,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="92"/>
       <c r="C58" s="93">
@@ -9002,7 +9205,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="93">
         <v>14</v>
       </c>
@@ -9040,7 +9243,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="93"/>
       <c r="B60" s="95"/>
       <c r="C60" s="93">
@@ -9074,7 +9277,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="93"/>
       <c r="B61" s="95"/>
       <c r="C61" s="93">
@@ -9108,7 +9311,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="93"/>
       <c r="B62" s="95"/>
       <c r="C62" s="93">
@@ -9142,7 +9345,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="79"/>
       <c r="B63" s="79"/>
       <c r="C63" s="79"/>
@@ -9160,7 +9363,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="79"/>
       <c r="B64" s="79"/>
       <c r="C64" s="79"/>
@@ -9178,7 +9381,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="79"/>
       <c r="B65" s="79"/>
       <c r="C65" s="79"/>
@@ -9196,7 +9399,7 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="79"/>
       <c r="B66" s="79"/>
       <c r="C66" s="79"/>
@@ -9214,7 +9417,7 @@
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
     </row>
-    <row r="67" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="83"/>
       <c r="B67" s="88"/>
       <c r="C67" s="89"/>
@@ -9239,7 +9442,7 @@
       <c r="T67" s="79"/>
       <c r="U67" s="79"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="83"/>
       <c r="B68" s="79"/>
       <c r="C68" s="79"/>
@@ -9262,7 +9465,7 @@
       <c r="T68" s="79"/>
       <c r="U68" s="79"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="83"/>
       <c r="B69" s="79"/>
       <c r="C69" s="79"/>
@@ -9285,7 +9488,7 @@
       <c r="T69" s="79"/>
       <c r="U69" s="79"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="83"/>
       <c r="B70" s="83"/>
       <c r="C70" s="83"/>
@@ -9308,7 +9511,7 @@
       <c r="T70" s="79"/>
       <c r="U70" s="79"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="83"/>
       <c r="B71" s="87"/>
       <c r="C71" s="83"/>
@@ -9331,7 +9534,7 @@
       <c r="T71" s="79"/>
       <c r="U71" s="79"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="83"/>
       <c r="B72" s="87"/>
       <c r="C72" s="83"/>
@@ -9354,7 +9557,7 @@
       <c r="T72" s="79"/>
       <c r="U72" s="79"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="83"/>
       <c r="B73" s="87"/>
       <c r="C73" s="83"/>
@@ -9377,7 +9580,7 @@
       <c r="T73" s="79"/>
       <c r="U73" s="79"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="83"/>
       <c r="B74" s="79"/>
       <c r="C74" s="79"/>
@@ -9400,7 +9603,7 @@
       <c r="T74" s="79"/>
       <c r="U74" s="79"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="83"/>
       <c r="B75" s="87"/>
       <c r="C75" s="83"/>
@@ -9423,7 +9626,7 @@
       <c r="T75" s="79"/>
       <c r="U75" s="79"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="83"/>
       <c r="B76" s="87"/>
       <c r="C76" s="79"/>
@@ -9446,7 +9649,7 @@
       <c r="T76" s="79"/>
       <c r="U76" s="79"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="79"/>
       <c r="B77" s="87"/>
       <c r="C77" s="79"/>
@@ -9469,7 +9672,7 @@
       <c r="T77" s="79"/>
       <c r="U77" s="79"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="79"/>
       <c r="B78" s="87"/>
       <c r="C78" s="79"/>
@@ -9492,7 +9695,7 @@
       <c r="T78" s="79"/>
       <c r="U78" s="79"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="79"/>
       <c r="B79" s="79"/>
       <c r="C79" s="79"/>
@@ -9515,7 +9718,7 @@
       <c r="T79" s="79"/>
       <c r="U79" s="79"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="79"/>
       <c r="B80" s="79"/>
       <c r="C80" s="79"/>
@@ -9538,7 +9741,7 @@
       <c r="T80" s="79"/>
       <c r="U80" s="79"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="79"/>
       <c r="B81" s="79"/>
       <c r="C81" s="79"/>
@@ -9561,7 +9764,7 @@
       <c r="T81" s="79"/>
       <c r="U81" s="79"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="79"/>
       <c r="B82" s="79"/>
       <c r="C82" s="79"/>
@@ -9584,7 +9787,7 @@
       <c r="T82" s="79"/>
       <c r="U82" s="79"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="79"/>
       <c r="B83" s="79"/>
       <c r="C83" s="79"/>
@@ -9607,7 +9810,7 @@
       <c r="T83" s="79"/>
       <c r="U83" s="79"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="79"/>
       <c r="B84" s="79"/>
       <c r="C84" s="79"/>
@@ -9630,7 +9833,7 @@
       <c r="T84" s="79"/>
       <c r="U84" s="79"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="79"/>
       <c r="B85" s="79"/>
       <c r="C85" s="79"/>
@@ -9653,7 +9856,7 @@
       <c r="T85" s="79"/>
       <c r="U85" s="79"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="79"/>
       <c r="B86" s="79"/>
       <c r="C86" s="79"/>
@@ -9676,7 +9879,7 @@
       <c r="T86" s="79"/>
       <c r="U86" s="79"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="79"/>
       <c r="B87" s="79"/>
       <c r="C87" s="79"/>
@@ -9699,7 +9902,7 @@
       <c r="T87" s="79"/>
       <c r="U87" s="79"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="79"/>
       <c r="B88" s="79"/>
       <c r="C88" s="79"/>
@@ -9722,7 +9925,7 @@
       <c r="T88" s="79"/>
       <c r="U88" s="79"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="79"/>
       <c r="B89" s="79"/>
       <c r="C89" s="79"/>
@@ -9745,7 +9948,7 @@
       <c r="T89" s="79"/>
       <c r="U89" s="79"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="79"/>
       <c r="B90" s="79"/>
       <c r="C90" s="79"/>
@@ -9768,7 +9971,7 @@
       <c r="T90" s="79"/>
       <c r="U90" s="79"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="79"/>
       <c r="B91" s="79"/>
       <c r="C91" s="79"/>
@@ -9791,7 +9994,7 @@
       <c r="T91" s="79"/>
       <c r="U91" s="79"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="79"/>
       <c r="B92" s="79"/>
       <c r="C92" s="79"/>
@@ -9814,7 +10017,7 @@
       <c r="T92" s="79"/>
       <c r="U92" s="79"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="79"/>
       <c r="B93" s="79"/>
       <c r="C93" s="79"/>
@@ -9837,7 +10040,7 @@
       <c r="T93" s="79"/>
       <c r="U93" s="79"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="79"/>
       <c r="B94" s="79"/>
       <c r="C94" s="79"/>
@@ -9860,7 +10063,7 @@
       <c r="T94" s="79"/>
       <c r="U94" s="79"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="79"/>
       <c r="B95" s="79"/>
       <c r="C95" s="79"/>
@@ -9883,7 +10086,7 @@
       <c r="T95" s="79"/>
       <c r="U95" s="79"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="79"/>
       <c r="B96" s="79"/>
       <c r="C96" s="79"/>
@@ -9906,7 +10109,7 @@
       <c r="T96" s="79"/>
       <c r="U96" s="79"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="79"/>
       <c r="B97" s="79"/>
       <c r="C97" s="79"/>
@@ -9929,7 +10132,7 @@
       <c r="T97" s="79"/>
       <c r="U97" s="79"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="79"/>
       <c r="B98" s="79"/>
       <c r="C98" s="79"/>
@@ -9952,7 +10155,7 @@
       <c r="T98" s="79"/>
       <c r="U98" s="79"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="79"/>
       <c r="B99" s="79"/>
       <c r="C99" s="79"/>
@@ -9975,7 +10178,7 @@
       <c r="T99" s="79"/>
       <c r="U99" s="79"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="79"/>
       <c r="B100" s="79"/>
       <c r="C100" s="79"/>
@@ -9998,7 +10201,7 @@
       <c r="T100" s="79"/>
       <c r="U100" s="79"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="79"/>
       <c r="B101" s="79"/>
       <c r="C101" s="79"/>
@@ -10021,7 +10224,7 @@
       <c r="T101" s="79"/>
       <c r="U101" s="79"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="79"/>
       <c r="B102" s="79"/>
       <c r="C102" s="79"/>
@@ -10044,7 +10247,7 @@
       <c r="T102" s="79"/>
       <c r="U102" s="79"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="79"/>
       <c r="B103" s="79"/>
       <c r="C103" s="79"/>
@@ -10067,7 +10270,7 @@
       <c r="T103" s="79"/>
       <c r="U103" s="79"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="79"/>
       <c r="B104" s="79"/>
       <c r="C104" s="79"/>
@@ -10090,7 +10293,7 @@
       <c r="T104" s="79"/>
       <c r="U104" s="79"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="79"/>
       <c r="B105" s="79"/>
       <c r="C105" s="79"/>
@@ -10113,7 +10316,7 @@
       <c r="T105" s="79"/>
       <c r="U105" s="79"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="79"/>
       <c r="B106" s="79"/>
       <c r="C106" s="79"/>
@@ -10136,7 +10339,7 @@
       <c r="T106" s="79"/>
       <c r="U106" s="79"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="79"/>
       <c r="B107" s="79"/>
       <c r="C107" s="79"/>
@@ -10159,7 +10362,7 @@
       <c r="T107" s="79"/>
       <c r="U107" s="79"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="79"/>
       <c r="B108" s="79"/>
       <c r="C108" s="79"/>
@@ -10182,7 +10385,7 @@
       <c r="T108" s="79"/>
       <c r="U108" s="79"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="79"/>
       <c r="B109" s="79"/>
       <c r="C109" s="79"/>
@@ -10205,7 +10408,7 @@
       <c r="T109" s="79"/>
       <c r="U109" s="79"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="79"/>
       <c r="B110" s="79"/>
       <c r="C110" s="79"/>
@@ -10228,7 +10431,7 @@
       <c r="T110" s="79"/>
       <c r="U110" s="79"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="79"/>
       <c r="B111" s="79"/>
       <c r="C111" s="79"/>
@@ -10251,7 +10454,7 @@
       <c r="T111" s="79"/>
       <c r="U111" s="79"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="79"/>
       <c r="B112" s="79"/>
       <c r="C112" s="79"/>
@@ -10274,7 +10477,7 @@
       <c r="T112" s="79"/>
       <c r="U112" s="79"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="79"/>
       <c r="B113" s="79"/>
       <c r="C113" s="79"/>
@@ -10297,7 +10500,7 @@
       <c r="T113" s="79"/>
       <c r="U113" s="79"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="79"/>
       <c r="B114" s="79"/>
       <c r="C114" s="79"/>
@@ -10320,7 +10523,7 @@
       <c r="T114" s="79"/>
       <c r="U114" s="79"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="79"/>
       <c r="B115" s="79"/>
       <c r="C115" s="79"/>
@@ -10343,7 +10546,7 @@
       <c r="T115" s="79"/>
       <c r="U115" s="79"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="79"/>
       <c r="B116" s="79"/>
       <c r="C116" s="79"/>
@@ -10366,7 +10569,7 @@
       <c r="T116" s="79"/>
       <c r="U116" s="79"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="79"/>
       <c r="B117" s="79"/>
       <c r="C117" s="79"/>
@@ -10389,7 +10592,7 @@
       <c r="T117" s="79"/>
       <c r="U117" s="79"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="79"/>
       <c r="B118" s="79"/>
       <c r="C118" s="79"/>
@@ -10412,7 +10615,7 @@
       <c r="T118" s="79"/>
       <c r="U118" s="79"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="79"/>
       <c r="B119" s="79"/>
       <c r="C119" s="79"/>
@@ -10435,7 +10638,7 @@
       <c r="T119" s="79"/>
       <c r="U119" s="79"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="79"/>
       <c r="B120" s="79"/>
       <c r="C120" s="79"/>
@@ -10458,7 +10661,7 @@
       <c r="T120" s="79"/>
       <c r="U120" s="79"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="79"/>
       <c r="B121" s="79"/>
       <c r="C121" s="79"/>
@@ -10481,7 +10684,7 @@
       <c r="T121" s="79"/>
       <c r="U121" s="79"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="79"/>
       <c r="B122" s="79"/>
       <c r="C122" s="79"/>
@@ -10504,7 +10707,7 @@
       <c r="T122" s="79"/>
       <c r="U122" s="79"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="79"/>
       <c r="B123" s="79"/>
       <c r="C123" s="79"/>
@@ -10527,7 +10730,7 @@
       <c r="T123" s="79"/>
       <c r="U123" s="79"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="79"/>
       <c r="B124" s="79"/>
       <c r="C124" s="79"/>
@@ -10550,7 +10753,7 @@
       <c r="T124" s="79"/>
       <c r="U124" s="79"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="79"/>
       <c r="B125" s="79"/>
       <c r="C125" s="79"/>
@@ -10573,7 +10776,7 @@
       <c r="T125" s="79"/>
       <c r="U125" s="79"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="79"/>
       <c r="B126" s="79"/>
       <c r="C126" s="79"/>
@@ -10596,7 +10799,7 @@
       <c r="T126" s="79"/>
       <c r="U126" s="79"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="79"/>
       <c r="B127" s="79"/>
       <c r="C127" s="79"/>
@@ -10619,7 +10822,7 @@
       <c r="T127" s="79"/>
       <c r="U127" s="79"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="79"/>
       <c r="B128" s="79"/>
       <c r="C128" s="79"/>
@@ -10642,7 +10845,7 @@
       <c r="T128" s="79"/>
       <c r="U128" s="79"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="79"/>
       <c r="B129" s="79"/>
       <c r="C129" s="79"/>
@@ -10665,7 +10868,7 @@
       <c r="T129" s="79"/>
       <c r="U129" s="79"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="79"/>
       <c r="B130" s="79"/>
       <c r="C130" s="79"/>
@@ -10688,7 +10891,7 @@
       <c r="T130" s="79"/>
       <c r="U130" s="79"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="79"/>
       <c r="B131" s="79"/>
       <c r="C131" s="79"/>
@@ -10711,7 +10914,7 @@
       <c r="T131" s="79"/>
       <c r="U131" s="79"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="79"/>
       <c r="B132" s="79"/>
       <c r="C132" s="79"/>
@@ -10734,7 +10937,7 @@
       <c r="T132" s="79"/>
       <c r="U132" s="79"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="79"/>
       <c r="B133" s="79"/>
       <c r="C133" s="79"/>
@@ -10757,7 +10960,7 @@
       <c r="T133" s="79"/>
       <c r="U133" s="79"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="79"/>
       <c r="B134" s="79"/>
       <c r="C134" s="79"/>
@@ -10780,7 +10983,7 @@
       <c r="T134" s="79"/>
       <c r="U134" s="79"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="79"/>
       <c r="B135" s="79"/>
       <c r="C135" s="79"/>
@@ -10803,7 +11006,7 @@
       <c r="T135" s="79"/>
       <c r="U135" s="79"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="79"/>
       <c r="B136" s="79"/>
       <c r="C136" s="79"/>
@@ -10826,7 +11029,7 @@
       <c r="T136" s="79"/>
       <c r="U136" s="79"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="79"/>
       <c r="B137" s="79"/>
       <c r="C137" s="79"/>
@@ -10849,7 +11052,7 @@
       <c r="T137" s="79"/>
       <c r="U137" s="79"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="79"/>
       <c r="B138" s="79"/>
       <c r="C138" s="79"/>
@@ -10872,7 +11075,7 @@
       <c r="T138" s="79"/>
       <c r="U138" s="79"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="79"/>
       <c r="B139" s="79"/>
       <c r="C139" s="79"/>
@@ -10895,7 +11098,7 @@
       <c r="T139" s="79"/>
       <c r="U139" s="79"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="79"/>
       <c r="B140" s="79"/>
       <c r="C140" s="79"/>
@@ -10918,7 +11121,7 @@
       <c r="T140" s="79"/>
       <c r="U140" s="79"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="79"/>
       <c r="B141" s="79"/>
       <c r="C141" s="79"/>
@@ -10941,7 +11144,7 @@
       <c r="T141" s="79"/>
       <c r="U141" s="79"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="79"/>
       <c r="B142" s="79"/>
       <c r="C142" s="79"/>
@@ -10964,7 +11167,7 @@
       <c r="T142" s="79"/>
       <c r="U142" s="79"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="79"/>
       <c r="B143" s="79"/>
       <c r="C143" s="79"/>
@@ -10987,7 +11190,7 @@
       <c r="T143" s="79"/>
       <c r="U143" s="79"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="79"/>
       <c r="B144" s="79"/>
       <c r="C144" s="79"/>
@@ -11010,7 +11213,7 @@
       <c r="T144" s="79"/>
       <c r="U144" s="79"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="79"/>
       <c r="B145" s="79"/>
       <c r="C145" s="79"/>
@@ -11033,7 +11236,7 @@
       <c r="T145" s="79"/>
       <c r="U145" s="79"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="79"/>
       <c r="B146" s="79"/>
       <c r="C146" s="79"/>
@@ -11056,7 +11259,7 @@
       <c r="T146" s="79"/>
       <c r="U146" s="79"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="79"/>
       <c r="B147" s="79"/>
       <c r="C147" s="79"/>
@@ -11079,7 +11282,7 @@
       <c r="T147" s="79"/>
       <c r="U147" s="79"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="79"/>
       <c r="B148" s="79"/>
       <c r="C148" s="79"/>
@@ -11102,7 +11305,7 @@
       <c r="T148" s="79"/>
       <c r="U148" s="79"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="79"/>
       <c r="B149" s="79"/>
       <c r="C149" s="79"/>
@@ -11125,7 +11328,7 @@
       <c r="T149" s="79"/>
       <c r="U149" s="79"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="79"/>
       <c r="B150" s="79"/>
       <c r="C150" s="79"/>
@@ -11148,7 +11351,7 @@
       <c r="T150" s="79"/>
       <c r="U150" s="79"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="79"/>
       <c r="B151" s="79"/>
       <c r="C151" s="79"/>
@@ -11171,7 +11374,7 @@
       <c r="T151" s="79"/>
       <c r="U151" s="79"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="79"/>
       <c r="B152" s="79"/>
       <c r="C152" s="79"/>
@@ -11194,7 +11397,7 @@
       <c r="T152" s="79"/>
       <c r="U152" s="79"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="79"/>
       <c r="B153" s="79"/>
       <c r="C153" s="79"/>
@@ -11217,7 +11420,7 @@
       <c r="T153" s="79"/>
       <c r="U153" s="79"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="79"/>
       <c r="B154" s="79"/>
       <c r="C154" s="79"/>
@@ -11240,7 +11443,7 @@
       <c r="T154" s="79"/>
       <c r="U154" s="79"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="79"/>
       <c r="B155" s="79"/>
       <c r="C155" s="79"/>
@@ -11263,7 +11466,7 @@
       <c r="T155" s="79"/>
       <c r="U155" s="79"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="79"/>
       <c r="B156" s="79"/>
       <c r="C156" s="79"/>
@@ -11286,7 +11489,7 @@
       <c r="T156" s="79"/>
       <c r="U156" s="79"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="79"/>
       <c r="B157" s="79"/>
       <c r="C157" s="79"/>
@@ -11309,7 +11512,7 @@
       <c r="T157" s="79"/>
       <c r="U157" s="79"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="79"/>
       <c r="B158" s="79"/>
       <c r="C158" s="79"/>
@@ -11332,7 +11535,7 @@
       <c r="T158" s="79"/>
       <c r="U158" s="79"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="79"/>
       <c r="B159" s="79"/>
       <c r="C159" s="79"/>
@@ -11355,7 +11558,7 @@
       <c r="T159" s="79"/>
       <c r="U159" s="79"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="79"/>
       <c r="B160" s="79"/>
       <c r="C160" s="79"/>
@@ -11378,7 +11581,7 @@
       <c r="T160" s="79"/>
       <c r="U160" s="79"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="79"/>
       <c r="B161" s="79"/>
       <c r="C161" s="79"/>
@@ -11401,7 +11604,7 @@
       <c r="T161" s="79"/>
       <c r="U161" s="79"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="79"/>
       <c r="B162" s="79"/>
       <c r="C162" s="79"/>
@@ -11424,7 +11627,7 @@
       <c r="T162" s="79"/>
       <c r="U162" s="79"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="79"/>
       <c r="B163" s="79"/>
       <c r="C163" s="79"/>
@@ -11447,7 +11650,7 @@
       <c r="T163" s="79"/>
       <c r="U163" s="79"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="79"/>
       <c r="B164" s="79"/>
       <c r="C164" s="79"/>
@@ -11470,7 +11673,7 @@
       <c r="T164" s="79"/>
       <c r="U164" s="79"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="79"/>
       <c r="B165" s="79"/>
       <c r="C165" s="79"/>
@@ -11493,7 +11696,7 @@
       <c r="T165" s="79"/>
       <c r="U165" s="79"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="79"/>
       <c r="B166" s="79"/>
       <c r="C166" s="79"/>
@@ -11516,7 +11719,7 @@
       <c r="T166" s="79"/>
       <c r="U166" s="79"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="79"/>
       <c r="B167" s="79"/>
       <c r="C167" s="79"/>
@@ -11539,7 +11742,7 @@
       <c r="T167" s="79"/>
       <c r="U167" s="79"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="79"/>
       <c r="B168" s="79"/>
       <c r="C168" s="79"/>
@@ -11562,7 +11765,7 @@
       <c r="T168" s="79"/>
       <c r="U168" s="79"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="79"/>
       <c r="B169" s="79"/>
       <c r="C169" s="79"/>
@@ -11585,7 +11788,7 @@
       <c r="T169" s="79"/>
       <c r="U169" s="79"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="79"/>
       <c r="B170" s="79"/>
       <c r="C170" s="79"/>
@@ -11608,7 +11811,7 @@
       <c r="T170" s="79"/>
       <c r="U170" s="79"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="79"/>
       <c r="B171" s="79"/>
       <c r="C171" s="79"/>
@@ -11631,7 +11834,7 @@
       <c r="T171" s="79"/>
       <c r="U171" s="79"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="79"/>
       <c r="B172" s="79"/>
       <c r="C172" s="79"/>
@@ -11654,7 +11857,7 @@
       <c r="T172" s="79"/>
       <c r="U172" s="79"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="79"/>
       <c r="B173" s="79"/>
       <c r="C173" s="79"/>
@@ -11677,7 +11880,7 @@
       <c r="T173" s="79"/>
       <c r="U173" s="79"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="79"/>
       <c r="B174" s="79"/>
       <c r="C174" s="79"/>
@@ -11700,7 +11903,7 @@
       <c r="T174" s="79"/>
       <c r="U174" s="79"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="79"/>
       <c r="B175" s="79"/>
       <c r="C175" s="79"/>
@@ -11723,7 +11926,7 @@
       <c r="T175" s="79"/>
       <c r="U175" s="79"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="79"/>
       <c r="B176" s="79"/>
       <c r="C176" s="79"/>
